--- a/ceny_vyber.xlsx
+++ b/ceny_vyber.xlsx
@@ -1,23 +1,32 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="28109"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="22624"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/martinzita/Documents/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\DEVEL\respir-nakupy-upd\"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8F539E6A-A66E-4C38-B29E-CEE5E9956A95}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="760" windowWidth="28800" windowHeight="16060"/>
+    <workbookView xWindow="1260" yWindow="684" windowWidth="17280" windowHeight="8964" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="List1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="150001" concurrentCalc="0"/>
+  <calcPr calcId="191029" concurrentCalc="0"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{79F54976-1DA5-4618-B147-4CDE4B953A38}">
       <x14:workbookPr defaultImageDpi="32767"/>
+    </ext>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+      </xcalcf:calcFeatures>
     </ext>
     <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{7523E5D3-25F3-A5E0-1632-64F254C22452}">
       <mx:ArchID Flags="2"/>
@@ -27,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="765" uniqueCount="116">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="765" uniqueCount="115">
   <si>
     <t>dodavatel</t>
   </si>
@@ -372,16 +381,13 @@
   </si>
   <si>
     <t>Xiantao Zhongyi Safety a Protection Products Co. L</t>
-  </si>
-  <si>
-    <t>ministerstvo vnitra</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="19" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="19">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -595,8 +601,8 @@
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="2">
-    <cellStyle name="Hypertextový odkaz" xfId="1" builtinId="8"/>
-    <cellStyle name="Normální" xfId="0" builtinId="0"/>
+    <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -609,6 +615,9 @@
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
     </ext>
   </extLst>
 </styleSheet>
@@ -910,29 +919,29 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:P246"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B125" sqref="B125"/>
+    <sheetView tabSelected="1" topLeftCell="J104" workbookViewId="0">
+      <selection activeCell="O112" sqref="O112"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="11.1640625" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="11.19921875" defaultRowHeight="15.6"/>
   <cols>
-    <col min="3" max="3" width="37.83203125" customWidth="1"/>
+    <col min="3" max="3" width="37.796875" customWidth="1"/>
     <col min="5" max="5" width="23.5" customWidth="1"/>
-    <col min="6" max="6" width="11.6640625" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="9.33203125" customWidth="1"/>
-    <col min="8" max="8" width="36.33203125" customWidth="1"/>
-    <col min="9" max="9" width="9.83203125" customWidth="1"/>
+    <col min="6" max="6" width="11.69921875" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="9.296875" customWidth="1"/>
+    <col min="8" max="8" width="36.296875" customWidth="1"/>
+    <col min="9" max="9" width="9.796875" customWidth="1"/>
     <col min="10" max="10" width="18.5" customWidth="1"/>
     <col min="11" max="11" width="13" customWidth="1"/>
-    <col min="12" max="12" width="10.33203125" customWidth="1"/>
+    <col min="12" max="12" width="10.296875" customWidth="1"/>
     <col min="13" max="13" width="15.5" customWidth="1"/>
     <col min="15" max="15" width="25.5" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:16">
       <c r="A1" s="1" t="s">
         <v>58</v>
       </c>
@@ -982,7 +991,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="2" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:16">
       <c r="A2" s="29">
         <v>43902</v>
       </c>
@@ -1016,7 +1025,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="3" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:16">
       <c r="A3" s="29">
         <v>43902</v>
       </c>
@@ -1050,7 +1059,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="4" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:16">
       <c r="A4" s="29">
         <v>43902</v>
       </c>
@@ -1084,7 +1093,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="5" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:16">
       <c r="A5" s="29">
         <v>43903</v>
       </c>
@@ -1118,7 +1127,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="6" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:16">
       <c r="A6" s="29">
         <v>43903</v>
       </c>
@@ -1152,7 +1161,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="7" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:16">
       <c r="A7" s="29">
         <v>43903</v>
       </c>
@@ -1186,7 +1195,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="8" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:16">
       <c r="A8" s="29">
         <v>43903</v>
       </c>
@@ -1220,7 +1229,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="9" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:16">
       <c r="A9" s="29">
         <v>43903</v>
       </c>
@@ -1254,7 +1263,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="10" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:16">
       <c r="A10" s="29">
         <v>43903</v>
       </c>
@@ -1288,7 +1297,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="11" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:16">
       <c r="A11" s="29">
         <v>43903</v>
       </c>
@@ -1322,7 +1331,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="12" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:16">
       <c r="A12" s="29">
         <v>43903</v>
       </c>
@@ -1356,7 +1365,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="13" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:16">
       <c r="A13" s="29">
         <v>43903</v>
       </c>
@@ -1390,7 +1399,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="14" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:16">
       <c r="A14" s="29">
         <v>43903</v>
       </c>
@@ -1424,7 +1433,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="15" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:16">
       <c r="A15" s="29">
         <v>43903</v>
       </c>
@@ -1458,7 +1467,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="16" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:16">
       <c r="A16" s="29">
         <v>43904</v>
       </c>
@@ -1492,7 +1501,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="17" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:16">
       <c r="A17" s="29">
         <v>43905</v>
       </c>
@@ -1526,7 +1535,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="18" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:16">
       <c r="A18" s="29">
         <v>43905</v>
       </c>
@@ -1560,7 +1569,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="19" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:16">
       <c r="A19" s="29">
         <v>43905</v>
       </c>
@@ -1586,7 +1595,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="20" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:16">
       <c r="A20" s="29">
         <v>43905</v>
       </c>
@@ -1620,7 +1629,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="21" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:16">
       <c r="A21" s="29">
         <v>43905</v>
       </c>
@@ -1654,7 +1663,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="22" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:16">
       <c r="A22" s="29">
         <v>43905</v>
       </c>
@@ -1688,7 +1697,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="23" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:16">
       <c r="A23" s="29">
         <v>43906</v>
       </c>
@@ -1722,7 +1731,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="24" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:16">
       <c r="A24" s="29">
         <v>43906</v>
       </c>
@@ -1756,7 +1765,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="25" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:16">
       <c r="A25" s="29">
         <v>43906</v>
       </c>
@@ -1790,7 +1799,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="26" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:16">
       <c r="A26" s="29">
         <v>43906</v>
       </c>
@@ -1824,7 +1833,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="27" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:16">
       <c r="A27" s="29">
         <v>43907</v>
       </c>
@@ -1858,7 +1867,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="28" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:16">
       <c r="A28" s="29">
         <v>43907</v>
       </c>
@@ -1892,7 +1901,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="29" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:16">
       <c r="A29" s="29">
         <v>43907</v>
       </c>
@@ -1926,7 +1935,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="30" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:16">
       <c r="A30" s="29">
         <v>43907</v>
       </c>
@@ -1960,7 +1969,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="31" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="31" spans="1:16">
       <c r="A31" s="29">
         <v>43907</v>
       </c>
@@ -1994,7 +2003,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="32" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="32" spans="1:16">
       <c r="A32" s="29">
         <v>43907</v>
       </c>
@@ -2028,7 +2037,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="33" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="33" spans="1:16">
       <c r="A33" s="29">
         <v>43908</v>
       </c>
@@ -2062,7 +2071,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="34" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="34" spans="1:16">
       <c r="A34" s="29">
         <v>43908</v>
       </c>
@@ -2096,7 +2105,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="35" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="35" spans="1:16">
       <c r="A35" s="29">
         <v>43908</v>
       </c>
@@ -2130,7 +2139,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="36" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="36" spans="1:16">
       <c r="A36" s="29">
         <v>43908</v>
       </c>
@@ -2164,7 +2173,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="37" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="37" spans="1:16">
       <c r="A37" s="29">
         <v>43908</v>
       </c>
@@ -2198,7 +2207,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="38" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="38" spans="1:16">
       <c r="A38" s="29">
         <v>43908</v>
       </c>
@@ -2232,7 +2241,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="39" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="39" spans="1:16">
       <c r="A39" s="29">
         <v>43908</v>
       </c>
@@ -2266,7 +2275,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="40" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="40" spans="1:16">
       <c r="A40" s="29">
         <v>43909</v>
       </c>
@@ -2300,7 +2309,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="41" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="41" spans="1:16">
       <c r="A41" s="29">
         <v>43909</v>
       </c>
@@ -2334,7 +2343,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="42" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="42" spans="1:16">
       <c r="A42" s="29">
         <v>43909</v>
       </c>
@@ -2368,7 +2377,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="43" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="43" spans="1:16">
       <c r="A43" s="29">
         <v>43909</v>
       </c>
@@ -2402,7 +2411,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="44" spans="1:16" s="35" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="44" spans="1:16" s="35" customFormat="1">
       <c r="A44" s="36">
         <v>43909</v>
       </c>
@@ -2436,7 +2445,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="45" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="45" spans="1:16">
       <c r="A45" s="36">
         <v>43909</v>
       </c>
@@ -2470,7 +2479,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="46" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="46" spans="1:16">
       <c r="A46" s="36">
         <v>43909</v>
       </c>
@@ -2504,7 +2513,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="47" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="47" spans="1:16">
       <c r="A47" s="36">
         <v>43910</v>
       </c>
@@ -2538,7 +2547,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="48" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="48" spans="1:16">
       <c r="A48" s="36">
         <v>43910</v>
       </c>
@@ -2572,7 +2581,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="49" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="49" spans="1:16">
       <c r="A49" s="36">
         <v>43911</v>
       </c>
@@ -2606,7 +2615,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="50" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="50" spans="1:16">
       <c r="A50" s="36">
         <v>43911</v>
       </c>
@@ -2640,7 +2649,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="51" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="51" spans="1:16">
       <c r="A51" s="36">
         <v>43912</v>
       </c>
@@ -2674,7 +2683,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="52" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="52" spans="1:16">
       <c r="A52" s="36">
         <v>43912</v>
       </c>
@@ -2708,7 +2717,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="53" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="53" spans="1:16">
       <c r="A53" s="36">
         <v>43913</v>
       </c>
@@ -2742,7 +2751,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="54" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="54" spans="1:16">
       <c r="A54" s="36">
         <v>43913</v>
       </c>
@@ -2776,7 +2785,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="55" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="55" spans="1:16">
       <c r="A55" s="36">
         <v>43913</v>
       </c>
@@ -2810,7 +2819,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="56" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="56" spans="1:16">
       <c r="A56" s="36">
         <v>43913</v>
       </c>
@@ -2844,7 +2853,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="57" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="57" spans="1:16">
       <c r="A57" s="36">
         <v>43913</v>
       </c>
@@ -2878,7 +2887,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="58" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="58" spans="1:16">
       <c r="A58" s="36">
         <v>43913</v>
       </c>
@@ -2912,7 +2921,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="59" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="59" spans="1:16">
       <c r="A59" s="36">
         <v>43913</v>
       </c>
@@ -2946,7 +2955,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="60" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="60" spans="1:16">
       <c r="A60" s="36">
         <v>43914</v>
       </c>
@@ -2980,7 +2989,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="61" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="61" spans="1:16">
       <c r="A61" s="36">
         <v>43916</v>
       </c>
@@ -3014,7 +3023,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="62" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="62" spans="1:16">
       <c r="A62" s="36">
         <v>43916</v>
       </c>
@@ -3048,7 +3057,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="63" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="63" spans="1:16">
       <c r="A63" s="36">
         <v>43916</v>
       </c>
@@ -3082,7 +3091,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="64" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="64" spans="1:16">
       <c r="A64" s="36">
         <v>43917</v>
       </c>
@@ -3116,7 +3125,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="65" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="65" spans="1:16">
       <c r="A65" s="36">
         <v>43917</v>
       </c>
@@ -3150,7 +3159,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="66" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="66" spans="1:16">
       <c r="A66" s="36">
         <v>43917</v>
       </c>
@@ -3184,7 +3193,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="67" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="67" spans="1:16">
       <c r="A67" s="36">
         <v>43917</v>
       </c>
@@ -3218,7 +3227,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="68" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="68" spans="1:16">
       <c r="A68" s="36">
         <v>43919</v>
       </c>
@@ -3252,7 +3261,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="69" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="69" spans="1:16">
       <c r="A69" s="36">
         <v>43919</v>
       </c>
@@ -3286,7 +3295,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="70" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="70" spans="1:16">
       <c r="A70" s="36">
         <v>43920</v>
       </c>
@@ -3320,7 +3329,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="71" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="71" spans="1:16">
       <c r="A71" s="36">
         <v>43920</v>
       </c>
@@ -3354,7 +3363,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="72" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="72" spans="1:16">
       <c r="A72" s="36">
         <v>43920</v>
       </c>
@@ -3388,7 +3397,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="73" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="73" spans="1:16">
       <c r="A73" s="36">
         <v>43920</v>
       </c>
@@ -3422,7 +3431,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="74" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="74" spans="1:16">
       <c r="A74" s="36">
         <v>43921</v>
       </c>
@@ -3456,7 +3465,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="75" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="75" spans="1:16">
       <c r="A75" s="36">
         <v>43923</v>
       </c>
@@ -3490,7 +3499,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="76" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="76" spans="1:16">
       <c r="A76" s="36">
         <v>43923</v>
       </c>
@@ -3524,7 +3533,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="77" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="77" spans="1:16">
       <c r="A77" s="36">
         <v>43924</v>
       </c>
@@ -3558,7 +3567,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="78" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="78" spans="1:16">
       <c r="A78" s="36">
         <v>43924</v>
       </c>
@@ -3592,7 +3601,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="79" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="79" spans="1:16">
       <c r="A79" s="36">
         <v>43927</v>
       </c>
@@ -3626,7 +3635,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="80" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="80" spans="1:16">
       <c r="A80" s="36">
         <v>43927</v>
       </c>
@@ -3660,7 +3669,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="81" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="81" spans="1:16">
       <c r="A81" s="36">
         <v>43927</v>
       </c>
@@ -3694,7 +3703,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="82" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="82" spans="1:16">
       <c r="A82" s="36">
         <v>43928</v>
       </c>
@@ -3728,7 +3737,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="83" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="83" spans="1:16">
       <c r="A83" s="36">
         <v>43928</v>
       </c>
@@ -3762,7 +3771,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="84" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="84" spans="1:16">
       <c r="A84" s="36">
         <v>43928</v>
       </c>
@@ -3796,7 +3805,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="85" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="85" spans="1:16">
       <c r="A85" s="36">
         <v>43930</v>
       </c>
@@ -3830,7 +3839,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="86" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="86" spans="1:16">
       <c r="A86" s="36">
         <v>43930</v>
       </c>
@@ -3864,7 +3873,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="87" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="87" spans="1:16">
       <c r="A87" s="36">
         <v>43930</v>
       </c>
@@ -3898,7 +3907,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="88" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="88" spans="1:16">
       <c r="A88" s="36">
         <v>43930</v>
       </c>
@@ -3932,7 +3941,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="89" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="89" spans="1:16">
       <c r="A89" s="36">
         <v>43930</v>
       </c>
@@ -3966,7 +3975,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="90" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="90" spans="1:16">
       <c r="A90" s="36">
         <v>43930</v>
       </c>
@@ -4000,7 +4009,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="91" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="91" spans="1:16">
       <c r="A91" s="36">
         <v>43934</v>
       </c>
@@ -4034,7 +4043,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="92" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="92" spans="1:16">
       <c r="A92" s="36">
         <v>43936</v>
       </c>
@@ -4068,7 +4077,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="93" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="93" spans="1:16">
       <c r="A93" s="36">
         <v>43936</v>
       </c>
@@ -4102,7 +4111,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="94" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="94" spans="1:16">
       <c r="A94" s="36">
         <v>43936</v>
       </c>
@@ -4136,7 +4145,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="95" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="95" spans="1:16">
       <c r="A95" s="36">
         <v>43938</v>
       </c>
@@ -4170,7 +4179,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="96" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="96" spans="1:16">
       <c r="A96" s="36">
         <v>43938</v>
       </c>
@@ -4204,7 +4213,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="97" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="97" spans="1:16">
       <c r="A97" s="36">
         <v>43941</v>
       </c>
@@ -4238,7 +4247,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="98" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="98" spans="1:16">
       <c r="A98" s="36">
         <v>43941</v>
       </c>
@@ -4272,7 +4281,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="99" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="99" spans="1:16">
       <c r="A99" s="36"/>
       <c r="B99" s="30"/>
       <c r="C99" s="32"/>
@@ -4288,7 +4297,7 @@
       <c r="M99" s="35"/>
       <c r="O99" s="33"/>
     </row>
-    <row r="100" spans="1:16" ht="17" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="100" spans="1:16" ht="16.95" customHeight="1">
       <c r="A100" s="3">
         <v>43900</v>
       </c>
@@ -4338,7 +4347,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="101" spans="1:16" ht="16" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="101" spans="1:16" ht="16.05" customHeight="1">
       <c r="A101" s="7">
         <v>43905</v>
       </c>
@@ -4384,7 +4393,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="102" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="102" spans="1:16">
       <c r="A102" s="7">
         <v>43905</v>
       </c>
@@ -4432,7 +4441,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="103" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="103" spans="1:16">
       <c r="A103" s="7">
         <v>43906</v>
       </c>
@@ -4472,7 +4481,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="104" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="104" spans="1:16">
       <c r="A104" s="7">
         <v>43907</v>
       </c>
@@ -4512,7 +4521,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="105" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="105" spans="1:16">
       <c r="A105" s="7">
         <v>43907</v>
       </c>
@@ -4540,7 +4549,7 @@
       </c>
       <c r="L105" s="28"/>
       <c r="M105">
-        <f>K105/I105</f>
+        <f t="shared" ref="M105:M113" si="0">K105/I105</f>
         <v>83</v>
       </c>
       <c r="N105" s="28" t="s">
@@ -4553,7 +4562,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="106" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="106" spans="1:16">
       <c r="A106" s="7">
         <v>43907</v>
       </c>
@@ -4581,7 +4590,7 @@
       </c>
       <c r="L106" s="2"/>
       <c r="M106">
-        <f>K106/I106</f>
+        <f t="shared" si="0"/>
         <v>47.641099500000003</v>
       </c>
       <c r="N106" s="2" t="s">
@@ -4594,7 +4603,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="107" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="107" spans="1:16">
       <c r="A107" s="7">
         <v>43908</v>
       </c>
@@ -4622,7 +4631,7 @@
       </c>
       <c r="L107" s="28"/>
       <c r="M107">
-        <f>K107/I107</f>
+        <f t="shared" si="0"/>
         <v>57.042900000000003</v>
       </c>
       <c r="N107" s="28" t="s">
@@ -4635,7 +4644,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="108" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="108" spans="1:16">
       <c r="A108" s="7">
         <v>43910</v>
       </c>
@@ -4663,7 +4672,7 @@
       </c>
       <c r="L108" s="28"/>
       <c r="M108">
-        <f>K108/I108</f>
+        <f t="shared" si="0"/>
         <v>128.0059</v>
       </c>
       <c r="N108" s="28" t="s">
@@ -4676,7 +4685,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="109" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="109" spans="1:16">
       <c r="A109" s="7">
         <v>43912</v>
       </c>
@@ -4704,7 +4713,7 @@
       </c>
       <c r="L109" s="28"/>
       <c r="M109">
-        <f>K109/I109</f>
+        <f t="shared" si="0"/>
         <v>57.054000000000002</v>
       </c>
       <c r="N109" s="28" t="s">
@@ -4717,7 +4726,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="110" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="110" spans="1:16">
       <c r="A110" s="44">
         <v>43927</v>
       </c>
@@ -4740,7 +4749,7 @@
         <v>58863870</v>
       </c>
       <c r="M110">
-        <f>K110/I110</f>
+        <f t="shared" si="0"/>
         <v>49.053224999999998</v>
       </c>
       <c r="N110" s="32" t="s">
@@ -4753,7 +4762,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="111" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="111" spans="1:16">
       <c r="A111" s="44">
         <v>43927</v>
       </c>
@@ -4781,20 +4790,20 @@
       </c>
       <c r="L111" s="5"/>
       <c r="M111">
-        <f>K111/I111</f>
+        <f t="shared" si="0"/>
         <v>59.024900000000002</v>
       </c>
       <c r="N111" s="27" t="s">
         <v>52</v>
       </c>
       <c r="O111" s="25" t="s">
-        <v>115</v>
+        <v>12</v>
       </c>
       <c r="P111" s="2" t="s">
         <v>55</v>
       </c>
     </row>
-    <row r="112" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="112" spans="1:16">
       <c r="A112" s="7">
         <v>43928</v>
       </c>
@@ -4822,7 +4831,7 @@
       </c>
       <c r="L112" s="32"/>
       <c r="M112">
-        <f>K112/I112</f>
+        <f t="shared" si="0"/>
         <v>125.82916666666667</v>
       </c>
       <c r="N112" s="32" t="s">
@@ -4835,7 +4844,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="113" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="113" spans="1:16">
       <c r="A113" s="44">
         <v>43928</v>
       </c>
@@ -4858,7 +4867,7 @@
         <v>12679</v>
       </c>
       <c r="M113">
-        <f>K113/I113</f>
+        <f t="shared" si="0"/>
         <v>105.65833333333333</v>
       </c>
       <c r="N113" s="32" t="s">
@@ -4871,7 +4880,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="114" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="114" spans="1:16">
       <c r="A114" s="3">
         <v>43941</v>
       </c>
@@ -4911,7 +4920,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="116" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="116" spans="1:16">
       <c r="A116" s="7">
         <v>43894</v>
       </c>
@@ -4956,7 +4965,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="117" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="117" spans="1:16">
       <c r="A117" s="7">
         <v>43915</v>
       </c>
@@ -4999,7 +5008,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="119" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="119" spans="1:16">
       <c r="A119" s="7">
         <v>43906</v>
       </c>
@@ -5042,7 +5051,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="120" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="120" spans="1:16">
       <c r="A120" s="7">
         <v>43914</v>
       </c>
@@ -5087,7 +5096,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="121" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="121" spans="1:16">
       <c r="A121" s="7">
         <v>43914</v>
       </c>
@@ -5132,7 +5141,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="122" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="122" spans="1:16">
       <c r="A122" s="7">
         <v>43921</v>
       </c>
@@ -5179,7 +5188,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="123" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="123" spans="1:16">
       <c r="A123" s="7">
         <v>43921</v>
       </c>
@@ -5219,7 +5228,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="124" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="124" spans="1:16">
       <c r="A124" s="7">
         <v>43927</v>
       </c>
@@ -5264,7 +5273,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="125" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="125" spans="1:16">
       <c r="A125" s="7">
         <v>43927</v>
       </c>
@@ -5306,7 +5315,7 @@
       </c>
       <c r="P125" s="2"/>
     </row>
-    <row r="126" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="126" spans="1:16">
       <c r="A126" s="3"/>
       <c r="B126" s="4"/>
       <c r="C126" s="5"/>
@@ -5323,7 +5332,7 @@
       <c r="O126" s="25"/>
       <c r="P126" s="2"/>
     </row>
-    <row r="129" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="129" spans="1:16">
       <c r="A129" s="7"/>
       <c r="B129" s="4"/>
       <c r="C129" s="5"/>
@@ -5339,7 +5348,7 @@
       <c r="N129" s="24"/>
       <c r="O129" s="24"/>
     </row>
-    <row r="130" spans="1:16" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="130" spans="1:16" ht="19.05" customHeight="1">
       <c r="A130" s="7"/>
       <c r="B130" s="4"/>
       <c r="C130" s="5"/>
@@ -5356,7 +5365,7 @@
       <c r="O130" s="24"/>
       <c r="P130" s="2"/>
     </row>
-    <row r="131" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="131" spans="1:16">
       <c r="A131" s="3"/>
       <c r="B131" s="4"/>
       <c r="C131" s="2"/>
@@ -5373,7 +5382,7 @@
       <c r="O131" s="24"/>
       <c r="P131" s="2"/>
     </row>
-    <row r="132" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="132" spans="1:16">
       <c r="A132" s="7"/>
       <c r="B132" s="4"/>
       <c r="C132" s="2"/>
@@ -5390,7 +5399,7 @@
       <c r="O132" s="24"/>
       <c r="P132" s="2"/>
     </row>
-    <row r="133" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="133" spans="1:16">
       <c r="A133" s="7"/>
       <c r="B133" s="4"/>
       <c r="C133" s="5"/>
@@ -5407,7 +5416,7 @@
       <c r="O133" s="24"/>
       <c r="P133" s="2"/>
     </row>
-    <row r="134" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="134" spans="1:16">
       <c r="A134" s="7"/>
       <c r="B134" s="4"/>
       <c r="C134" s="2"/>
@@ -5424,7 +5433,7 @@
       <c r="O134" s="24"/>
       <c r="P134" s="2"/>
     </row>
-    <row r="135" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="135" spans="1:16">
       <c r="A135" s="7"/>
       <c r="B135" s="4"/>
       <c r="C135" s="2"/>
@@ -5441,7 +5450,7 @@
       <c r="O135" s="24"/>
       <c r="P135" s="2"/>
     </row>
-    <row r="136" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="136" spans="1:16">
       <c r="A136" s="7"/>
       <c r="B136" s="4"/>
       <c r="C136" s="2"/>
@@ -5458,34 +5467,34 @@
       <c r="O136" s="24"/>
       <c r="P136" s="2"/>
     </row>
-    <row r="137" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="137" spans="1:16">
       <c r="P137" s="20"/>
     </row>
-    <row r="138" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="138" spans="1:16">
       <c r="P138" s="20"/>
     </row>
-    <row r="139" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="139" spans="1:16">
       <c r="P139" s="20"/>
     </row>
-    <row r="140" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="140" spans="1:16">
       <c r="P140" s="20"/>
     </row>
-    <row r="141" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="141" spans="1:16">
       <c r="P141" s="20"/>
     </row>
-    <row r="142" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="142" spans="1:16">
       <c r="P142" s="20"/>
     </row>
-    <row r="143" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="143" spans="1:16">
       <c r="P143" s="20"/>
     </row>
-    <row r="144" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="144" spans="1:16">
       <c r="P144" s="20"/>
     </row>
-    <row r="145" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="145" spans="1:16">
       <c r="P145" s="20"/>
     </row>
-    <row r="146" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="146" spans="1:16">
       <c r="A146" s="7"/>
       <c r="B146" s="23"/>
       <c r="C146" s="21"/>
@@ -5502,7 +5511,7 @@
       <c r="O146" s="25"/>
       <c r="P146" s="20"/>
     </row>
-    <row r="147" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="147" spans="1:16">
       <c r="A147" s="7"/>
       <c r="B147" s="23"/>
       <c r="C147" s="21"/>
@@ -5519,7 +5528,7 @@
       <c r="O147" s="25"/>
       <c r="P147" s="20"/>
     </row>
-    <row r="148" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="148" spans="1:16">
       <c r="A148" s="7"/>
       <c r="B148" s="23"/>
       <c r="C148" s="21"/>
@@ -5536,7 +5545,7 @@
       <c r="O148" s="25"/>
       <c r="P148" s="20"/>
     </row>
-    <row r="149" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="149" spans="1:16">
       <c r="A149" s="7"/>
       <c r="B149" s="23"/>
       <c r="C149" s="20"/>
@@ -5553,7 +5562,7 @@
       <c r="O149" s="25"/>
       <c r="P149" s="20"/>
     </row>
-    <row r="150" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="150" spans="1:16">
       <c r="A150" s="7"/>
       <c r="B150" s="23"/>
       <c r="C150" s="20"/>
@@ -5570,7 +5579,7 @@
       <c r="O150" s="25"/>
       <c r="P150" s="20"/>
     </row>
-    <row r="151" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="151" spans="1:16">
       <c r="A151" s="7"/>
       <c r="B151" s="23"/>
       <c r="C151" s="20"/>
@@ -5587,7 +5596,7 @@
       <c r="O151" s="25"/>
       <c r="P151" s="20"/>
     </row>
-    <row r="152" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="152" spans="1:16">
       <c r="A152" s="7"/>
       <c r="B152" s="23"/>
       <c r="C152" s="20"/>
@@ -5604,7 +5613,7 @@
       <c r="O152" s="25"/>
       <c r="P152" s="20"/>
     </row>
-    <row r="153" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="153" spans="1:16">
       <c r="A153" s="7"/>
       <c r="B153" s="23"/>
       <c r="C153" s="20"/>
@@ -5621,7 +5630,7 @@
       <c r="O153" s="25"/>
       <c r="P153" s="20"/>
     </row>
-    <row r="154" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="154" spans="1:16">
       <c r="A154" s="7"/>
       <c r="B154" s="23"/>
       <c r="C154" s="21"/>
@@ -5638,7 +5647,7 @@
       <c r="O154" s="24"/>
       <c r="P154" s="20"/>
     </row>
-    <row r="155" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="155" spans="1:16">
       <c r="A155" s="7"/>
       <c r="B155" s="23"/>
       <c r="C155" s="21"/>
@@ -5655,7 +5664,7 @@
       <c r="O155" s="24"/>
       <c r="P155" s="20"/>
     </row>
-    <row r="156" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="156" spans="1:16">
       <c r="A156" s="22"/>
       <c r="B156" s="23"/>
       <c r="C156" s="20"/>
@@ -5672,7 +5681,7 @@
       <c r="O156" s="24"/>
       <c r="P156" s="20"/>
     </row>
-    <row r="157" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="157" spans="1:16">
       <c r="A157" s="22"/>
       <c r="B157" s="23"/>
       <c r="C157" s="20"/>
@@ -5689,7 +5698,7 @@
       <c r="O157" s="24"/>
       <c r="P157" s="20"/>
     </row>
-    <row r="158" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="158" spans="1:16">
       <c r="A158" s="22"/>
       <c r="B158" s="23"/>
       <c r="C158" s="21"/>
@@ -5706,7 +5715,7 @@
       <c r="O158" s="25"/>
       <c r="P158" s="20"/>
     </row>
-    <row r="159" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="159" spans="1:16">
       <c r="A159" s="7"/>
       <c r="B159" s="23"/>
       <c r="C159" s="20"/>
@@ -5723,7 +5732,7 @@
       <c r="O159" s="25"/>
       <c r="P159" s="20"/>
     </row>
-    <row r="160" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="160" spans="1:16">
       <c r="A160" s="7"/>
       <c r="B160" s="23"/>
       <c r="C160" s="20"/>
@@ -5740,7 +5749,7 @@
       <c r="O160" s="24"/>
       <c r="P160" s="20"/>
     </row>
-    <row r="161" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="161" spans="1:16">
       <c r="A161" s="7"/>
       <c r="B161" s="23"/>
       <c r="C161" s="20"/>
@@ -5757,7 +5766,7 @@
       <c r="O161" s="24"/>
       <c r="P161" s="20"/>
     </row>
-    <row r="162" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="162" spans="1:16">
       <c r="A162" s="7"/>
       <c r="B162" s="23"/>
       <c r="C162" s="20"/>
@@ -5774,7 +5783,7 @@
       <c r="O162" s="24"/>
       <c r="P162" s="20"/>
     </row>
-    <row r="163" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="163" spans="1:16">
       <c r="A163" s="7"/>
       <c r="B163" s="23"/>
       <c r="C163" s="20"/>
@@ -5791,7 +5800,7 @@
       <c r="O163" s="24"/>
       <c r="P163" s="20"/>
     </row>
-    <row r="164" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="164" spans="1:16">
       <c r="A164" s="7"/>
       <c r="B164" s="23"/>
       <c r="C164" s="20"/>
@@ -5808,7 +5817,7 @@
       <c r="O164" s="24"/>
       <c r="P164" s="20"/>
     </row>
-    <row r="165" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="165" spans="1:16">
       <c r="A165" s="7"/>
       <c r="B165" s="23"/>
       <c r="C165" s="20"/>
@@ -5825,7 +5834,7 @@
       <c r="O165" s="24"/>
       <c r="P165" s="20"/>
     </row>
-    <row r="166" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="166" spans="1:16">
       <c r="A166" s="7"/>
       <c r="B166" s="23"/>
       <c r="C166" s="20"/>
@@ -5842,7 +5851,7 @@
       <c r="O166" s="24"/>
       <c r="P166" s="20"/>
     </row>
-    <row r="167" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="167" spans="1:16">
       <c r="A167" s="22"/>
       <c r="B167" s="23"/>
       <c r="C167" s="20"/>
@@ -5859,7 +5868,7 @@
       <c r="O167" s="24"/>
       <c r="P167" s="20"/>
     </row>
-    <row r="168" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="168" spans="1:16">
       <c r="A168" s="7"/>
       <c r="B168" s="23"/>
       <c r="C168" s="20"/>
@@ -5876,7 +5885,7 @@
       <c r="O168" s="20"/>
       <c r="P168" s="20"/>
     </row>
-    <row r="169" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="169" spans="1:16">
       <c r="A169" s="3"/>
       <c r="B169" s="4"/>
       <c r="C169" s="5"/>
@@ -5893,7 +5902,7 @@
       <c r="O169" s="2"/>
       <c r="P169" s="2"/>
     </row>
-    <row r="170" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="170" spans="1:16">
       <c r="A170" s="7"/>
       <c r="B170" s="4"/>
       <c r="C170" s="5"/>
@@ -5910,7 +5919,7 @@
       <c r="O170" s="2"/>
       <c r="P170" s="2"/>
     </row>
-    <row r="171" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="171" spans="1:16">
       <c r="A171" s="3"/>
       <c r="B171" s="4"/>
       <c r="C171" s="5"/>
@@ -5927,7 +5936,7 @@
       <c r="O171" s="2"/>
       <c r="P171" s="2"/>
     </row>
-    <row r="172" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="172" spans="1:16">
       <c r="A172" s="3"/>
       <c r="B172" s="4"/>
       <c r="C172" s="5"/>
@@ -5944,7 +5953,7 @@
       <c r="O172" s="2"/>
       <c r="P172" s="2"/>
     </row>
-    <row r="173" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="173" spans="1:16">
       <c r="A173" s="7"/>
       <c r="B173" s="4"/>
       <c r="C173" s="2"/>
@@ -5961,7 +5970,7 @@
       <c r="O173" s="2"/>
       <c r="P173" s="2"/>
     </row>
-    <row r="174" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="174" spans="1:16">
       <c r="A174" s="7"/>
       <c r="B174" s="4"/>
       <c r="C174" s="2"/>
@@ -5978,7 +5987,7 @@
       <c r="O174" s="2"/>
       <c r="P174" s="2"/>
     </row>
-    <row r="175" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="175" spans="1:16">
       <c r="A175" s="7"/>
       <c r="B175" s="4"/>
       <c r="C175" s="2"/>
@@ -5995,7 +6004,7 @@
       <c r="O175" s="2"/>
       <c r="P175" s="2"/>
     </row>
-    <row r="176" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="176" spans="1:16">
       <c r="A176" s="3"/>
       <c r="B176" s="4"/>
       <c r="C176" s="5"/>
@@ -6012,7 +6021,7 @@
       <c r="O176" s="2"/>
       <c r="P176" s="2"/>
     </row>
-    <row r="177" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="177" spans="1:16">
       <c r="A177" s="7"/>
       <c r="B177" s="4"/>
       <c r="C177" s="2"/>
@@ -6029,7 +6038,7 @@
       <c r="O177" s="2"/>
       <c r="P177" s="2"/>
     </row>
-    <row r="178" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="178" spans="1:16">
       <c r="A178" s="7"/>
       <c r="B178" s="4"/>
       <c r="C178" s="2"/>
@@ -6046,7 +6055,7 @@
       <c r="O178" s="2"/>
       <c r="P178" s="2"/>
     </row>
-    <row r="179" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="179" spans="1:16">
       <c r="A179" s="7"/>
       <c r="B179" s="4"/>
       <c r="C179" s="2"/>
@@ -6063,7 +6072,7 @@
       <c r="O179" s="2"/>
       <c r="P179" s="2"/>
     </row>
-    <row r="180" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="180" spans="1:16">
       <c r="A180" s="7"/>
       <c r="B180" s="4"/>
       <c r="C180" s="5"/>
@@ -6077,7 +6086,7 @@
       <c r="K180" s="2"/>
       <c r="L180" s="2"/>
     </row>
-    <row r="181" spans="1:16" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="181" spans="1:16" ht="19.05" customHeight="1">
       <c r="A181" s="7"/>
       <c r="B181" s="4"/>
       <c r="C181" s="5"/>
@@ -6094,7 +6103,7 @@
       <c r="O181" s="2"/>
       <c r="P181" s="2"/>
     </row>
-    <row r="182" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="182" spans="1:16">
       <c r="A182" s="3"/>
       <c r="B182" s="4"/>
       <c r="C182" s="2"/>
@@ -6111,7 +6120,7 @@
       <c r="O182" s="2"/>
       <c r="P182" s="2"/>
     </row>
-    <row r="183" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="183" spans="1:16">
       <c r="A183" s="7"/>
       <c r="B183" s="4"/>
       <c r="C183" s="2"/>
@@ -6128,7 +6137,7 @@
       <c r="O183" s="2"/>
       <c r="P183" s="2"/>
     </row>
-    <row r="184" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="184" spans="1:16">
       <c r="A184" s="3"/>
       <c r="B184" s="4"/>
       <c r="C184" s="5"/>
@@ -6145,7 +6154,7 @@
       <c r="O184" s="2"/>
       <c r="P184" s="2"/>
     </row>
-    <row r="185" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="185" spans="1:16">
       <c r="A185" s="3"/>
       <c r="B185" s="4"/>
       <c r="C185" s="5"/>
@@ -6162,7 +6171,7 @@
       <c r="O185" s="2"/>
       <c r="P185" s="2"/>
     </row>
-    <row r="186" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="186" spans="1:16">
       <c r="A186" s="7"/>
       <c r="B186" s="4"/>
       <c r="C186" s="2"/>
@@ -6179,7 +6188,7 @@
       <c r="O186" s="2"/>
       <c r="P186" s="2"/>
     </row>
-    <row r="187" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="187" spans="1:16">
       <c r="A187" s="22"/>
       <c r="B187" s="23"/>
       <c r="C187" s="20"/>
@@ -6196,7 +6205,7 @@
       <c r="O187" s="20"/>
       <c r="P187" s="20"/>
     </row>
-    <row r="188" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="188" spans="1:16">
       <c r="A188" s="7"/>
       <c r="B188" s="23"/>
       <c r="C188" s="21"/>
@@ -6213,7 +6222,7 @@
       <c r="O188" s="20"/>
       <c r="P188" s="20"/>
     </row>
-    <row r="189" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="189" spans="1:16">
       <c r="A189" s="7"/>
       <c r="B189" s="23"/>
       <c r="C189" s="20"/>
@@ -6230,7 +6239,7 @@
       <c r="O189" s="20"/>
       <c r="P189" s="20"/>
     </row>
-    <row r="190" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="190" spans="1:16">
       <c r="A190" s="7"/>
       <c r="B190" s="23"/>
       <c r="C190" s="21"/>
@@ -6247,7 +6256,7 @@
       <c r="O190" s="20"/>
       <c r="P190" s="20"/>
     </row>
-    <row r="191" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="191" spans="1:16">
       <c r="A191" s="7"/>
       <c r="B191" s="23"/>
       <c r="C191" s="21"/>
@@ -6264,7 +6273,7 @@
       <c r="O191" s="20"/>
       <c r="P191" s="20"/>
     </row>
-    <row r="192" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="192" spans="1:16">
       <c r="A192" s="7"/>
       <c r="B192" s="23"/>
       <c r="C192" s="20"/>
@@ -6281,7 +6290,7 @@
       <c r="O192" s="20"/>
       <c r="P192" s="20"/>
     </row>
-    <row r="193" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="193" spans="1:16">
       <c r="A193" s="7"/>
       <c r="B193" s="23"/>
       <c r="C193" s="20"/>
@@ -6298,7 +6307,7 @@
       <c r="O193" s="20"/>
       <c r="P193" s="20"/>
     </row>
-    <row r="194" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="194" spans="1:16">
       <c r="A194" s="7"/>
       <c r="B194" s="23"/>
       <c r="C194" s="20"/>
@@ -6315,7 +6324,7 @@
       <c r="O194" s="20"/>
       <c r="P194" s="20"/>
     </row>
-    <row r="195" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="195" spans="1:16">
       <c r="A195" s="7"/>
       <c r="B195" s="23"/>
       <c r="C195" s="21"/>
@@ -6332,7 +6341,7 @@
       <c r="O195" s="20"/>
       <c r="P195" s="20"/>
     </row>
-    <row r="196" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="196" spans="1:16">
       <c r="A196" s="7"/>
       <c r="B196" s="23"/>
       <c r="C196" s="21"/>
@@ -6349,7 +6358,7 @@
       <c r="O196" s="20"/>
       <c r="P196" s="20"/>
     </row>
-    <row r="197" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="197" spans="1:16">
       <c r="A197" s="7"/>
       <c r="B197" s="23"/>
       <c r="C197" s="21"/>
@@ -6366,7 +6375,7 @@
       <c r="O197" s="20"/>
       <c r="P197" s="20"/>
     </row>
-    <row r="198" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="198" spans="1:16">
       <c r="A198" s="7"/>
       <c r="B198" s="23"/>
       <c r="C198" s="21"/>
@@ -6383,7 +6392,7 @@
       <c r="O198" s="20"/>
       <c r="P198" s="20"/>
     </row>
-    <row r="199" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="199" spans="1:16">
       <c r="A199" s="7"/>
       <c r="B199" s="23"/>
       <c r="C199" s="21"/>
@@ -6400,7 +6409,7 @@
       <c r="O199" s="20"/>
       <c r="P199" s="20"/>
     </row>
-    <row r="200" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="200" spans="1:16">
       <c r="A200" s="7"/>
       <c r="B200" s="23"/>
       <c r="C200" s="20"/>
@@ -6417,7 +6426,7 @@
       <c r="O200" s="20"/>
       <c r="P200" s="20"/>
     </row>
-    <row r="201" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="201" spans="1:16">
       <c r="A201" s="7"/>
       <c r="B201" s="23"/>
       <c r="C201" s="20"/>
@@ -6434,7 +6443,7 @@
       <c r="O201" s="20"/>
       <c r="P201" s="20"/>
     </row>
-    <row r="202" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="202" spans="1:16">
       <c r="A202" s="7"/>
       <c r="B202" s="23"/>
       <c r="C202" s="20"/>
@@ -6451,7 +6460,7 @@
       <c r="O202" s="20"/>
       <c r="P202" s="20"/>
     </row>
-    <row r="203" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="203" spans="1:16">
       <c r="A203" s="7"/>
       <c r="B203" s="23"/>
       <c r="C203" s="20"/>
@@ -6468,7 +6477,7 @@
       <c r="O203" s="20"/>
       <c r="P203" s="20"/>
     </row>
-    <row r="204" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="204" spans="1:16">
       <c r="A204" s="7"/>
       <c r="B204" s="23"/>
       <c r="C204" s="20"/>
@@ -6485,7 +6494,7 @@
       <c r="O204" s="20"/>
       <c r="P204" s="20"/>
     </row>
-    <row r="205" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="205" spans="1:16">
       <c r="A205" s="7"/>
       <c r="B205" s="23"/>
       <c r="C205" s="21"/>
@@ -6502,7 +6511,7 @@
       <c r="O205" s="20"/>
       <c r="P205" s="20"/>
     </row>
-    <row r="206" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="206" spans="1:16">
       <c r="A206" s="7"/>
       <c r="B206" s="23"/>
       <c r="C206" s="21"/>
@@ -6519,7 +6528,7 @@
       <c r="O206" s="20"/>
       <c r="P206" s="20"/>
     </row>
-    <row r="207" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="207" spans="1:16">
       <c r="A207" s="22"/>
       <c r="B207" s="23"/>
       <c r="C207" s="20"/>
@@ -6536,7 +6545,7 @@
       <c r="O207" s="20"/>
       <c r="P207" s="20"/>
     </row>
-    <row r="208" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="208" spans="1:16">
       <c r="A208" s="22"/>
       <c r="B208" s="23"/>
       <c r="C208" s="20"/>
@@ -6553,7 +6562,7 @@
       <c r="O208" s="20"/>
       <c r="P208" s="20"/>
     </row>
-    <row r="209" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="209" spans="1:16">
       <c r="A209" s="22"/>
       <c r="B209" s="23"/>
       <c r="C209" s="21"/>
@@ -6570,7 +6579,7 @@
       <c r="O209" s="20"/>
       <c r="P209" s="20"/>
     </row>
-    <row r="210" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="210" spans="1:16">
       <c r="A210" s="7"/>
       <c r="B210" s="23"/>
       <c r="C210" s="20"/>
@@ -6587,7 +6596,7 @@
       <c r="O210" s="20"/>
       <c r="P210" s="20"/>
     </row>
-    <row r="211" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="211" spans="1:16">
       <c r="A211" s="7"/>
       <c r="B211" s="23"/>
       <c r="C211" s="20"/>
@@ -6604,7 +6613,7 @@
       <c r="O211" s="20"/>
       <c r="P211" s="20"/>
     </row>
-    <row r="212" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="212" spans="1:16">
       <c r="A212" s="7"/>
       <c r="B212" s="23"/>
       <c r="C212" s="20"/>
@@ -6621,7 +6630,7 @@
       <c r="O212" s="20"/>
       <c r="P212" s="20"/>
     </row>
-    <row r="213" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="213" spans="1:16">
       <c r="A213" s="7"/>
       <c r="B213" s="23"/>
       <c r="C213" s="20"/>
@@ -6638,7 +6647,7 @@
       <c r="O213" s="20"/>
       <c r="P213" s="20"/>
     </row>
-    <row r="214" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="214" spans="1:16">
       <c r="A214" s="7"/>
       <c r="B214" s="23"/>
       <c r="C214" s="20"/>
@@ -6655,7 +6664,7 @@
       <c r="O214" s="20"/>
       <c r="P214" s="20"/>
     </row>
-    <row r="215" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="215" spans="1:16">
       <c r="A215" s="7"/>
       <c r="B215" s="23"/>
       <c r="C215" s="20"/>
@@ -6672,7 +6681,7 @@
       <c r="O215" s="20"/>
       <c r="P215" s="20"/>
     </row>
-    <row r="216" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="216" spans="1:16">
       <c r="A216" s="7"/>
       <c r="B216" s="23"/>
       <c r="C216" s="20"/>
@@ -6689,7 +6698,7 @@
       <c r="O216" s="20"/>
       <c r="P216" s="20"/>
     </row>
-    <row r="217" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="217" spans="1:16">
       <c r="A217" s="7"/>
       <c r="B217" s="23"/>
       <c r="C217" s="20"/>
@@ -6706,7 +6715,7 @@
       <c r="O217" s="20"/>
       <c r="P217" s="20"/>
     </row>
-    <row r="218" spans="1:16" s="19" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="218" spans="1:16" s="19" customFormat="1">
       <c r="A218" s="15"/>
       <c r="B218" s="16"/>
       <c r="C218" s="17"/>
@@ -6724,7 +6733,7 @@
       <c r="O218" s="17"/>
       <c r="P218" s="17"/>
     </row>
-    <row r="219" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="219" spans="1:16">
       <c r="A219" s="7"/>
       <c r="B219" s="23"/>
       <c r="C219" s="20"/>
@@ -6741,7 +6750,7 @@
       <c r="O219" s="20"/>
       <c r="P219" s="20"/>
     </row>
-    <row r="220" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="220" spans="1:16">
       <c r="A220" s="22"/>
       <c r="B220" s="23"/>
       <c r="C220" s="20"/>
@@ -6758,7 +6767,7 @@
       <c r="O220" s="20"/>
       <c r="P220" s="20"/>
     </row>
-    <row r="221" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="221" spans="1:16">
       <c r="A221" s="7"/>
       <c r="B221" s="23"/>
       <c r="C221" s="20"/>
@@ -6775,7 +6784,7 @@
       <c r="O221" s="20"/>
       <c r="P221" s="20"/>
     </row>
-    <row r="222" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="222" spans="1:16">
       <c r="A222" s="3"/>
       <c r="B222" s="4"/>
       <c r="C222" s="2"/>
@@ -6792,7 +6801,7 @@
       <c r="O222" s="2"/>
       <c r="P222" s="2"/>
     </row>
-    <row r="223" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="223" spans="1:16">
       <c r="A223" s="3"/>
       <c r="B223" s="4"/>
       <c r="C223" s="5"/>
@@ -6809,7 +6818,7 @@
       <c r="O223" s="2"/>
       <c r="P223" s="2"/>
     </row>
-    <row r="224" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="224" spans="1:16">
       <c r="A224" s="7"/>
       <c r="B224" s="4"/>
       <c r="C224" s="2"/>
@@ -6826,7 +6835,7 @@
       <c r="O224" s="2"/>
       <c r="P224" s="2"/>
     </row>
-    <row r="225" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="225" spans="1:16">
       <c r="A225" s="7"/>
       <c r="B225" s="4"/>
       <c r="C225" s="2"/>
@@ -6843,7 +6852,7 @@
       <c r="O225" s="2"/>
       <c r="P225" s="2"/>
     </row>
-    <row r="226" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="226" spans="1:16">
       <c r="A226" s="7"/>
       <c r="B226" s="4"/>
       <c r="C226" s="2"/>
@@ -6860,7 +6869,7 @@
       <c r="O226" s="2"/>
       <c r="P226" s="2"/>
     </row>
-    <row r="227" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="227" spans="1:16">
       <c r="A227" s="7"/>
       <c r="B227" s="4"/>
       <c r="C227" s="2"/>
@@ -6877,7 +6886,7 @@
       <c r="O227" s="2"/>
       <c r="P227" s="2"/>
     </row>
-    <row r="228" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="228" spans="1:16">
       <c r="A228" s="7"/>
       <c r="B228" s="4"/>
       <c r="C228" s="2"/>
@@ -6894,7 +6903,7 @@
       <c r="O228" s="2"/>
       <c r="P228" s="2"/>
     </row>
-    <row r="229" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="229" spans="1:16">
       <c r="A229" s="7"/>
       <c r="B229" s="4"/>
       <c r="C229" s="2"/>
@@ -6911,7 +6920,7 @@
       <c r="O229" s="2"/>
       <c r="P229" s="2"/>
     </row>
-    <row r="230" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="230" spans="1:16">
       <c r="A230" s="7"/>
       <c r="B230" s="4"/>
       <c r="C230" s="2"/>
@@ -6928,7 +6937,7 @@
       <c r="O230" s="2"/>
       <c r="P230" s="2"/>
     </row>
-    <row r="231" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="231" spans="1:16">
       <c r="A231" s="7"/>
       <c r="B231" s="4"/>
       <c r="C231" s="2"/>
@@ -6945,7 +6954,7 @@
       <c r="O231" s="2"/>
       <c r="P231" s="2"/>
     </row>
-    <row r="232" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="232" spans="1:16">
       <c r="A232" s="7"/>
       <c r="B232" s="4"/>
       <c r="C232" s="5"/>
@@ -6962,7 +6971,7 @@
       <c r="O232" s="2"/>
       <c r="P232" s="2"/>
     </row>
-    <row r="233" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="233" spans="1:16">
       <c r="A233" s="7"/>
       <c r="B233" s="4"/>
       <c r="C233" s="2"/>
@@ -6979,7 +6988,7 @@
       <c r="O233" s="2"/>
       <c r="P233" s="2"/>
     </row>
-    <row r="234" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="234" spans="1:16">
       <c r="A234" s="3"/>
       <c r="B234" s="4"/>
       <c r="C234" s="2"/>
@@ -6996,7 +7005,7 @@
       <c r="O234" s="2"/>
       <c r="P234" s="2"/>
     </row>
-    <row r="235" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="235" spans="1:16">
       <c r="A235" s="3"/>
       <c r="B235" s="4"/>
       <c r="C235" s="5"/>
@@ -7013,7 +7022,7 @@
       <c r="O235" s="2"/>
       <c r="P235" s="2"/>
     </row>
-    <row r="236" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="236" spans="1:16">
       <c r="A236" s="3"/>
       <c r="B236" s="4"/>
       <c r="C236" s="5"/>
@@ -7030,7 +7039,7 @@
       <c r="O236" s="2"/>
       <c r="P236" s="2"/>
     </row>
-    <row r="237" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="237" spans="1:16">
       <c r="A237" s="3"/>
       <c r="B237" s="4"/>
       <c r="C237" s="2"/>
@@ -7047,7 +7056,7 @@
       <c r="O237" s="2"/>
       <c r="P237" s="2"/>
     </row>
-    <row r="238" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="238" spans="1:16">
       <c r="A238" s="3"/>
       <c r="B238" s="4"/>
       <c r="C238" s="5"/>
@@ -7064,7 +7073,7 @@
       <c r="O238" s="2"/>
       <c r="P238" s="2"/>
     </row>
-    <row r="239" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="239" spans="1:16">
       <c r="A239" s="7"/>
       <c r="B239" s="4"/>
       <c r="C239" s="2"/>
@@ -7081,7 +7090,7 @@
       <c r="O239" s="2"/>
       <c r="P239" s="2"/>
     </row>
-    <row r="240" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="240" spans="1:16">
       <c r="A240" s="7"/>
       <c r="B240" s="4"/>
       <c r="C240" s="2"/>
@@ -7098,7 +7107,7 @@
       <c r="O240" s="2"/>
       <c r="P240" s="2"/>
     </row>
-    <row r="241" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="241" spans="1:16">
       <c r="A241" s="7"/>
       <c r="B241" s="4"/>
       <c r="C241" s="2"/>
@@ -7115,7 +7124,7 @@
       <c r="O241" s="2"/>
       <c r="P241" s="2"/>
     </row>
-    <row r="242" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="242" spans="1:16">
       <c r="A242" s="7"/>
       <c r="B242" s="4"/>
       <c r="C242" s="2"/>
@@ -7132,7 +7141,7 @@
       <c r="O242" s="2"/>
       <c r="P242" s="2"/>
     </row>
-    <row r="243" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="243" spans="1:16">
       <c r="A243" s="7"/>
       <c r="B243" s="4"/>
       <c r="C243" s="2"/>
@@ -7149,7 +7158,7 @@
       <c r="O243" s="2"/>
       <c r="P243" s="2"/>
     </row>
-    <row r="244" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="244" spans="1:16">
       <c r="A244" s="3"/>
       <c r="B244" s="4"/>
       <c r="C244" s="5"/>
@@ -7166,7 +7175,7 @@
       <c r="O244" s="2"/>
       <c r="P244" s="2"/>
     </row>
-    <row r="245" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="245" spans="1:16">
       <c r="A245" s="3"/>
       <c r="B245" s="4"/>
       <c r="C245" s="5"/>
@@ -7183,7 +7192,7 @@
       <c r="O245" s="2"/>
       <c r="P245" s="2"/>
     </row>
-    <row r="246" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="246" spans="1:16">
       <c r="A246" s="3"/>
       <c r="B246" s="4"/>
       <c r="C246" s="5"/>
@@ -7202,18 +7211,18 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="B100" r:id="rId1" display="https://www.hlidacstatu.cz/Detail/11925676"/>
-    <hyperlink ref="B101" r:id="rId2" display="https://www.hlidacstatu.cz/Detail/12148204"/>
-    <hyperlink ref="B102" r:id="rId3" display="https://www.hlidacstatu.cz/Detail/12148476"/>
-    <hyperlink ref="B116" r:id="rId4" display="https://www.hlidacstatu.cz/Detail/12036848"/>
-    <hyperlink ref="B117" r:id="rId5" display="https://www.hlidacstatu.cz/Detail/12103908"/>
-    <hyperlink ref="B119" r:id="rId6" display="https://www.hlidacstatu.cz/Detail/12008760"/>
-    <hyperlink ref="B120" r:id="rId7" display="https://www.hlidacstatu.cz/Detail/12030004"/>
-    <hyperlink ref="B121" r:id="rId8" display="https://www.hlidacstatu.cz/Detail/12085708"/>
-    <hyperlink ref="B122" r:id="rId9" display="https://www.hlidacstatu.cz/Detail/12115600"/>
-    <hyperlink ref="B123" r:id="rId10" display="https://www.hlidacstatu.cz/Detail/12122340"/>
-    <hyperlink ref="B124" r:id="rId11" display="https://www.hlidacstatu.cz/Detail/12155452"/>
-    <hyperlink ref="B125" r:id="rId12" display="https://www.hlidacstatu.cz/Detail/12157540"/>
+    <hyperlink ref="B100" r:id="rId1" display="https://www.hlidacstatu.cz/Detail/11925676" xr:uid="{00000000-0004-0000-0000-000000000000}"/>
+    <hyperlink ref="B101" r:id="rId2" display="https://www.hlidacstatu.cz/Detail/12148204" xr:uid="{00000000-0004-0000-0000-000001000000}"/>
+    <hyperlink ref="B102" r:id="rId3" display="https://www.hlidacstatu.cz/Detail/12148476" xr:uid="{00000000-0004-0000-0000-000002000000}"/>
+    <hyperlink ref="B116" r:id="rId4" display="https://www.hlidacstatu.cz/Detail/12036848" xr:uid="{00000000-0004-0000-0000-000003000000}"/>
+    <hyperlink ref="B117" r:id="rId5" display="https://www.hlidacstatu.cz/Detail/12103908" xr:uid="{00000000-0004-0000-0000-000004000000}"/>
+    <hyperlink ref="B119" r:id="rId6" display="https://www.hlidacstatu.cz/Detail/12008760" xr:uid="{00000000-0004-0000-0000-000005000000}"/>
+    <hyperlink ref="B120" r:id="rId7" display="https://www.hlidacstatu.cz/Detail/12030004" xr:uid="{00000000-0004-0000-0000-000006000000}"/>
+    <hyperlink ref="B121" r:id="rId8" display="https://www.hlidacstatu.cz/Detail/12085708" xr:uid="{00000000-0004-0000-0000-000007000000}"/>
+    <hyperlink ref="B122" r:id="rId9" display="https://www.hlidacstatu.cz/Detail/12115600" xr:uid="{00000000-0004-0000-0000-000008000000}"/>
+    <hyperlink ref="B123" r:id="rId10" display="https://www.hlidacstatu.cz/Detail/12122340" xr:uid="{00000000-0004-0000-0000-000009000000}"/>
+    <hyperlink ref="B124" r:id="rId11" display="https://www.hlidacstatu.cz/Detail/12155452" xr:uid="{00000000-0004-0000-0000-00000A000000}"/>
+    <hyperlink ref="B125" r:id="rId12" display="https://www.hlidacstatu.cz/Detail/12157540" xr:uid="{00000000-0004-0000-0000-00000B000000}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId13"/>

--- a/ceny_vyber.xlsx
+++ b/ceny_vyber.xlsx
@@ -1,21 +1,21 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="22624"/>
-  <workbookPr/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="11013"/>
+  <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\DEVEL\respir-nakupy-upd\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/dominikakubistova/Desktop/Bez názvu/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8F539E6A-A66E-4C38-B29E-CEE5E9956A95}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{560267FF-3478-1748-8E8C-727B82C546EE}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1260" yWindow="684" windowWidth="17280" windowHeight="8964" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="860" windowWidth="13160" windowHeight="16060" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="List1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="191029" concurrentCalc="0"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{79F54976-1DA5-4618-B147-4CDE4B953A38}">
       <x14:workbookPr defaultImageDpi="32767"/>
@@ -23,9 +23,7 @@
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
       <xcalcf:calcFeatures>
         <xcalcf:feature name="microsoft.com:RD"/>
-        <xcalcf:feature name="microsoft.com:Single"/>
         <xcalcf:feature name="microsoft.com:FV"/>
-        <xcalcf:feature name="microsoft.com:CNMTM"/>
       </xcalcf:calcFeatures>
     </ext>
     <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{7523E5D3-25F3-A5E0-1632-64F254C22452}">
@@ -36,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="765" uniqueCount="115">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="828" uniqueCount="119">
   <si>
     <t>dodavatel</t>
   </si>
@@ -381,13 +379,25 @@
   </si>
   <si>
     <t>Xiantao Zhongyi Safety a Protection Products Co. L</t>
+  </si>
+  <si>
+    <t>ministerstvo vnitra</t>
+  </si>
+  <si>
+    <t>Moldex/Metric v.o.s.</t>
+  </si>
+  <si>
+    <t>Libor Lemfeld</t>
+  </si>
+  <si>
+    <t>nanoSpace s.r.o.</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="19">
+  <fonts count="19" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -601,8 +611,8 @@
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="2">
-    <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
-    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="Hypertextový odkaz" xfId="1" builtinId="8"/>
+    <cellStyle name="Normální" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -920,28 +930,28 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:P246"/>
+  <dimension ref="A1:P259"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="J104" workbookViewId="0">
-      <selection activeCell="O112" sqref="O112"/>
+    <sheetView tabSelected="1" topLeftCell="A105" workbookViewId="0">
+      <selection activeCell="C140" sqref="C140"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.19921875" defaultRowHeight="15.6"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11.1640625" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="3" max="3" width="37.796875" customWidth="1"/>
+    <col min="3" max="3" width="37.83203125" customWidth="1"/>
     <col min="5" max="5" width="23.5" customWidth="1"/>
-    <col min="6" max="6" width="11.69921875" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="9.296875" customWidth="1"/>
-    <col min="8" max="8" width="36.296875" customWidth="1"/>
-    <col min="9" max="9" width="9.796875" customWidth="1"/>
+    <col min="6" max="6" width="11.6640625" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="9.33203125" customWidth="1"/>
+    <col min="8" max="8" width="36.33203125" customWidth="1"/>
+    <col min="9" max="9" width="9.83203125" customWidth="1"/>
     <col min="10" max="10" width="18.5" customWidth="1"/>
     <col min="11" max="11" width="13" customWidth="1"/>
-    <col min="12" max="12" width="10.296875" customWidth="1"/>
+    <col min="12" max="12" width="10.33203125" customWidth="1"/>
     <col min="13" max="13" width="15.5" customWidth="1"/>
     <col min="15" max="15" width="25.5" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:16">
+    <row r="1" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
         <v>58</v>
       </c>
@@ -991,7 +1001,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="2" spans="1:16">
+    <row r="2" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A2" s="29">
         <v>43902</v>
       </c>
@@ -1025,7 +1035,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="3" spans="1:16">
+    <row r="3" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A3" s="29">
         <v>43902</v>
       </c>
@@ -1059,7 +1069,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="4" spans="1:16">
+    <row r="4" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A4" s="29">
         <v>43902</v>
       </c>
@@ -1093,7 +1103,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="5" spans="1:16">
+    <row r="5" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A5" s="29">
         <v>43903</v>
       </c>
@@ -1127,7 +1137,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="6" spans="1:16">
+    <row r="6" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A6" s="29">
         <v>43903</v>
       </c>
@@ -1161,7 +1171,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="7" spans="1:16">
+    <row r="7" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A7" s="29">
         <v>43903</v>
       </c>
@@ -1195,7 +1205,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="8" spans="1:16">
+    <row r="8" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A8" s="29">
         <v>43903</v>
       </c>
@@ -1229,7 +1239,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="9" spans="1:16">
+    <row r="9" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A9" s="29">
         <v>43903</v>
       </c>
@@ -1263,7 +1273,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="10" spans="1:16">
+    <row r="10" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A10" s="29">
         <v>43903</v>
       </c>
@@ -1297,7 +1307,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="11" spans="1:16">
+    <row r="11" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A11" s="29">
         <v>43903</v>
       </c>
@@ -1331,7 +1341,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="12" spans="1:16">
+    <row r="12" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A12" s="29">
         <v>43903</v>
       </c>
@@ -1365,7 +1375,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="13" spans="1:16">
+    <row r="13" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A13" s="29">
         <v>43903</v>
       </c>
@@ -1399,7 +1409,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="14" spans="1:16">
+    <row r="14" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A14" s="29">
         <v>43903</v>
       </c>
@@ -1433,7 +1443,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="15" spans="1:16">
+    <row r="15" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A15" s="29">
         <v>43903</v>
       </c>
@@ -1467,7 +1477,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="16" spans="1:16">
+    <row r="16" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A16" s="29">
         <v>43904</v>
       </c>
@@ -1501,7 +1511,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="17" spans="1:16">
+    <row r="17" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A17" s="29">
         <v>43905</v>
       </c>
@@ -1535,7 +1545,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="18" spans="1:16">
+    <row r="18" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A18" s="29">
         <v>43905</v>
       </c>
@@ -1569,7 +1579,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="19" spans="1:16">
+    <row r="19" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A19" s="29">
         <v>43905</v>
       </c>
@@ -1595,7 +1605,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="20" spans="1:16">
+    <row r="20" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A20" s="29">
         <v>43905</v>
       </c>
@@ -1629,7 +1639,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="21" spans="1:16">
+    <row r="21" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A21" s="29">
         <v>43905</v>
       </c>
@@ -1663,7 +1673,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="22" spans="1:16">
+    <row r="22" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A22" s="29">
         <v>43905</v>
       </c>
@@ -1697,7 +1707,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="23" spans="1:16">
+    <row r="23" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A23" s="29">
         <v>43906</v>
       </c>
@@ -1731,7 +1741,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="24" spans="1:16">
+    <row r="24" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A24" s="29">
         <v>43906</v>
       </c>
@@ -1765,7 +1775,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="25" spans="1:16">
+    <row r="25" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A25" s="29">
         <v>43906</v>
       </c>
@@ -1799,7 +1809,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="26" spans="1:16">
+    <row r="26" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A26" s="29">
         <v>43906</v>
       </c>
@@ -1833,7 +1843,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="27" spans="1:16">
+    <row r="27" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A27" s="29">
         <v>43907</v>
       </c>
@@ -1867,7 +1877,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="28" spans="1:16">
+    <row r="28" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A28" s="29">
         <v>43907</v>
       </c>
@@ -1901,7 +1911,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="29" spans="1:16">
+    <row r="29" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A29" s="29">
         <v>43907</v>
       </c>
@@ -1935,7 +1945,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="30" spans="1:16">
+    <row r="30" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A30" s="29">
         <v>43907</v>
       </c>
@@ -1969,7 +1979,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="31" spans="1:16">
+    <row r="31" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A31" s="29">
         <v>43907</v>
       </c>
@@ -2003,7 +2013,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="32" spans="1:16">
+    <row r="32" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A32" s="29">
         <v>43907</v>
       </c>
@@ -2037,7 +2047,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="33" spans="1:16">
+    <row r="33" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A33" s="29">
         <v>43908</v>
       </c>
@@ -2071,7 +2081,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="34" spans="1:16">
+    <row r="34" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A34" s="29">
         <v>43908</v>
       </c>
@@ -2105,7 +2115,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="35" spans="1:16">
+    <row r="35" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A35" s="29">
         <v>43908</v>
       </c>
@@ -2139,7 +2149,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="36" spans="1:16">
+    <row r="36" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A36" s="29">
         <v>43908</v>
       </c>
@@ -2173,7 +2183,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="37" spans="1:16">
+    <row r="37" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A37" s="29">
         <v>43908</v>
       </c>
@@ -2207,7 +2217,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="38" spans="1:16">
+    <row r="38" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A38" s="29">
         <v>43908</v>
       </c>
@@ -2241,7 +2251,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="39" spans="1:16">
+    <row r="39" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A39" s="29">
         <v>43908</v>
       </c>
@@ -2275,7 +2285,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="40" spans="1:16">
+    <row r="40" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A40" s="29">
         <v>43909</v>
       </c>
@@ -2309,7 +2319,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="41" spans="1:16">
+    <row r="41" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A41" s="29">
         <v>43909</v>
       </c>
@@ -2343,7 +2353,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="42" spans="1:16">
+    <row r="42" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A42" s="29">
         <v>43909</v>
       </c>
@@ -2377,7 +2387,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="43" spans="1:16">
+    <row r="43" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A43" s="29">
         <v>43909</v>
       </c>
@@ -2411,7 +2421,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="44" spans="1:16" s="35" customFormat="1">
+    <row r="44" spans="1:16" s="35" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A44" s="36">
         <v>43909</v>
       </c>
@@ -2445,7 +2455,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="45" spans="1:16">
+    <row r="45" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A45" s="36">
         <v>43909</v>
       </c>
@@ -2479,7 +2489,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="46" spans="1:16">
+    <row r="46" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A46" s="36">
         <v>43909</v>
       </c>
@@ -2513,7 +2523,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="47" spans="1:16">
+    <row r="47" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A47" s="36">
         <v>43910</v>
       </c>
@@ -2547,7 +2557,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="48" spans="1:16">
+    <row r="48" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A48" s="36">
         <v>43910</v>
       </c>
@@ -2581,7 +2591,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="49" spans="1:16">
+    <row r="49" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A49" s="36">
         <v>43911</v>
       </c>
@@ -2615,7 +2625,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="50" spans="1:16">
+    <row r="50" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A50" s="36">
         <v>43911</v>
       </c>
@@ -2649,7 +2659,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="51" spans="1:16">
+    <row r="51" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A51" s="36">
         <v>43912</v>
       </c>
@@ -2683,7 +2693,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="52" spans="1:16">
+    <row r="52" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A52" s="36">
         <v>43912</v>
       </c>
@@ -2717,7 +2727,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="53" spans="1:16">
+    <row r="53" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A53" s="36">
         <v>43913</v>
       </c>
@@ -2751,7 +2761,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="54" spans="1:16">
+    <row r="54" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A54" s="36">
         <v>43913</v>
       </c>
@@ -2785,7 +2795,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="55" spans="1:16">
+    <row r="55" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A55" s="36">
         <v>43913</v>
       </c>
@@ -2819,7 +2829,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="56" spans="1:16">
+    <row r="56" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A56" s="36">
         <v>43913</v>
       </c>
@@ -2853,7 +2863,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="57" spans="1:16">
+    <row r="57" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A57" s="36">
         <v>43913</v>
       </c>
@@ -2887,7 +2897,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="58" spans="1:16">
+    <row r="58" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A58" s="36">
         <v>43913</v>
       </c>
@@ -2921,7 +2931,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="59" spans="1:16">
+    <row r="59" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A59" s="36">
         <v>43913</v>
       </c>
@@ -2955,7 +2965,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="60" spans="1:16">
+    <row r="60" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A60" s="36">
         <v>43914</v>
       </c>
@@ -2989,7 +2999,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="61" spans="1:16">
+    <row r="61" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A61" s="36">
         <v>43916</v>
       </c>
@@ -3023,7 +3033,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="62" spans="1:16">
+    <row r="62" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A62" s="36">
         <v>43916</v>
       </c>
@@ -3057,7 +3067,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="63" spans="1:16">
+    <row r="63" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A63" s="36">
         <v>43916</v>
       </c>
@@ -3091,7 +3101,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="64" spans="1:16">
+    <row r="64" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A64" s="36">
         <v>43917</v>
       </c>
@@ -3125,7 +3135,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="65" spans="1:16">
+    <row r="65" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A65" s="36">
         <v>43917</v>
       </c>
@@ -3159,7 +3169,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="66" spans="1:16">
+    <row r="66" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A66" s="36">
         <v>43917</v>
       </c>
@@ -3193,7 +3203,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="67" spans="1:16">
+    <row r="67" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A67" s="36">
         <v>43917</v>
       </c>
@@ -3227,7 +3237,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="68" spans="1:16">
+    <row r="68" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A68" s="36">
         <v>43919</v>
       </c>
@@ -3261,7 +3271,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="69" spans="1:16">
+    <row r="69" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A69" s="36">
         <v>43919</v>
       </c>
@@ -3295,7 +3305,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="70" spans="1:16">
+    <row r="70" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A70" s="36">
         <v>43920</v>
       </c>
@@ -3329,7 +3339,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="71" spans="1:16">
+    <row r="71" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A71" s="36">
         <v>43920</v>
       </c>
@@ -3363,7 +3373,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="72" spans="1:16">
+    <row r="72" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A72" s="36">
         <v>43920</v>
       </c>
@@ -3397,7 +3407,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="73" spans="1:16">
+    <row r="73" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A73" s="36">
         <v>43920</v>
       </c>
@@ -3431,7 +3441,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="74" spans="1:16">
+    <row r="74" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A74" s="36">
         <v>43921</v>
       </c>
@@ -3465,7 +3475,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="75" spans="1:16">
+    <row r="75" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A75" s="36">
         <v>43923</v>
       </c>
@@ -3499,7 +3509,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="76" spans="1:16">
+    <row r="76" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A76" s="36">
         <v>43923</v>
       </c>
@@ -3533,7 +3543,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="77" spans="1:16">
+    <row r="77" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A77" s="36">
         <v>43924</v>
       </c>
@@ -3567,7 +3577,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="78" spans="1:16">
+    <row r="78" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A78" s="36">
         <v>43924</v>
       </c>
@@ -3601,7 +3611,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="79" spans="1:16">
+    <row r="79" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A79" s="36">
         <v>43927</v>
       </c>
@@ -3635,7 +3645,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="80" spans="1:16">
+    <row r="80" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A80" s="36">
         <v>43927</v>
       </c>
@@ -3669,7 +3679,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="81" spans="1:16">
+    <row r="81" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A81" s="36">
         <v>43927</v>
       </c>
@@ -3703,7 +3713,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="82" spans="1:16">
+    <row r="82" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A82" s="36">
         <v>43928</v>
       </c>
@@ -3737,7 +3747,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="83" spans="1:16">
+    <row r="83" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A83" s="36">
         <v>43928</v>
       </c>
@@ -3771,7 +3781,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="84" spans="1:16">
+    <row r="84" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A84" s="36">
         <v>43928</v>
       </c>
@@ -3805,7 +3815,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="85" spans="1:16">
+    <row r="85" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A85" s="36">
         <v>43930</v>
       </c>
@@ -3839,7 +3849,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="86" spans="1:16">
+    <row r="86" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A86" s="36">
         <v>43930</v>
       </c>
@@ -3873,7 +3883,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="87" spans="1:16">
+    <row r="87" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A87" s="36">
         <v>43930</v>
       </c>
@@ -3907,7 +3917,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="88" spans="1:16">
+    <row r="88" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A88" s="36">
         <v>43930</v>
       </c>
@@ -3941,7 +3951,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="89" spans="1:16">
+    <row r="89" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A89" s="36">
         <v>43930</v>
       </c>
@@ -3975,7 +3985,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="90" spans="1:16">
+    <row r="90" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A90" s="36">
         <v>43930</v>
       </c>
@@ -4009,7 +4019,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="91" spans="1:16">
+    <row r="91" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A91" s="36">
         <v>43934</v>
       </c>
@@ -4043,7 +4053,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="92" spans="1:16">
+    <row r="92" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A92" s="36">
         <v>43936</v>
       </c>
@@ -4077,7 +4087,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="93" spans="1:16">
+    <row r="93" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A93" s="36">
         <v>43936</v>
       </c>
@@ -4111,7 +4121,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="94" spans="1:16">
+    <row r="94" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A94" s="36">
         <v>43936</v>
       </c>
@@ -4145,7 +4155,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="95" spans="1:16">
+    <row r="95" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A95" s="36">
         <v>43938</v>
       </c>
@@ -4179,7 +4189,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="96" spans="1:16">
+    <row r="96" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A96" s="36">
         <v>43938</v>
       </c>
@@ -4213,7 +4223,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="97" spans="1:16">
+    <row r="97" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A97" s="36">
         <v>43941</v>
       </c>
@@ -4247,9 +4257,9 @@
         <v>55</v>
       </c>
     </row>
-    <row r="98" spans="1:16">
+    <row r="98" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A98" s="36">
-        <v>43941</v>
+        <v>43942</v>
       </c>
       <c r="B98" s="30"/>
       <c r="C98" s="32" t="s">
@@ -4261,7 +4271,7 @@
       </c>
       <c r="F98" s="32"/>
       <c r="G98" s="32" t="s">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="H98" s="32"/>
       <c r="I98" s="32"/>
@@ -4269,7 +4279,7 @@
       <c r="K98" s="32"/>
       <c r="L98" s="32"/>
       <c r="M98" s="35">
-        <v>123.01</v>
+        <v>76.34</v>
       </c>
       <c r="N98" t="s">
         <v>52</v>
@@ -4281,1492 +4291,1676 @@
         <v>55</v>
       </c>
     </row>
-    <row r="99" spans="1:16">
-      <c r="A99" s="36"/>
+    <row r="99" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="A99" s="44">
+        <v>43942</v>
+      </c>
       <c r="B99" s="30"/>
-      <c r="C99" s="32"/>
+      <c r="C99" s="32" t="s">
+        <v>74</v>
+      </c>
       <c r="D99" s="32"/>
-      <c r="E99" s="33"/>
+      <c r="E99" s="33" t="s">
+        <v>108</v>
+      </c>
       <c r="F99" s="32"/>
-      <c r="G99" s="32"/>
+      <c r="G99" s="32" t="s">
+        <v>3</v>
+      </c>
       <c r="H99" s="32"/>
       <c r="I99" s="32"/>
       <c r="J99" s="32"/>
       <c r="K99" s="32"/>
       <c r="L99" s="32"/>
-      <c r="M99" s="35"/>
-      <c r="O99" s="33"/>
-    </row>
-    <row r="100" spans="1:16" ht="16.95" customHeight="1">
-      <c r="A100" s="3">
+      <c r="M99" s="35">
+        <v>83.6</v>
+      </c>
+      <c r="N99" t="s">
+        <v>52</v>
+      </c>
+      <c r="O99" s="33" t="s">
+        <v>108</v>
+      </c>
+      <c r="P99" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="100" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="A100" s="36">
+        <v>43942</v>
+      </c>
+      <c r="B100" s="30"/>
+      <c r="C100" s="32" t="s">
+        <v>74</v>
+      </c>
+      <c r="D100" s="32"/>
+      <c r="E100" s="33" t="s">
+        <v>108</v>
+      </c>
+      <c r="F100" s="32"/>
+      <c r="G100" s="32" t="s">
+        <v>3</v>
+      </c>
+      <c r="H100" s="32"/>
+      <c r="I100" s="32"/>
+      <c r="J100" s="32"/>
+      <c r="K100" s="32"/>
+      <c r="L100" s="32"/>
+      <c r="M100" s="35">
+        <v>80.599999999999994</v>
+      </c>
+      <c r="N100" t="s">
+        <v>52</v>
+      </c>
+      <c r="O100" s="33" t="s">
+        <v>108</v>
+      </c>
+      <c r="P100" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="101" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="A101" s="36">
+        <v>43944</v>
+      </c>
+      <c r="B101" s="30"/>
+      <c r="C101" s="32" t="s">
+        <v>116</v>
+      </c>
+      <c r="D101" s="32"/>
+      <c r="E101" s="33" t="s">
+        <v>108</v>
+      </c>
+      <c r="F101" s="32"/>
+      <c r="G101" s="32" t="s">
+        <v>3</v>
+      </c>
+      <c r="H101" s="32"/>
+      <c r="I101" s="32"/>
+      <c r="J101" s="32"/>
+      <c r="K101" s="32"/>
+      <c r="L101" s="32"/>
+      <c r="M101" s="35">
+        <v>140</v>
+      </c>
+      <c r="N101" t="s">
+        <v>52</v>
+      </c>
+      <c r="O101" s="33" t="s">
+        <v>108</v>
+      </c>
+      <c r="P101" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="102" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="A102" s="36">
+        <v>43944</v>
+      </c>
+      <c r="B102" s="30"/>
+      <c r="C102" s="32" t="s">
+        <v>74</v>
+      </c>
+      <c r="D102" s="32"/>
+      <c r="E102" s="33" t="s">
+        <v>108</v>
+      </c>
+      <c r="F102" s="32"/>
+      <c r="G102" s="32" t="s">
+        <v>3</v>
+      </c>
+      <c r="H102" s="32"/>
+      <c r="I102" s="32"/>
+      <c r="J102" s="32"/>
+      <c r="K102" s="32"/>
+      <c r="L102" s="32"/>
+      <c r="M102" s="35">
+        <v>80.599999999999994</v>
+      </c>
+      <c r="N102" t="s">
+        <v>52</v>
+      </c>
+      <c r="O102" s="33" t="s">
+        <v>108</v>
+      </c>
+      <c r="P102" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="103" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="A103" s="36">
+        <v>43944</v>
+      </c>
+      <c r="B103" s="30"/>
+      <c r="C103" s="32" t="s">
+        <v>74</v>
+      </c>
+      <c r="D103" s="32"/>
+      <c r="E103" s="33" t="s">
+        <v>108</v>
+      </c>
+      <c r="F103" s="32"/>
+      <c r="G103" s="32" t="s">
+        <v>3</v>
+      </c>
+      <c r="H103" s="32"/>
+      <c r="I103" s="32"/>
+      <c r="J103" s="32"/>
+      <c r="K103" s="32"/>
+      <c r="L103" s="32"/>
+      <c r="M103" s="35">
+        <v>83.6</v>
+      </c>
+      <c r="N103" t="s">
+        <v>52</v>
+      </c>
+      <c r="O103" s="33" t="s">
+        <v>108</v>
+      </c>
+      <c r="P103" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="104" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="A104" s="36">
+        <v>43950</v>
+      </c>
+      <c r="B104" s="30"/>
+      <c r="C104" s="32" t="s">
+        <v>74</v>
+      </c>
+      <c r="D104" s="32"/>
+      <c r="E104" s="33" t="s">
+        <v>108</v>
+      </c>
+      <c r="F104" s="32"/>
+      <c r="G104" s="32" t="s">
+        <v>3</v>
+      </c>
+      <c r="H104" s="32"/>
+      <c r="I104" s="32"/>
+      <c r="J104" s="32"/>
+      <c r="K104" s="32"/>
+      <c r="L104" s="32"/>
+      <c r="M104" s="35">
+        <v>80.599999999999994</v>
+      </c>
+      <c r="N104" t="s">
+        <v>52</v>
+      </c>
+      <c r="O104" s="33" t="s">
+        <v>108</v>
+      </c>
+      <c r="P104" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="105" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="A105" s="36">
+        <v>43950</v>
+      </c>
+      <c r="B105" s="30"/>
+      <c r="C105" s="32" t="s">
+        <v>74</v>
+      </c>
+      <c r="D105" s="32"/>
+      <c r="E105" s="33" t="s">
+        <v>108</v>
+      </c>
+      <c r="F105" s="32"/>
+      <c r="G105" s="32" t="s">
+        <v>3</v>
+      </c>
+      <c r="H105" s="32"/>
+      <c r="I105" s="32"/>
+      <c r="J105" s="32"/>
+      <c r="K105" s="32"/>
+      <c r="L105" s="32"/>
+      <c r="M105" s="35">
+        <v>83.6</v>
+      </c>
+      <c r="N105" t="s">
+        <v>52</v>
+      </c>
+      <c r="O105" s="33" t="s">
+        <v>108</v>
+      </c>
+      <c r="P105" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="106" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="A106" s="36">
+        <v>43950</v>
+      </c>
+      <c r="B106" s="30"/>
+      <c r="C106" s="32" t="s">
+        <v>116</v>
+      </c>
+      <c r="D106" s="32"/>
+      <c r="E106" s="33" t="s">
+        <v>108</v>
+      </c>
+      <c r="F106" s="32"/>
+      <c r="G106" s="32" t="s">
+        <v>3</v>
+      </c>
+      <c r="H106" s="32"/>
+      <c r="I106" s="32"/>
+      <c r="J106" s="32"/>
+      <c r="K106" s="32"/>
+      <c r="L106" s="32"/>
+      <c r="M106" s="35">
+        <v>140</v>
+      </c>
+      <c r="N106" t="s">
+        <v>52</v>
+      </c>
+      <c r="O106" s="33" t="s">
+        <v>108</v>
+      </c>
+      <c r="P106" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="107" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="A107" s="36">
+        <v>43951</v>
+      </c>
+      <c r="B107" s="30"/>
+      <c r="C107" s="32" t="s">
+        <v>83</v>
+      </c>
+      <c r="D107" s="32"/>
+      <c r="E107" s="33" t="s">
+        <v>108</v>
+      </c>
+      <c r="F107" s="32"/>
+      <c r="G107" s="32" t="s">
+        <v>5</v>
+      </c>
+      <c r="H107" s="32"/>
+      <c r="I107" s="32"/>
+      <c r="J107" s="32"/>
+      <c r="K107" s="32"/>
+      <c r="L107" s="32"/>
+      <c r="M107" s="35">
+        <v>68.8</v>
+      </c>
+      <c r="N107" t="s">
+        <v>52</v>
+      </c>
+      <c r="O107" s="33" t="s">
+        <v>108</v>
+      </c>
+      <c r="P107" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="108" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="A108" s="36"/>
+      <c r="B108" s="30"/>
+      <c r="C108" s="32"/>
+      <c r="D108" s="32"/>
+      <c r="E108" s="33"/>
+      <c r="F108" s="32"/>
+      <c r="G108" s="32"/>
+      <c r="H108" s="32"/>
+      <c r="I108" s="32"/>
+      <c r="J108" s="32"/>
+      <c r="K108" s="32"/>
+      <c r="L108" s="32"/>
+      <c r="M108" s="35"/>
+      <c r="O108" s="33"/>
+    </row>
+    <row r="109" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="A109" s="36"/>
+      <c r="B109" s="30"/>
+      <c r="C109" s="32"/>
+      <c r="D109" s="32"/>
+      <c r="E109" s="33"/>
+      <c r="F109" s="32"/>
+      <c r="G109" s="32"/>
+      <c r="H109" s="32"/>
+      <c r="I109" s="32"/>
+      <c r="J109" s="32"/>
+      <c r="K109" s="32"/>
+      <c r="L109" s="32"/>
+      <c r="M109" s="35"/>
+      <c r="O109" s="33"/>
+    </row>
+    <row r="110" spans="1:16" ht="17" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A110" s="3">
         <v>43900</v>
       </c>
-      <c r="B100" s="4">
+      <c r="B110" s="4">
         <v>11925676</v>
       </c>
-      <c r="C100" s="5" t="s">
+      <c r="C110" s="5" t="s">
         <v>11</v>
       </c>
-      <c r="D100" s="5">
+      <c r="D110" s="5">
         <v>25594681</v>
       </c>
-      <c r="E100" s="5" t="s">
+      <c r="E110" s="5" t="s">
         <v>12</v>
       </c>
-      <c r="F100" s="5">
+      <c r="F110" s="5">
         <v>7064</v>
       </c>
-      <c r="G100" s="5" t="s">
+      <c r="G110" s="5" t="s">
         <v>7</v>
       </c>
-      <c r="H100" s="5" t="s">
+      <c r="H110" s="5" t="s">
         <v>4</v>
       </c>
-      <c r="I100" s="5" t="s">
+      <c r="I110" s="5" t="s">
         <v>8</v>
       </c>
-      <c r="J100" s="5" t="s">
+      <c r="J110" s="5" t="s">
         <v>13</v>
       </c>
-      <c r="K100" s="5" t="s">
+      <c r="K110" s="5" t="s">
         <v>14</v>
       </c>
-      <c r="L100" s="5" t="s">
+      <c r="L110" s="5" t="s">
         <v>10</v>
       </c>
-      <c r="M100" s="42">
+      <c r="M110" s="42">
         <v>59.29</v>
       </c>
-      <c r="N100" s="2" t="s">
-        <v>52</v>
-      </c>
-      <c r="O100" s="25" t="s">
+      <c r="N110" s="2" t="s">
+        <v>52</v>
+      </c>
+      <c r="O110" s="25" t="s">
         <v>12</v>
       </c>
-      <c r="P100" s="28" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="101" spans="1:16" ht="16.05" customHeight="1">
-      <c r="A101" s="7">
+      <c r="P110" s="28" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="111" spans="1:16" ht="16" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A111" s="7">
         <v>43905</v>
       </c>
-      <c r="B101" s="4">
+      <c r="B111" s="4">
         <v>12148204</v>
       </c>
-      <c r="C101" s="2" t="s">
+      <c r="C111" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="D101" s="2">
+      <c r="D111" s="2">
         <v>29161215</v>
       </c>
-      <c r="E101" s="2" t="s">
+      <c r="E111" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="F101" s="2">
+      <c r="F111" s="2">
         <v>7064</v>
       </c>
-      <c r="G101" s="2" t="s">
+      <c r="G111" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="H101" s="2" t="s">
+      <c r="H111" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="I101" s="2">
+      <c r="I111" s="2">
         <v>300</v>
       </c>
-      <c r="J101" s="2" t="s">
+      <c r="J111" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="K101" s="2"/>
-      <c r="L101" s="2"/>
-      <c r="M101" s="42">
+      <c r="K111" s="2"/>
+      <c r="L111" s="2"/>
+      <c r="M111" s="42">
         <v>209</v>
       </c>
-      <c r="N101" s="2" t="s">
-        <v>52</v>
-      </c>
-      <c r="O101" s="25" t="s">
+      <c r="N111" s="2" t="s">
+        <v>52</v>
+      </c>
+      <c r="O111" s="25" t="s">
         <v>12</v>
       </c>
-      <c r="P101" s="32" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="102" spans="1:16">
-      <c r="A102" s="7">
+      <c r="P111" s="32" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="112" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="A112" s="7">
         <v>43905</v>
       </c>
-      <c r="B102" s="4">
+      <c r="B112" s="4">
         <v>12148476</v>
       </c>
-      <c r="C102" s="2" t="s">
+      <c r="C112" s="2" t="s">
         <v>18</v>
       </c>
-      <c r="D102" s="2" t="s">
+      <c r="D112" s="2" t="s">
         <v>19</v>
       </c>
-      <c r="E102" s="2" t="s">
+      <c r="E112" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="F102" s="2">
+      <c r="F112" s="2">
         <v>7064</v>
       </c>
-      <c r="G102" s="2" t="s">
+      <c r="G112" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="H102" s="2" t="s">
+      <c r="H112" s="2" t="s">
         <v>20</v>
       </c>
-      <c r="I102" s="2" t="s">
+      <c r="I112" s="2" t="s">
         <v>21</v>
       </c>
-      <c r="J102" s="11">
+      <c r="J112" s="11">
         <v>60918110</v>
       </c>
-      <c r="K102" s="2"/>
-      <c r="L102" s="2" t="s">
+      <c r="K112" s="2"/>
+      <c r="L112" s="2" t="s">
         <v>22</v>
       </c>
-      <c r="M102">
+      <c r="M112">
         <v>55.38</v>
       </c>
-      <c r="N102" s="2" t="s">
-        <v>52</v>
-      </c>
-      <c r="O102" s="25" t="s">
+      <c r="N112" s="2" t="s">
+        <v>52</v>
+      </c>
+      <c r="O112" s="25" t="s">
         <v>12</v>
       </c>
-      <c r="P102" s="2" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="103" spans="1:16">
-      <c r="A103" s="7">
+      <c r="P112" s="2" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="113" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="A113" s="7">
         <v>43906</v>
       </c>
-      <c r="B103" s="4"/>
-      <c r="C103" s="2" t="s">
+      <c r="B113" s="4"/>
+      <c r="C113" s="2" t="s">
         <v>23</v>
       </c>
-      <c r="D103" s="2"/>
-      <c r="E103" s="28" t="s">
+      <c r="D113" s="2"/>
+      <c r="E113" s="28" t="s">
         <v>12</v>
       </c>
-      <c r="F103" s="28">
+      <c r="F113" s="28">
         <v>7064</v>
       </c>
-      <c r="G103" s="28" t="s">
+      <c r="G113" s="28" t="s">
         <v>5</v>
       </c>
-      <c r="H103" s="2"/>
-      <c r="I103" s="34">
+      <c r="H113" s="2"/>
+      <c r="I113" s="34">
         <v>4000000</v>
       </c>
-      <c r="J103" s="31"/>
-      <c r="K103" s="31">
+      <c r="J113" s="31"/>
+      <c r="K113" s="31">
         <v>271076400</v>
       </c>
-      <c r="L103" s="2"/>
-      <c r="M103">
+      <c r="L113" s="2"/>
+      <c r="M113">
         <v>67.760000000000005</v>
       </c>
-      <c r="N103" s="2" t="s">
-        <v>52</v>
-      </c>
-      <c r="O103" s="31" t="s">
+      <c r="N113" s="2" t="s">
+        <v>52</v>
+      </c>
+      <c r="O113" s="31" t="s">
         <v>12</v>
       </c>
-      <c r="P103" s="32" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="104" spans="1:16">
-      <c r="A104" s="7">
+      <c r="P113" s="32" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="114" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="A114" s="7">
         <v>43907</v>
       </c>
-      <c r="B104" s="30"/>
-      <c r="C104" s="28" t="s">
+      <c r="B114" s="30"/>
+      <c r="C114" s="28" t="s">
         <v>67</v>
       </c>
-      <c r="D104" s="28"/>
-      <c r="E104" s="28" t="s">
+      <c r="D114" s="28"/>
+      <c r="E114" s="28" t="s">
         <v>12</v>
       </c>
-      <c r="F104" s="28">
+      <c r="F114" s="28">
         <v>7064</v>
       </c>
-      <c r="G104" s="28" t="s">
+      <c r="G114" s="28" t="s">
         <v>3</v>
       </c>
-      <c r="H104" s="28"/>
-      <c r="I104" s="31">
+      <c r="H114" s="28"/>
+      <c r="I114" s="31">
         <v>720</v>
       </c>
-      <c r="J104" s="31"/>
-      <c r="K104" s="31">
+      <c r="J114" s="31"/>
+      <c r="K114" s="31">
         <v>152460</v>
       </c>
-      <c r="L104" s="28"/>
-      <c r="M104">
+      <c r="L114" s="28"/>
+      <c r="M114">
         <v>175</v>
       </c>
-      <c r="N104" s="28" t="s">
-        <v>52</v>
-      </c>
-      <c r="O104" s="31" t="s">
+      <c r="N114" s="28" t="s">
+        <v>52</v>
+      </c>
+      <c r="O114" s="31" t="s">
         <v>12</v>
       </c>
-      <c r="P104" s="28" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="105" spans="1:16">
-      <c r="A105" s="7">
+      <c r="P114" s="28" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="115" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="A115" s="7">
         <v>43907</v>
       </c>
-      <c r="B105" s="30"/>
-      <c r="C105" s="28" t="s">
+      <c r="B115" s="30"/>
+      <c r="C115" s="28" t="s">
         <v>69</v>
       </c>
-      <c r="D105" s="28"/>
-      <c r="E105" s="28" t="s">
+      <c r="D115" s="28"/>
+      <c r="E115" s="28" t="s">
         <v>12</v>
       </c>
-      <c r="F105" s="32">
+      <c r="F115" s="32">
         <v>7064</v>
       </c>
-      <c r="G105" s="28" t="s">
+      <c r="G115" s="28" t="s">
         <v>5</v>
       </c>
-      <c r="H105" s="28"/>
-      <c r="I105" s="34">
+      <c r="H115" s="28"/>
+      <c r="I115" s="34">
         <v>750000</v>
       </c>
-      <c r="J105" s="31"/>
-      <c r="K105" s="31">
+      <c r="J115" s="31"/>
+      <c r="K115" s="31">
         <v>62250000</v>
       </c>
-      <c r="L105" s="28"/>
-      <c r="M105">
-        <f t="shared" ref="M105:M113" si="0">K105/I105</f>
+      <c r="L115" s="28"/>
+      <c r="M115">
+        <f t="shared" ref="M115:M123" si="0">K115/I115</f>
         <v>83</v>
       </c>
-      <c r="N105" s="28" t="s">
-        <v>52</v>
-      </c>
-      <c r="O105" s="31" t="s">
+      <c r="N115" s="28" t="s">
+        <v>52</v>
+      </c>
+      <c r="O115" s="31" t="s">
         <v>12</v>
       </c>
-      <c r="P105" s="32" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="106" spans="1:16">
-      <c r="A106" s="7">
+      <c r="P115" s="32" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="116" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="A116" s="7">
         <v>43907</v>
       </c>
-      <c r="B106" s="4"/>
-      <c r="C106" s="2" t="s">
+      <c r="B116" s="4"/>
+      <c r="C116" s="2" t="s">
         <v>68</v>
       </c>
-      <c r="D106" s="2"/>
-      <c r="E106" s="28" t="s">
+      <c r="D116" s="2"/>
+      <c r="E116" s="28" t="s">
         <v>12</v>
       </c>
-      <c r="F106" s="28">
+      <c r="F116" s="28">
         <v>7064</v>
       </c>
-      <c r="G106" s="2" t="s">
+      <c r="G116" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="H106" s="2"/>
-      <c r="I106" s="11">
+      <c r="H116" s="2"/>
+      <c r="I116" s="11">
         <v>1000000</v>
       </c>
-      <c r="J106" s="28"/>
-      <c r="K106" s="28">
+      <c r="J116" s="28"/>
+      <c r="K116" s="28">
         <v>47641099.5</v>
       </c>
-      <c r="L106" s="2"/>
-      <c r="M106">
+      <c r="L116" s="2"/>
+      <c r="M116">
         <f t="shared" si="0"/>
         <v>47.641099500000003</v>
       </c>
-      <c r="N106" s="2" t="s">
-        <v>52</v>
-      </c>
-      <c r="O106" s="31" t="s">
+      <c r="N116" s="2" t="s">
+        <v>52</v>
+      </c>
+      <c r="O116" s="31" t="s">
         <v>12</v>
       </c>
-      <c r="P106" s="28" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="107" spans="1:16">
-      <c r="A107" s="7">
+      <c r="P116" s="28" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="117" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="A117" s="7">
         <v>43908</v>
       </c>
-      <c r="B107" s="30"/>
-      <c r="C107" s="28" t="s">
+      <c r="B117" s="30"/>
+      <c r="C117" s="28" t="s">
         <v>70</v>
       </c>
-      <c r="D107" s="28"/>
-      <c r="E107" s="28" t="s">
+      <c r="D117" s="28"/>
+      <c r="E117" s="28" t="s">
         <v>12</v>
       </c>
-      <c r="F107" s="32">
+      <c r="F117" s="32">
         <v>7064</v>
       </c>
-      <c r="G107" s="28" t="s">
+      <c r="G117" s="28" t="s">
         <v>5</v>
       </c>
-      <c r="H107" s="28"/>
-      <c r="I107" s="11">
+      <c r="H117" s="28"/>
+      <c r="I117" s="11">
         <v>1000000</v>
       </c>
-      <c r="J107" s="28"/>
-      <c r="K107" s="28">
+      <c r="J117" s="28"/>
+      <c r="K117" s="28">
         <v>57042900</v>
       </c>
-      <c r="L107" s="28"/>
-      <c r="M107">
+      <c r="L117" s="28"/>
+      <c r="M117">
         <f t="shared" si="0"/>
         <v>57.042900000000003</v>
       </c>
-      <c r="N107" s="28" t="s">
-        <v>52</v>
-      </c>
-      <c r="O107" s="31" t="s">
+      <c r="N117" s="28" t="s">
+        <v>52</v>
+      </c>
+      <c r="O117" s="31" t="s">
         <v>12</v>
       </c>
-      <c r="P107" s="32" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="108" spans="1:16">
-      <c r="A108" s="7">
+      <c r="P117" s="32" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="118" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="A118" s="7">
         <v>43910</v>
       </c>
-      <c r="B108" s="30"/>
-      <c r="C108" s="28" t="s">
+      <c r="B118" s="30"/>
+      <c r="C118" s="28" t="s">
         <v>71</v>
       </c>
-      <c r="D108" s="28"/>
-      <c r="E108" s="28" t="s">
+      <c r="D118" s="28"/>
+      <c r="E118" s="28" t="s">
         <v>12</v>
       </c>
-      <c r="F108" s="32">
+      <c r="F118" s="32">
         <v>7064</v>
       </c>
-      <c r="G108" s="28" t="s">
+      <c r="G118" s="28" t="s">
         <v>3</v>
       </c>
-      <c r="H108" s="28"/>
-      <c r="I108" s="11">
+      <c r="H118" s="28"/>
+      <c r="I118" s="11">
         <v>100</v>
       </c>
-      <c r="J108" s="28"/>
-      <c r="K108" s="28">
+      <c r="J118" s="28"/>
+      <c r="K118" s="28">
         <v>12800.59</v>
       </c>
-      <c r="L108" s="28"/>
-      <c r="M108">
+      <c r="L118" s="28"/>
+      <c r="M118">
         <f t="shared" si="0"/>
         <v>128.0059</v>
       </c>
-      <c r="N108" s="28" t="s">
-        <v>52</v>
-      </c>
-      <c r="O108" s="31" t="s">
+      <c r="N118" s="28" t="s">
+        <v>52</v>
+      </c>
+      <c r="O118" s="31" t="s">
         <v>12</v>
       </c>
-      <c r="P108" s="28" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="109" spans="1:16">
-      <c r="A109" s="7">
+      <c r="P118" s="28" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="119" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="A119" s="7">
         <v>43912</v>
       </c>
-      <c r="B109" s="30"/>
-      <c r="C109" s="28" t="s">
+      <c r="B119" s="30"/>
+      <c r="C119" s="28" t="s">
         <v>70</v>
       </c>
-      <c r="D109" s="28"/>
-      <c r="E109" s="28" t="s">
+      <c r="D119" s="28"/>
+      <c r="E119" s="28" t="s">
         <v>12</v>
       </c>
-      <c r="F109" s="32">
+      <c r="F119" s="32">
         <v>7064</v>
       </c>
-      <c r="G109" s="28" t="s">
+      <c r="G119" s="28" t="s">
         <v>5</v>
       </c>
-      <c r="H109" s="28"/>
-      <c r="I109" s="11">
+      <c r="H119" s="28"/>
+      <c r="I119" s="11">
         <v>10500000</v>
       </c>
-      <c r="J109" s="28"/>
-      <c r="K109" s="28">
+      <c r="J119" s="28"/>
+      <c r="K119" s="28">
         <v>599067000</v>
       </c>
-      <c r="L109" s="28"/>
-      <c r="M109">
+      <c r="L119" s="28"/>
+      <c r="M119">
         <f t="shared" si="0"/>
         <v>57.054000000000002</v>
       </c>
-      <c r="N109" s="28" t="s">
-        <v>52</v>
-      </c>
-      <c r="O109" s="31" t="s">
+      <c r="N119" s="28" t="s">
+        <v>52</v>
+      </c>
+      <c r="O119" s="31" t="s">
         <v>12</v>
       </c>
-      <c r="P109" s="32" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="110" spans="1:16">
-      <c r="A110" s="44">
+      <c r="P119" s="32" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="120" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="A120" s="44">
         <v>43927</v>
       </c>
-      <c r="C110" t="s">
+      <c r="C120" t="s">
         <v>113</v>
       </c>
-      <c r="E110" s="32" t="s">
+      <c r="E120" s="32" t="s">
         <v>12</v>
       </c>
-      <c r="F110" s="32">
+      <c r="F120" s="32">
         <v>7064</v>
       </c>
-      <c r="G110" s="32" t="s">
+      <c r="G120" s="32" t="s">
         <v>5</v>
       </c>
-      <c r="I110" s="11">
+      <c r="I120" s="11">
         <v>1200000</v>
       </c>
-      <c r="K110" s="43">
+      <c r="K120" s="43">
         <v>58863870</v>
       </c>
-      <c r="M110">
+      <c r="M120">
         <f t="shared" si="0"/>
         <v>49.053224999999998</v>
       </c>
-      <c r="N110" s="32" t="s">
-        <v>52</v>
-      </c>
-      <c r="O110" s="33" t="s">
+      <c r="N120" s="32" t="s">
+        <v>52</v>
+      </c>
+      <c r="O120" s="33" t="s">
         <v>12</v>
       </c>
-      <c r="P110" s="32" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="111" spans="1:16">
-      <c r="A111" s="44">
+      <c r="P120" s="32" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="121" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="A121" s="44">
         <v>43927</v>
       </c>
-      <c r="B111" s="4"/>
-      <c r="C111" s="2" t="s">
+      <c r="B121" s="4"/>
+      <c r="C121" s="2" t="s">
         <v>114</v>
       </c>
-      <c r="D111" s="2"/>
-      <c r="E111" s="32" t="s">
+      <c r="D121" s="2"/>
+      <c r="E121" s="32" t="s">
         <v>12</v>
       </c>
-      <c r="F111" s="32">
+      <c r="F121" s="32">
         <v>7064</v>
       </c>
-      <c r="G111" s="2" t="s">
+      <c r="G121" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="H111" s="2"/>
-      <c r="I111" s="2">
+      <c r="H121" s="2"/>
+      <c r="I121" s="2">
         <v>2200000</v>
       </c>
-      <c r="J111" s="2"/>
-      <c r="K111" s="2">
+      <c r="J121" s="2"/>
+      <c r="K121" s="2">
         <v>129854780</v>
       </c>
-      <c r="L111" s="5"/>
-      <c r="M111">
+      <c r="L121" s="5"/>
+      <c r="M121">
         <f t="shared" si="0"/>
         <v>59.024900000000002</v>
       </c>
-      <c r="N111" s="27" t="s">
-        <v>52</v>
-      </c>
-      <c r="O111" s="25" t="s">
+      <c r="N121" s="27" t="s">
+        <v>52</v>
+      </c>
+      <c r="O121" s="25" t="s">
+        <v>115</v>
+      </c>
+      <c r="P121" s="2" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="122" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="A122" s="7">
+        <v>43928</v>
+      </c>
+      <c r="B122" s="30"/>
+      <c r="C122" s="32" t="s">
+        <v>71</v>
+      </c>
+      <c r="D122" s="32"/>
+      <c r="E122" s="32" t="s">
         <v>12</v>
       </c>
-      <c r="P111" s="2" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="112" spans="1:16">
-      <c r="A112" s="7">
-        <v>43928</v>
-      </c>
-      <c r="B112" s="30"/>
-      <c r="C112" s="32" t="s">
-        <v>71</v>
-      </c>
-      <c r="D112" s="32"/>
-      <c r="E112" s="32" t="s">
-        <v>12</v>
-      </c>
-      <c r="F112" s="32">
+      <c r="F122" s="32">
         <v>7064</v>
       </c>
-      <c r="G112" s="32" t="s">
+      <c r="G122" s="32" t="s">
         <v>3</v>
       </c>
-      <c r="H112" s="32"/>
-      <c r="I112" s="11">
+      <c r="H122" s="32"/>
+      <c r="I122" s="11">
         <v>480</v>
       </c>
-      <c r="J112" s="32"/>
-      <c r="K112" s="32">
+      <c r="J122" s="32"/>
+      <c r="K122" s="32">
         <v>60398</v>
       </c>
-      <c r="L112" s="32"/>
-      <c r="M112">
+      <c r="L122" s="32"/>
+      <c r="M122">
         <f t="shared" si="0"/>
         <v>125.82916666666667</v>
       </c>
-      <c r="N112" s="32" t="s">
-        <v>52</v>
-      </c>
-      <c r="O112" s="33" t="s">
+      <c r="N122" s="32" t="s">
+        <v>52</v>
+      </c>
+      <c r="O122" s="33" t="s">
         <v>12</v>
       </c>
-      <c r="P112" s="32" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="113" spans="1:16">
-      <c r="A113" s="44">
+      <c r="P122" s="32" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="123" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="A123" s="44">
         <v>43928</v>
       </c>
-      <c r="C113" s="32" t="s">
+      <c r="C123" s="32" t="s">
         <v>71</v>
       </c>
-      <c r="E113" s="32" t="s">
+      <c r="E123" s="32" t="s">
         <v>12</v>
       </c>
-      <c r="F113" s="32">
+      <c r="F123" s="32">
         <v>7064</v>
       </c>
-      <c r="G113" s="32" t="s">
+      <c r="G123" s="32" t="s">
         <v>3</v>
       </c>
-      <c r="I113" s="11">
+      <c r="I123" s="11">
         <v>120</v>
       </c>
-      <c r="K113" s="32">
+      <c r="K123" s="32">
         <v>12679</v>
       </c>
-      <c r="M113">
+      <c r="M123">
         <f t="shared" si="0"/>
         <v>105.65833333333333</v>
       </c>
-      <c r="N113" s="32" t="s">
-        <v>52</v>
-      </c>
-      <c r="O113" s="33" t="s">
+      <c r="N123" s="32" t="s">
+        <v>52</v>
+      </c>
+      <c r="O123" s="33" t="s">
         <v>12</v>
       </c>
-      <c r="P113" s="32" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="114" spans="1:16">
-      <c r="A114" s="3">
+      <c r="P123" s="32" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="124" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="A124" s="3">
         <v>43941</v>
       </c>
-      <c r="B114" s="4"/>
-      <c r="C114" s="5" t="s">
+      <c r="B124" s="4"/>
+      <c r="C124" s="5" t="s">
         <v>112</v>
       </c>
-      <c r="D114" s="5"/>
-      <c r="E114" s="32" t="s">
+      <c r="D124" s="5"/>
+      <c r="E124" s="32" t="s">
         <v>12</v>
       </c>
-      <c r="F114" s="32">
+      <c r="F124" s="32">
         <v>7064</v>
       </c>
-      <c r="G114" s="32" t="s">
+      <c r="G124" s="32" t="s">
         <v>5</v>
       </c>
-      <c r="H114" s="5"/>
-      <c r="I114" s="5">
+      <c r="H124" s="5"/>
+      <c r="I124" s="5">
         <v>1000000</v>
       </c>
-      <c r="J114" s="2"/>
-      <c r="K114" s="11">
+      <c r="J124" s="2"/>
+      <c r="K124" s="11">
         <v>48820500</v>
       </c>
-      <c r="L114" s="2"/>
-      <c r="M114">
+      <c r="L124" s="2"/>
+      <c r="M124">
         <v>48.82</v>
       </c>
-      <c r="N114" s="32" t="s">
-        <v>52</v>
-      </c>
-      <c r="O114" s="33" t="s">
+      <c r="N124" s="32" t="s">
+        <v>52</v>
+      </c>
+      <c r="O124" s="33" t="s">
         <v>12</v>
       </c>
-      <c r="P114" s="32" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="116" spans="1:16">
-      <c r="A116" s="7">
+      <c r="P124" s="32" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="125" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="A125" s="7">
+        <v>43945</v>
+      </c>
+      <c r="B125" s="30">
+        <v>12679912</v>
+      </c>
+      <c r="C125" s="33" t="s">
+        <v>118</v>
+      </c>
+      <c r="D125" s="32"/>
+      <c r="E125" s="32"/>
+      <c r="F125" s="32"/>
+      <c r="G125" s="32" t="s">
+        <v>3</v>
+      </c>
+      <c r="H125" s="32"/>
+      <c r="I125" s="32"/>
+      <c r="J125" s="32"/>
+      <c r="K125" s="32"/>
+      <c r="L125" s="32"/>
+      <c r="M125">
+        <v>209</v>
+      </c>
+      <c r="N125" s="33" t="s">
+        <v>52</v>
+      </c>
+      <c r="O125" s="33" t="s">
+        <v>31</v>
+      </c>
+      <c r="P125" s="32"/>
+    </row>
+    <row r="126" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="A126" s="29">
+        <v>43950</v>
+      </c>
+      <c r="B126" s="30">
+        <v>12726128</v>
+      </c>
+      <c r="C126" s="33" t="s">
+        <v>117</v>
+      </c>
+      <c r="D126" s="33"/>
+      <c r="E126" s="32"/>
+      <c r="F126" s="33"/>
+      <c r="G126" s="33" t="s">
+        <v>3</v>
+      </c>
+      <c r="H126" s="33"/>
+      <c r="I126" s="33"/>
+      <c r="J126" s="12"/>
+      <c r="K126" s="32"/>
+      <c r="L126" s="32"/>
+      <c r="M126">
+        <v>145</v>
+      </c>
+      <c r="N126" s="27" t="s">
+        <v>52</v>
+      </c>
+      <c r="O126" s="33" t="s">
+        <v>31</v>
+      </c>
+      <c r="P126" s="32" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="128" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="A128" s="7">
         <v>43894</v>
       </c>
-      <c r="B116" s="23">
+      <c r="B128" s="23">
         <v>12036848</v>
       </c>
-      <c r="C116" s="21" t="s">
+      <c r="C128" s="21" t="s">
         <v>25</v>
       </c>
-      <c r="D116" s="21">
+      <c r="D128" s="21">
         <v>26415879</v>
       </c>
-      <c r="E116" s="21" t="s">
+      <c r="E128" s="21" t="s">
         <v>26</v>
       </c>
-      <c r="F116" s="21">
+      <c r="F128" s="21">
         <v>45769851</v>
       </c>
-      <c r="G116" s="20" t="s">
+      <c r="G128" s="20" t="s">
         <v>3</v>
       </c>
-      <c r="H116" s="20" t="s">
+      <c r="H128" s="20" t="s">
         <v>4</v>
       </c>
-      <c r="I116" s="20">
+      <c r="I128" s="20">
         <v>240</v>
       </c>
-      <c r="J116" s="10">
+      <c r="J128" s="10">
         <v>70277</v>
       </c>
-      <c r="K116" s="10">
+      <c r="K128" s="10">
         <v>58080</v>
       </c>
-      <c r="L116" s="20"/>
-      <c r="M116">
+      <c r="L128" s="20"/>
+      <c r="M128">
         <v>292.82</v>
       </c>
-      <c r="N116" s="25" t="s">
-        <v>52</v>
-      </c>
-      <c r="O116" s="25" t="s">
+      <c r="N128" s="25" t="s">
+        <v>52</v>
+      </c>
+      <c r="O128" s="25" t="s">
         <v>26</v>
       </c>
     </row>
-    <row r="117" spans="1:16">
-      <c r="A117" s="7">
+    <row r="129" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="A129" s="7">
         <v>43915</v>
       </c>
-      <c r="B117" s="23">
+      <c r="B129" s="23">
         <v>12103908</v>
       </c>
-      <c r="C117" s="20" t="s">
+      <c r="C129" s="20" t="s">
         <v>27</v>
       </c>
-      <c r="D117" s="20">
+      <c r="D129" s="20">
         <v>5224977</v>
       </c>
-      <c r="E117" s="20" t="s">
+      <c r="E129" s="20" t="s">
         <v>26</v>
       </c>
-      <c r="F117" s="20">
+      <c r="F129" s="20">
         <v>45769851</v>
       </c>
-      <c r="G117" s="20" t="s">
+      <c r="G129" s="20" t="s">
         <v>9</v>
       </c>
-      <c r="H117" s="20" t="s">
+      <c r="H129" s="20" t="s">
         <v>28</v>
       </c>
-      <c r="I117" s="20">
+      <c r="I129" s="20">
         <v>150</v>
       </c>
-      <c r="J117" s="20" t="s">
+      <c r="J129" s="20" t="s">
         <v>29</v>
       </c>
-      <c r="K117" s="20"/>
-      <c r="L117" s="20"/>
-      <c r="M117">
+      <c r="K129" s="20"/>
+      <c r="L129" s="20"/>
+      <c r="M129">
         <v>1216.05</v>
       </c>
-      <c r="N117" s="25" t="s">
+      <c r="N129" s="25" t="s">
         <v>53</v>
       </c>
-      <c r="O117" s="25" t="s">
+      <c r="O129" s="25" t="s">
         <v>26</v>
       </c>
     </row>
-    <row r="119" spans="1:16">
-      <c r="A119" s="7">
+    <row r="131" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="A131" s="7">
         <v>43906</v>
       </c>
-      <c r="B119" s="23">
+      <c r="B131" s="23">
         <v>12008760</v>
       </c>
-      <c r="C119" s="21" t="s">
+      <c r="C131" s="21" t="s">
         <v>32</v>
       </c>
-      <c r="D119" s="21">
+      <c r="D131" s="21">
         <v>27488861</v>
       </c>
-      <c r="E119" s="21" t="s">
+      <c r="E131" s="21" t="s">
         <v>31</v>
       </c>
-      <c r="F119" s="21">
+      <c r="F131" s="21">
         <v>60162694</v>
       </c>
-      <c r="G119" s="20" t="s">
+      <c r="G131" s="20" t="s">
         <v>3</v>
       </c>
-      <c r="H119" s="20" t="s">
+      <c r="H131" s="20" t="s">
         <v>4</v>
       </c>
-      <c r="I119" s="11">
+      <c r="I131" s="11">
         <v>2000</v>
       </c>
-      <c r="J119" s="10">
+      <c r="J131" s="10">
         <v>847000</v>
       </c>
-      <c r="K119" s="20"/>
-      <c r="L119" s="20"/>
-      <c r="M119">
+      <c r="K131" s="20"/>
+      <c r="L131" s="20"/>
+      <c r="M131">
         <v>423.5</v>
       </c>
-      <c r="N119" s="25" t="s">
-        <v>52</v>
-      </c>
-      <c r="O119" s="25" t="s">
+      <c r="N131" s="25" t="s">
+        <v>52</v>
+      </c>
+      <c r="O131" s="25" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="120" spans="1:16">
-      <c r="A120" s="7">
+    <row r="132" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="A132" s="7">
         <v>43914</v>
       </c>
-      <c r="B120" s="23">
+      <c r="B132" s="23">
         <v>12030004</v>
       </c>
-      <c r="C120" s="21" t="s">
+      <c r="C132" s="21" t="s">
         <v>30</v>
       </c>
-      <c r="D120" s="21">
+      <c r="D132" s="21">
         <v>3841294</v>
       </c>
-      <c r="E120" s="21" t="s">
+      <c r="E132" s="21" t="s">
         <v>31</v>
       </c>
-      <c r="F120" s="21">
+      <c r="F132" s="21">
         <v>60162694</v>
       </c>
-      <c r="G120" s="20" t="s">
+      <c r="G132" s="20" t="s">
         <v>5</v>
       </c>
-      <c r="H120" s="20" t="s">
+      <c r="H132" s="20" t="s">
         <v>4</v>
       </c>
-      <c r="I120" s="20">
+      <c r="I132" s="20">
         <v>800</v>
       </c>
-      <c r="J120" s="10">
+      <c r="J132" s="10">
         <v>174420</v>
       </c>
-      <c r="K120" s="20"/>
-      <c r="L120" s="20" t="s">
+      <c r="K132" s="20"/>
+      <c r="L132" s="20" t="s">
         <v>6</v>
       </c>
-      <c r="M120">
+      <c r="M132">
         <v>218.03</v>
       </c>
-      <c r="N120" s="25" t="s">
-        <v>52</v>
-      </c>
-      <c r="O120" s="25" t="s">
+      <c r="N132" s="25" t="s">
+        <v>52</v>
+      </c>
+      <c r="O132" s="25" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="121" spans="1:16">
-      <c r="A121" s="7">
+    <row r="133" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="A133" s="7">
         <v>43914</v>
       </c>
-      <c r="B121" s="23">
+      <c r="B133" s="23">
         <v>12085708</v>
       </c>
-      <c r="C121" s="20" t="s">
+      <c r="C133" s="20" t="s">
         <v>27</v>
       </c>
-      <c r="D121" s="20">
+      <c r="D133" s="20">
         <v>5224977</v>
       </c>
-      <c r="E121" s="20" t="s">
+      <c r="E133" s="20" t="s">
         <v>31</v>
       </c>
-      <c r="F121" s="20">
+      <c r="F133" s="20">
         <v>60162694</v>
       </c>
-      <c r="G121" s="20" t="s">
+      <c r="G133" s="20" t="s">
         <v>3</v>
       </c>
-      <c r="H121" s="20" t="s">
+      <c r="H133" s="20" t="s">
         <v>33</v>
       </c>
-      <c r="I121" s="20">
+      <c r="I133" s="20">
         <v>300</v>
       </c>
-      <c r="J121" s="20" t="s">
+      <c r="J133" s="20" t="s">
         <v>34</v>
       </c>
-      <c r="K121" s="20"/>
-      <c r="L121" s="21" t="s">
+      <c r="K133" s="20"/>
+      <c r="L133" s="21" t="s">
         <v>35</v>
       </c>
-      <c r="M121">
+      <c r="M133">
         <v>278.3</v>
       </c>
-      <c r="N121" s="25" t="s">
-        <v>52</v>
-      </c>
-      <c r="O121" s="25" t="s">
+      <c r="N133" s="25" t="s">
+        <v>52</v>
+      </c>
+      <c r="O133" s="25" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="122" spans="1:16">
-      <c r="A122" s="7">
+    <row r="134" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="A134" s="7">
         <v>43921</v>
       </c>
-      <c r="B122" s="23">
+      <c r="B134" s="23">
         <v>12115600</v>
       </c>
-      <c r="C122" s="20" t="s">
+      <c r="C134" s="20" t="s">
         <v>36</v>
       </c>
-      <c r="D122" s="20">
+      <c r="D134" s="20">
         <v>29161215</v>
       </c>
-      <c r="E122" s="20" t="s">
+      <c r="E134" s="20" t="s">
         <v>31</v>
       </c>
-      <c r="F122" s="20">
+      <c r="F134" s="20">
         <v>60162694</v>
       </c>
-      <c r="G122" s="20" t="s">
+      <c r="G134" s="20" t="s">
         <v>3</v>
       </c>
-      <c r="H122" s="20" t="s">
+      <c r="H134" s="20" t="s">
         <v>37</v>
       </c>
-      <c r="I122" s="20">
+      <c r="I134" s="20">
         <v>300</v>
       </c>
-      <c r="J122" s="20" t="s">
+      <c r="J134" s="20" t="s">
         <v>17</v>
       </c>
-      <c r="K122" s="21" t="s">
+      <c r="K134" s="21" t="s">
         <v>38</v>
       </c>
-      <c r="L122" s="20" t="s">
+      <c r="L134" s="20" t="s">
         <v>39</v>
       </c>
-      <c r="M122">
+      <c r="M134">
         <v>209</v>
       </c>
-      <c r="N122" s="25" t="s">
-        <v>52</v>
-      </c>
-      <c r="O122" s="25" t="s">
+      <c r="N134" s="25" t="s">
+        <v>52</v>
+      </c>
+      <c r="O134" s="25" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="123" spans="1:16">
-      <c r="A123" s="7">
+    <row r="135" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="A135" s="7">
         <v>43921</v>
       </c>
-      <c r="B123" s="23">
+      <c r="B135" s="23">
         <v>12122340</v>
       </c>
-      <c r="C123" s="20" t="s">
+      <c r="C135" s="20" t="s">
         <v>40</v>
       </c>
-      <c r="D123" s="20">
+      <c r="D135" s="20">
         <v>25271016</v>
       </c>
-      <c r="E123" s="20" t="s">
+      <c r="E135" s="20" t="s">
         <v>31</v>
       </c>
-      <c r="F123" s="20">
+      <c r="F135" s="20">
         <v>60162694</v>
       </c>
-      <c r="G123" s="20" t="s">
+      <c r="G135" s="20" t="s">
         <v>3</v>
       </c>
-      <c r="H123" s="20" t="s">
+      <c r="H135" s="20" t="s">
         <v>41</v>
       </c>
-      <c r="I123" s="20"/>
-      <c r="J123" s="20" t="s">
+      <c r="I135" s="20"/>
+      <c r="J135" s="20" t="s">
         <v>42</v>
       </c>
-      <c r="K123" s="21" t="s">
+      <c r="K135" s="21" t="s">
         <v>43</v>
       </c>
-      <c r="L123" s="20"/>
-      <c r="N123" s="25" t="s">
+      <c r="L135" s="20"/>
+      <c r="N135" s="25" t="s">
         <v>53</v>
       </c>
-      <c r="O123" s="25" t="s">
+      <c r="O135" s="25" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="124" spans="1:16">
-      <c r="A124" s="7">
+    <row r="136" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="A136" s="7">
         <v>43927</v>
       </c>
-      <c r="B124" s="23">
+      <c r="B136" s="23">
         <v>12155452</v>
       </c>
-      <c r="C124" s="21" t="s">
+      <c r="C136" s="21" t="s">
         <v>44</v>
       </c>
-      <c r="D124" s="20">
+      <c r="D136" s="20">
         <v>28155831</v>
       </c>
-      <c r="E124" s="20" t="s">
+      <c r="E136" s="20" t="s">
         <v>31</v>
       </c>
-      <c r="F124" s="20">
+      <c r="F136" s="20">
         <v>60162694</v>
       </c>
-      <c r="G124" s="20" t="s">
+      <c r="G136" s="20" t="s">
         <v>5</v>
       </c>
-      <c r="H124" s="20" t="s">
+      <c r="H136" s="20" t="s">
         <v>45</v>
       </c>
-      <c r="I124" s="20">
+      <c r="I136" s="20">
         <v>500</v>
       </c>
-      <c r="J124" s="20" t="s">
+      <c r="J136" s="20" t="s">
         <v>46</v>
       </c>
-      <c r="K124" s="20" t="s">
+      <c r="K136" s="20" t="s">
         <v>47</v>
       </c>
-      <c r="L124" s="20"/>
-      <c r="M124">
+      <c r="L136" s="20"/>
+      <c r="M136">
         <v>249</v>
       </c>
-      <c r="N124" s="25" t="s">
-        <v>52</v>
-      </c>
-      <c r="O124" s="25" t="s">
+      <c r="N136" s="25" t="s">
+        <v>52</v>
+      </c>
+      <c r="O136" s="25" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="125" spans="1:16">
-      <c r="A125" s="7">
+    <row r="137" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="A137" s="7">
         <v>43927</v>
       </c>
-      <c r="B125" s="23">
+      <c r="B137" s="23">
         <v>12157540</v>
       </c>
-      <c r="C125" s="21" t="s">
+      <c r="C137" s="21" t="s">
         <v>48</v>
       </c>
-      <c r="D125" s="20">
+      <c r="D137" s="20">
         <v>4348443</v>
       </c>
-      <c r="E125" s="20" t="s">
+      <c r="E137" s="20" t="s">
         <v>31</v>
       </c>
-      <c r="F125" s="20">
+      <c r="F137" s="20">
         <v>60162694</v>
       </c>
-      <c r="G125" s="20" t="s">
+      <c r="G137" s="20" t="s">
         <v>7</v>
       </c>
-      <c r="H125" s="20"/>
-      <c r="I125" s="20" t="s">
+      <c r="H137" s="20"/>
+      <c r="I137" s="20" t="s">
         <v>49</v>
       </c>
-      <c r="J125" s="20" t="s">
+      <c r="J137" s="20" t="s">
         <v>50</v>
       </c>
-      <c r="K125" s="20"/>
-      <c r="L125" s="20"/>
-      <c r="M125">
+      <c r="K137" s="20"/>
+      <c r="L137" s="20"/>
+      <c r="M137">
         <v>72.599999999999994</v>
       </c>
-      <c r="N125" s="25" t="s">
-        <v>52</v>
-      </c>
-      <c r="O125" s="25" t="s">
+      <c r="N137" s="25" t="s">
+        <v>52</v>
+      </c>
+      <c r="O137" s="25" t="s">
         <v>31</v>
       </c>
-      <c r="P125" s="2"/>
-    </row>
-    <row r="126" spans="1:16">
-      <c r="A126" s="3"/>
-      <c r="B126" s="4"/>
-      <c r="C126" s="5"/>
-      <c r="D126" s="5"/>
-      <c r="E126" s="5"/>
-      <c r="F126" s="5"/>
-      <c r="G126" s="5"/>
-      <c r="H126" s="5"/>
-      <c r="I126" s="5"/>
-      <c r="J126" s="12"/>
-      <c r="K126" s="2"/>
-      <c r="L126" s="2"/>
-      <c r="N126" s="27"/>
-      <c r="O126" s="25"/>
-      <c r="P126" s="2"/>
-    </row>
-    <row r="129" spans="1:16">
-      <c r="A129" s="7"/>
-      <c r="B129" s="4"/>
-      <c r="C129" s="5"/>
-      <c r="D129" s="2"/>
-      <c r="E129" s="2"/>
-      <c r="F129" s="2"/>
-      <c r="G129" s="2"/>
-      <c r="H129" s="2"/>
-      <c r="I129" s="2"/>
-      <c r="J129" s="2"/>
-      <c r="K129" s="2"/>
-      <c r="L129" s="2"/>
-      <c r="N129" s="24"/>
-      <c r="O129" s="24"/>
-    </row>
-    <row r="130" spans="1:16" ht="19.05" customHeight="1">
-      <c r="A130" s="7"/>
-      <c r="B130" s="4"/>
-      <c r="C130" s="5"/>
-      <c r="D130" s="2"/>
-      <c r="E130" s="2"/>
-      <c r="F130" s="2"/>
-      <c r="G130" s="2"/>
-      <c r="H130" s="2"/>
-      <c r="I130" s="2"/>
-      <c r="J130" s="2"/>
-      <c r="K130" s="2"/>
-      <c r="L130" s="2"/>
-      <c r="N130" s="24"/>
-      <c r="O130" s="24"/>
-      <c r="P130" s="2"/>
-    </row>
-    <row r="131" spans="1:16">
-      <c r="A131" s="3"/>
-      <c r="B131" s="4"/>
-      <c r="C131" s="2"/>
-      <c r="D131" s="5"/>
-      <c r="E131" s="2"/>
-      <c r="F131" s="2"/>
-      <c r="G131" s="2"/>
-      <c r="H131" s="2"/>
-      <c r="I131" s="10"/>
-      <c r="J131" s="10"/>
-      <c r="K131" s="10"/>
-      <c r="L131" s="10"/>
-      <c r="N131" s="2"/>
-      <c r="O131" s="24"/>
-      <c r="P131" s="2"/>
-    </row>
-    <row r="132" spans="1:16">
-      <c r="A132" s="7"/>
-      <c r="B132" s="4"/>
-      <c r="C132" s="2"/>
-      <c r="D132" s="2"/>
-      <c r="E132" s="2"/>
-      <c r="F132" s="2"/>
-      <c r="G132" s="2"/>
-      <c r="H132" s="2"/>
-      <c r="I132" s="2"/>
-      <c r="J132" s="2"/>
-      <c r="K132" s="2"/>
-      <c r="L132" s="2"/>
-      <c r="N132" s="25"/>
-      <c r="O132" s="24"/>
-      <c r="P132" s="2"/>
-    </row>
-    <row r="133" spans="1:16">
-      <c r="A133" s="7"/>
-      <c r="B133" s="4"/>
-      <c r="C133" s="5"/>
-      <c r="D133" s="2"/>
-      <c r="E133" s="2"/>
-      <c r="F133" s="2"/>
-      <c r="G133" s="2"/>
-      <c r="H133" s="2"/>
-      <c r="I133" s="2"/>
-      <c r="J133" s="2"/>
-      <c r="K133" s="2"/>
-      <c r="L133" s="2"/>
-      <c r="N133" s="24"/>
-      <c r="O133" s="24"/>
-      <c r="P133" s="2"/>
-    </row>
-    <row r="134" spans="1:16">
-      <c r="A134" s="7"/>
-      <c r="B134" s="4"/>
-      <c r="C134" s="2"/>
-      <c r="D134" s="2"/>
-      <c r="E134" s="2"/>
-      <c r="F134" s="2"/>
-      <c r="G134" s="2"/>
-      <c r="H134" s="2"/>
-      <c r="I134" s="2"/>
-      <c r="J134" s="13"/>
-      <c r="K134" s="2"/>
-      <c r="L134" s="5"/>
-      <c r="N134" s="25"/>
-      <c r="O134" s="24"/>
-      <c r="P134" s="2"/>
-    </row>
-    <row r="135" spans="1:16">
-      <c r="A135" s="7"/>
-      <c r="B135" s="4"/>
-      <c r="C135" s="2"/>
-      <c r="D135" s="2"/>
-      <c r="E135" s="2"/>
-      <c r="F135" s="2"/>
-      <c r="G135" s="2"/>
-      <c r="H135" s="2"/>
-      <c r="I135" s="2"/>
-      <c r="J135" s="2"/>
-      <c r="K135" s="2"/>
-      <c r="L135" s="2"/>
-      <c r="N135" s="2"/>
-      <c r="O135" s="24"/>
-      <c r="P135" s="2"/>
-    </row>
-    <row r="136" spans="1:16">
-      <c r="A136" s="7"/>
-      <c r="B136" s="4"/>
-      <c r="C136" s="2"/>
-      <c r="D136" s="2"/>
-      <c r="E136" s="2"/>
-      <c r="F136" s="2"/>
-      <c r="G136" s="5"/>
-      <c r="H136" s="5"/>
-      <c r="I136" s="5"/>
-      <c r="J136" s="2"/>
-      <c r="K136" s="5"/>
-      <c r="L136" s="2"/>
-      <c r="N136" s="2"/>
-      <c r="O136" s="24"/>
-      <c r="P136" s="2"/>
-    </row>
-    <row r="137" spans="1:16">
-      <c r="P137" s="20"/>
-    </row>
-    <row r="138" spans="1:16">
-      <c r="P138" s="20"/>
-    </row>
-    <row r="139" spans="1:16">
-      <c r="P139" s="20"/>
-    </row>
-    <row r="140" spans="1:16">
-      <c r="P140" s="20"/>
-    </row>
-    <row r="141" spans="1:16">
-      <c r="P141" s="20"/>
-    </row>
-    <row r="142" spans="1:16">
-      <c r="P142" s="20"/>
-    </row>
-    <row r="143" spans="1:16">
-      <c r="P143" s="20"/>
-    </row>
-    <row r="144" spans="1:16">
-      <c r="P144" s="20"/>
-    </row>
-    <row r="145" spans="1:16">
-      <c r="P145" s="20"/>
-    </row>
-    <row r="146" spans="1:16">
+      <c r="P137" s="2"/>
+    </row>
+    <row r="138" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="A138" s="7"/>
+      <c r="B138" s="30"/>
+      <c r="C138" s="33"/>
+      <c r="D138" s="32"/>
+      <c r="E138" s="32"/>
+      <c r="F138" s="32"/>
+      <c r="G138" s="32"/>
+      <c r="H138" s="32"/>
+      <c r="I138" s="32"/>
+      <c r="J138" s="32"/>
+      <c r="K138" s="32"/>
+      <c r="L138" s="32"/>
+      <c r="N138" s="33"/>
+      <c r="O138" s="33"/>
+      <c r="P138" s="32"/>
+    </row>
+    <row r="139" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="A139" s="3"/>
+      <c r="B139" s="4"/>
+      <c r="C139" s="33"/>
+      <c r="D139" s="5"/>
+      <c r="E139" s="32"/>
+      <c r="F139" s="5"/>
+      <c r="G139" s="5"/>
+      <c r="H139" s="5"/>
+      <c r="I139" s="5"/>
+      <c r="J139" s="12"/>
+      <c r="K139" s="2"/>
+      <c r="L139" s="2"/>
+      <c r="N139" s="27"/>
+      <c r="O139" s="33"/>
+      <c r="P139" s="2"/>
+    </row>
+    <row r="142" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="A142" s="7"/>
+      <c r="B142" s="4"/>
+      <c r="C142" s="5"/>
+      <c r="D142" s="2"/>
+      <c r="E142" s="2"/>
+      <c r="F142" s="2"/>
+      <c r="G142" s="2"/>
+      <c r="H142" s="2"/>
+      <c r="I142" s="2"/>
+      <c r="J142" s="2"/>
+      <c r="K142" s="2"/>
+      <c r="L142" s="2"/>
+      <c r="N142" s="24"/>
+      <c r="O142" s="24"/>
+    </row>
+    <row r="143" spans="1:16" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A143" s="7"/>
+      <c r="B143" s="4"/>
+      <c r="C143" s="5"/>
+      <c r="D143" s="2"/>
+      <c r="E143" s="2"/>
+      <c r="F143" s="2"/>
+      <c r="G143" s="2"/>
+      <c r="H143" s="2"/>
+      <c r="I143" s="2"/>
+      <c r="J143" s="2"/>
+      <c r="K143" s="2"/>
+      <c r="L143" s="2"/>
+      <c r="N143" s="24"/>
+      <c r="O143" s="24"/>
+      <c r="P143" s="2"/>
+    </row>
+    <row r="144" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="A144" s="3"/>
+      <c r="B144" s="4"/>
+      <c r="C144" s="2"/>
+      <c r="D144" s="5"/>
+      <c r="E144" s="2"/>
+      <c r="F144" s="2"/>
+      <c r="G144" s="2"/>
+      <c r="H144" s="2"/>
+      <c r="I144" s="10"/>
+      <c r="J144" s="10"/>
+      <c r="K144" s="10"/>
+      <c r="L144" s="10"/>
+      <c r="N144" s="2"/>
+      <c r="O144" s="24"/>
+      <c r="P144" s="2"/>
+    </row>
+    <row r="145" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="A145" s="7"/>
+      <c r="B145" s="4"/>
+      <c r="C145" s="2"/>
+      <c r="D145" s="2"/>
+      <c r="E145" s="2"/>
+      <c r="F145" s="2"/>
+      <c r="G145" s="2"/>
+      <c r="H145" s="2"/>
+      <c r="I145" s="2"/>
+      <c r="J145" s="2"/>
+      <c r="K145" s="2"/>
+      <c r="L145" s="2"/>
+      <c r="N145" s="25"/>
+      <c r="O145" s="24"/>
+      <c r="P145" s="2"/>
+    </row>
+    <row r="146" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A146" s="7"/>
-      <c r="B146" s="23"/>
-      <c r="C146" s="21"/>
-      <c r="D146" s="21"/>
-      <c r="E146" s="21"/>
-      <c r="F146" s="21"/>
-      <c r="G146" s="20"/>
-      <c r="H146" s="20"/>
-      <c r="I146" s="11"/>
-      <c r="J146" s="13"/>
-      <c r="K146" s="10"/>
-      <c r="L146" s="20"/>
-      <c r="N146" s="25"/>
-      <c r="O146" s="25"/>
-      <c r="P146" s="20"/>
-    </row>
-    <row r="147" spans="1:16">
+      <c r="B146" s="4"/>
+      <c r="C146" s="5"/>
+      <c r="D146" s="2"/>
+      <c r="E146" s="2"/>
+      <c r="F146" s="2"/>
+      <c r="G146" s="2"/>
+      <c r="H146" s="2"/>
+      <c r="I146" s="2"/>
+      <c r="J146" s="2"/>
+      <c r="K146" s="2"/>
+      <c r="L146" s="2"/>
+      <c r="N146" s="24"/>
+      <c r="O146" s="24"/>
+      <c r="P146" s="2"/>
+    </row>
+    <row r="147" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A147" s="7"/>
-      <c r="B147" s="23"/>
-      <c r="C147" s="21"/>
-      <c r="D147" s="21"/>
-      <c r="E147" s="21"/>
-      <c r="F147" s="21"/>
-      <c r="G147" s="20"/>
-      <c r="H147" s="20"/>
-      <c r="I147" s="11"/>
-      <c r="J147" s="20"/>
-      <c r="K147" s="20"/>
-      <c r="L147" s="20"/>
-      <c r="N147" s="20"/>
-      <c r="O147" s="25"/>
-      <c r="P147" s="20"/>
-    </row>
-    <row r="148" spans="1:16">
+      <c r="B147" s="4"/>
+      <c r="C147" s="2"/>
+      <c r="D147" s="2"/>
+      <c r="E147" s="2"/>
+      <c r="F147" s="2"/>
+      <c r="G147" s="2"/>
+      <c r="H147" s="2"/>
+      <c r="I147" s="2"/>
+      <c r="J147" s="13"/>
+      <c r="K147" s="2"/>
+      <c r="L147" s="5"/>
+      <c r="N147" s="25"/>
+      <c r="O147" s="24"/>
+      <c r="P147" s="2"/>
+    </row>
+    <row r="148" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A148" s="7"/>
-      <c r="B148" s="23"/>
-      <c r="C148" s="21"/>
-      <c r="D148" s="21"/>
-      <c r="E148" s="21"/>
-      <c r="F148" s="21"/>
-      <c r="G148" s="20"/>
-      <c r="H148" s="20"/>
-      <c r="I148" s="11"/>
-      <c r="J148" s="20"/>
-      <c r="K148" s="20"/>
-      <c r="L148" s="20"/>
-      <c r="N148" s="20"/>
-      <c r="O148" s="25"/>
-      <c r="P148" s="20"/>
-    </row>
-    <row r="149" spans="1:16">
+      <c r="B148" s="4"/>
+      <c r="C148" s="2"/>
+      <c r="D148" s="2"/>
+      <c r="E148" s="2"/>
+      <c r="F148" s="2"/>
+      <c r="G148" s="2"/>
+      <c r="H148" s="2"/>
+      <c r="I148" s="2"/>
+      <c r="J148" s="2"/>
+      <c r="K148" s="2"/>
+      <c r="L148" s="2"/>
+      <c r="N148" s="2"/>
+      <c r="O148" s="24"/>
+      <c r="P148" s="2"/>
+    </row>
+    <row r="149" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A149" s="7"/>
-      <c r="B149" s="23"/>
-      <c r="C149" s="20"/>
-      <c r="D149" s="20"/>
-      <c r="E149" s="20"/>
-      <c r="F149" s="20"/>
-      <c r="G149" s="20"/>
-      <c r="H149" s="20"/>
-      <c r="I149" s="11"/>
-      <c r="J149" s="13"/>
-      <c r="K149" s="10"/>
-      <c r="L149" s="20"/>
-      <c r="N149" s="25"/>
-      <c r="O149" s="25"/>
-      <c r="P149" s="20"/>
-    </row>
-    <row r="150" spans="1:16">
-      <c r="A150" s="7"/>
-      <c r="B150" s="23"/>
-      <c r="C150" s="20"/>
-      <c r="D150" s="20"/>
-      <c r="E150" s="20"/>
-      <c r="F150" s="20"/>
-      <c r="G150" s="20"/>
-      <c r="H150" s="20"/>
-      <c r="I150" s="20"/>
-      <c r="J150" s="20"/>
-      <c r="K150" s="20"/>
-      <c r="L150" s="20"/>
-      <c r="N150" s="20"/>
-      <c r="O150" s="25"/>
+      <c r="B149" s="4"/>
+      <c r="C149" s="2"/>
+      <c r="D149" s="2"/>
+      <c r="E149" s="2"/>
+      <c r="F149" s="2"/>
+      <c r="G149" s="5"/>
+      <c r="H149" s="5"/>
+      <c r="I149" s="5"/>
+      <c r="J149" s="2"/>
+      <c r="K149" s="5"/>
+      <c r="L149" s="2"/>
+      <c r="N149" s="2"/>
+      <c r="O149" s="24"/>
+      <c r="P149" s="2"/>
+    </row>
+    <row r="150" spans="1:16" x14ac:dyDescent="0.2">
       <c r="P150" s="20"/>
     </row>
-    <row r="151" spans="1:16">
-      <c r="A151" s="7"/>
-      <c r="B151" s="23"/>
-      <c r="C151" s="20"/>
-      <c r="D151" s="20"/>
-      <c r="E151" s="20"/>
-      <c r="F151" s="20"/>
-      <c r="G151" s="20"/>
-      <c r="H151" s="20"/>
-      <c r="I151" s="11"/>
-      <c r="J151" s="10"/>
-      <c r="K151" s="20"/>
-      <c r="L151" s="20"/>
-      <c r="N151" s="25"/>
-      <c r="O151" s="25"/>
+    <row r="151" spans="1:16" x14ac:dyDescent="0.2">
       <c r="P151" s="20"/>
     </row>
-    <row r="152" spans="1:16">
-      <c r="A152" s="7"/>
-      <c r="B152" s="23"/>
-      <c r="C152" s="20"/>
-      <c r="D152" s="20"/>
-      <c r="E152" s="20"/>
-      <c r="F152" s="20"/>
-      <c r="G152" s="20"/>
-      <c r="H152" s="20"/>
-      <c r="I152" s="20"/>
-      <c r="J152" s="20"/>
-      <c r="K152" s="20"/>
-      <c r="L152" s="21"/>
-      <c r="N152" s="25"/>
-      <c r="O152" s="25"/>
+    <row r="152" spans="1:16" x14ac:dyDescent="0.2">
       <c r="P152" s="20"/>
     </row>
-    <row r="153" spans="1:16">
-      <c r="A153" s="7"/>
-      <c r="B153" s="23"/>
-      <c r="C153" s="20"/>
-      <c r="D153" s="20"/>
-      <c r="E153" s="20"/>
-      <c r="F153" s="20"/>
-      <c r="G153" s="20"/>
-      <c r="H153" s="20"/>
-      <c r="I153" s="20"/>
-      <c r="J153" s="20"/>
-      <c r="K153" s="20"/>
-      <c r="L153" s="20"/>
-      <c r="N153" s="20"/>
-      <c r="O153" s="25"/>
+    <row r="153" spans="1:16" x14ac:dyDescent="0.2">
       <c r="P153" s="20"/>
     </row>
-    <row r="154" spans="1:16">
-      <c r="A154" s="7"/>
-      <c r="B154" s="23"/>
-      <c r="C154" s="21"/>
-      <c r="D154" s="21"/>
-      <c r="E154" s="21"/>
-      <c r="F154" s="20"/>
-      <c r="G154" s="20"/>
-      <c r="H154" s="20"/>
-      <c r="I154" s="20"/>
-      <c r="J154" s="20"/>
-      <c r="K154" s="20"/>
-      <c r="L154" s="20"/>
-      <c r="N154" s="25"/>
-      <c r="O154" s="24"/>
+    <row r="154" spans="1:16" x14ac:dyDescent="0.2">
       <c r="P154" s="20"/>
     </row>
-    <row r="155" spans="1:16">
-      <c r="A155" s="7"/>
-      <c r="B155" s="23"/>
-      <c r="C155" s="21"/>
-      <c r="D155" s="21"/>
-      <c r="E155" s="21"/>
-      <c r="F155" s="20"/>
-      <c r="G155" s="20"/>
-      <c r="H155" s="20"/>
-      <c r="I155" s="20"/>
-      <c r="J155" s="20"/>
-      <c r="K155" s="21"/>
-      <c r="L155" s="20"/>
-      <c r="N155" s="25"/>
-      <c r="O155" s="24"/>
+    <row r="155" spans="1:16" x14ac:dyDescent="0.2">
       <c r="P155" s="20"/>
     </row>
-    <row r="156" spans="1:16">
-      <c r="A156" s="22"/>
-      <c r="B156" s="23"/>
-      <c r="C156" s="20"/>
-      <c r="D156" s="9"/>
-      <c r="E156" s="20"/>
-      <c r="F156" s="9"/>
-      <c r="G156" s="20"/>
-      <c r="H156" s="20"/>
-      <c r="I156" s="11"/>
-      <c r="J156" s="11"/>
-      <c r="K156" s="11"/>
-      <c r="L156" s="20"/>
-      <c r="N156" s="20"/>
-      <c r="O156" s="24"/>
+    <row r="156" spans="1:16" x14ac:dyDescent="0.2">
       <c r="P156" s="20"/>
     </row>
-    <row r="157" spans="1:16">
-      <c r="A157" s="22"/>
-      <c r="B157" s="23"/>
-      <c r="C157" s="20"/>
-      <c r="D157" s="9"/>
-      <c r="E157" s="20"/>
-      <c r="F157" s="9"/>
-      <c r="G157" s="20"/>
-      <c r="H157" s="20"/>
-      <c r="I157" s="11"/>
-      <c r="J157" s="20"/>
-      <c r="K157" s="20"/>
-      <c r="L157" s="20"/>
-      <c r="N157" s="20"/>
-      <c r="O157" s="24"/>
+    <row r="157" spans="1:16" x14ac:dyDescent="0.2">
       <c r="P157" s="20"/>
     </row>
-    <row r="158" spans="1:16">
-      <c r="A158" s="22"/>
-      <c r="B158" s="23"/>
-      <c r="C158" s="21"/>
-      <c r="D158" s="21"/>
-      <c r="E158" s="21"/>
-      <c r="F158" s="21"/>
-      <c r="G158" s="21"/>
-      <c r="H158" s="20"/>
-      <c r="I158" s="21"/>
-      <c r="J158" s="21"/>
-      <c r="K158" s="21"/>
-      <c r="L158" s="21"/>
-      <c r="N158" s="25"/>
-      <c r="O158" s="25"/>
+    <row r="158" spans="1:16" x14ac:dyDescent="0.2">
       <c r="P158" s="20"/>
     </row>
-    <row r="159" spans="1:16">
+    <row r="159" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A159" s="7"/>
       <c r="B159" s="23"/>
-      <c r="C159" s="20"/>
-      <c r="D159" s="20"/>
-      <c r="E159" s="20"/>
-      <c r="F159" s="20"/>
+      <c r="C159" s="21"/>
+      <c r="D159" s="21"/>
+      <c r="E159" s="21"/>
+      <c r="F159" s="21"/>
       <c r="G159" s="20"/>
       <c r="H159" s="20"/>
-      <c r="I159" s="20"/>
-      <c r="J159" s="20"/>
-      <c r="K159" s="20"/>
+      <c r="I159" s="11"/>
+      <c r="J159" s="13"/>
+      <c r="K159" s="10"/>
       <c r="L159" s="20"/>
       <c r="N159" s="25"/>
       <c r="O159" s="25"/>
       <c r="P159" s="20"/>
     </row>
-    <row r="160" spans="1:16">
+    <row r="160" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A160" s="7"/>
       <c r="B160" s="23"/>
-      <c r="C160" s="20"/>
-      <c r="D160" s="20"/>
-      <c r="E160" s="20"/>
-      <c r="F160" s="20"/>
+      <c r="C160" s="21"/>
+      <c r="D160" s="21"/>
+      <c r="E160" s="21"/>
+      <c r="F160" s="21"/>
       <c r="G160" s="20"/>
       <c r="H160" s="20"/>
-      <c r="I160" s="20"/>
+      <c r="I160" s="11"/>
       <c r="J160" s="20"/>
       <c r="K160" s="20"/>
-      <c r="L160" s="21"/>
-      <c r="N160" s="25"/>
-      <c r="O160" s="24"/>
+      <c r="L160" s="20"/>
+      <c r="N160" s="20"/>
+      <c r="O160" s="25"/>
       <c r="P160" s="20"/>
     </row>
-    <row r="161" spans="1:16">
+    <row r="161" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A161" s="7"/>
       <c r="B161" s="23"/>
-      <c r="C161" s="20"/>
-      <c r="D161" s="20"/>
-      <c r="E161" s="20"/>
-      <c r="F161" s="20"/>
+      <c r="C161" s="21"/>
+      <c r="D161" s="21"/>
+      <c r="E161" s="21"/>
+      <c r="F161" s="21"/>
       <c r="G161" s="20"/>
       <c r="H161" s="20"/>
-      <c r="I161" s="20"/>
+      <c r="I161" s="11"/>
       <c r="J161" s="20"/>
       <c r="K161" s="20"/>
-      <c r="L161" s="21"/>
-      <c r="N161" s="25"/>
-      <c r="O161" s="24"/>
+      <c r="L161" s="20"/>
+      <c r="N161" s="20"/>
+      <c r="O161" s="25"/>
       <c r="P161" s="20"/>
     </row>
-    <row r="162" spans="1:16">
+    <row r="162" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A162" s="7"/>
       <c r="B162" s="23"/>
       <c r="C162" s="20"/>
@@ -5775,15 +5969,15 @@
       <c r="F162" s="20"/>
       <c r="G162" s="20"/>
       <c r="H162" s="20"/>
-      <c r="I162" s="20"/>
-      <c r="J162" s="20"/>
-      <c r="K162" s="20"/>
-      <c r="L162" s="21"/>
+      <c r="I162" s="11"/>
+      <c r="J162" s="13"/>
+      <c r="K162" s="10"/>
+      <c r="L162" s="20"/>
       <c r="N162" s="25"/>
-      <c r="O162" s="24"/>
+      <c r="O162" s="25"/>
       <c r="P162" s="20"/>
     </row>
-    <row r="163" spans="1:16">
+    <row r="163" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A163" s="7"/>
       <c r="B163" s="23"/>
       <c r="C163" s="20"/>
@@ -5796,28 +5990,28 @@
       <c r="J163" s="20"/>
       <c r="K163" s="20"/>
       <c r="L163" s="20"/>
-      <c r="N163" s="25"/>
-      <c r="O163" s="24"/>
+      <c r="N163" s="20"/>
+      <c r="O163" s="25"/>
       <c r="P163" s="20"/>
     </row>
-    <row r="164" spans="1:16">
+    <row r="164" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A164" s="7"/>
       <c r="B164" s="23"/>
       <c r="C164" s="20"/>
       <c r="D164" s="20"/>
       <c r="E164" s="20"/>
       <c r="F164" s="20"/>
-      <c r="G164" s="21"/>
-      <c r="H164" s="21"/>
-      <c r="I164" s="21"/>
-      <c r="J164" s="20"/>
-      <c r="K164" s="21"/>
+      <c r="G164" s="20"/>
+      <c r="H164" s="20"/>
+      <c r="I164" s="11"/>
+      <c r="J164" s="10"/>
+      <c r="K164" s="20"/>
       <c r="L164" s="20"/>
       <c r="N164" s="25"/>
-      <c r="O164" s="24"/>
+      <c r="O164" s="25"/>
       <c r="P164" s="20"/>
     </row>
-    <row r="165" spans="1:16">
+    <row r="165" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A165" s="7"/>
       <c r="B165" s="23"/>
       <c r="C165" s="20"/>
@@ -5829,12 +6023,12 @@
       <c r="I165" s="20"/>
       <c r="J165" s="20"/>
       <c r="K165" s="20"/>
-      <c r="L165" s="20"/>
+      <c r="L165" s="21"/>
       <c r="N165" s="25"/>
-      <c r="O165" s="24"/>
+      <c r="O165" s="25"/>
       <c r="P165" s="20"/>
     </row>
-    <row r="166" spans="1:16">
+    <row r="166" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A166" s="7"/>
       <c r="B166" s="23"/>
       <c r="C166" s="20"/>
@@ -5848,284 +6042,287 @@
       <c r="K166" s="20"/>
       <c r="L166" s="20"/>
       <c r="N166" s="20"/>
-      <c r="O166" s="24"/>
+      <c r="O166" s="25"/>
       <c r="P166" s="20"/>
     </row>
-    <row r="167" spans="1:16">
-      <c r="A167" s="22"/>
+    <row r="167" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="A167" s="7"/>
       <c r="B167" s="23"/>
-      <c r="C167" s="20"/>
-      <c r="D167" s="20"/>
-      <c r="E167" s="20"/>
-      <c r="F167" s="21"/>
+      <c r="C167" s="21"/>
+      <c r="D167" s="21"/>
+      <c r="E167" s="21"/>
+      <c r="F167" s="20"/>
       <c r="G167" s="20"/>
       <c r="H167" s="20"/>
       <c r="I167" s="20"/>
       <c r="J167" s="20"/>
       <c r="K167" s="20"/>
       <c r="L167" s="20"/>
-      <c r="N167" s="20"/>
+      <c r="N167" s="25"/>
       <c r="O167" s="24"/>
       <c r="P167" s="20"/>
     </row>
-    <row r="168" spans="1:16">
+    <row r="168" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A168" s="7"/>
       <c r="B168" s="23"/>
-      <c r="C168" s="20"/>
-      <c r="D168" s="20"/>
-      <c r="E168" s="20"/>
+      <c r="C168" s="21"/>
+      <c r="D168" s="21"/>
+      <c r="E168" s="21"/>
       <c r="F168" s="20"/>
       <c r="G168" s="20"/>
       <c r="H168" s="20"/>
-      <c r="I168" s="11"/>
-      <c r="J168" s="13"/>
-      <c r="K168" s="10"/>
+      <c r="I168" s="20"/>
+      <c r="J168" s="20"/>
+      <c r="K168" s="21"/>
       <c r="L168" s="20"/>
-      <c r="N168" s="20"/>
-      <c r="O168" s="20"/>
+      <c r="N168" s="25"/>
+      <c r="O168" s="24"/>
       <c r="P168" s="20"/>
     </row>
-    <row r="169" spans="1:16">
-      <c r="A169" s="3"/>
-      <c r="B169" s="4"/>
-      <c r="C169" s="5"/>
-      <c r="D169" s="5"/>
-      <c r="E169" s="5"/>
-      <c r="F169" s="5"/>
-      <c r="G169" s="5"/>
-      <c r="H169" s="2"/>
-      <c r="I169" s="5"/>
-      <c r="J169" s="5"/>
-      <c r="K169" s="5"/>
-      <c r="L169" s="5"/>
-      <c r="N169" s="2"/>
-      <c r="O169" s="2"/>
-      <c r="P169" s="2"/>
-    </row>
-    <row r="170" spans="1:16">
-      <c r="A170" s="7"/>
-      <c r="B170" s="4"/>
-      <c r="C170" s="5"/>
-      <c r="D170" s="5"/>
-      <c r="E170" s="5"/>
-      <c r="F170" s="2"/>
-      <c r="G170" s="2"/>
-      <c r="H170" s="2"/>
-      <c r="I170" s="2"/>
-      <c r="J170" s="2"/>
-      <c r="K170" s="2"/>
-      <c r="L170" s="2"/>
-      <c r="N170" s="2"/>
-      <c r="O170" s="2"/>
-      <c r="P170" s="2"/>
-    </row>
-    <row r="171" spans="1:16">
-      <c r="A171" s="3"/>
-      <c r="B171" s="4"/>
-      <c r="C171" s="5"/>
-      <c r="D171" s="5"/>
-      <c r="E171" s="5"/>
-      <c r="F171" s="5"/>
-      <c r="G171" s="5"/>
-      <c r="H171" s="5"/>
-      <c r="I171" s="5"/>
-      <c r="J171" s="2"/>
-      <c r="K171" s="2"/>
-      <c r="L171" s="2"/>
-      <c r="N171" s="2"/>
-      <c r="O171" s="2"/>
-      <c r="P171" s="2"/>
-    </row>
-    <row r="172" spans="1:16">
-      <c r="A172" s="3"/>
-      <c r="B172" s="4"/>
-      <c r="C172" s="5"/>
-      <c r="D172" s="5"/>
-      <c r="E172" s="5"/>
-      <c r="F172" s="5"/>
-      <c r="G172" s="5"/>
-      <c r="H172" s="5"/>
-      <c r="I172" s="5"/>
-      <c r="J172" s="12"/>
-      <c r="K172" s="2"/>
-      <c r="L172" s="2"/>
-      <c r="N172" s="2"/>
-      <c r="O172" s="2"/>
-      <c r="P172" s="2"/>
-    </row>
-    <row r="173" spans="1:16">
+    <row r="169" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="A169" s="22"/>
+      <c r="B169" s="23"/>
+      <c r="C169" s="20"/>
+      <c r="D169" s="9"/>
+      <c r="E169" s="20"/>
+      <c r="F169" s="9"/>
+      <c r="G169" s="20"/>
+      <c r="H169" s="20"/>
+      <c r="I169" s="11"/>
+      <c r="J169" s="11"/>
+      <c r="K169" s="11"/>
+      <c r="L169" s="20"/>
+      <c r="N169" s="20"/>
+      <c r="O169" s="24"/>
+      <c r="P169" s="20"/>
+    </row>
+    <row r="170" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="A170" s="22"/>
+      <c r="B170" s="23"/>
+      <c r="C170" s="20"/>
+      <c r="D170" s="9"/>
+      <c r="E170" s="20"/>
+      <c r="F170" s="9"/>
+      <c r="G170" s="20"/>
+      <c r="H170" s="20"/>
+      <c r="I170" s="11"/>
+      <c r="J170" s="20"/>
+      <c r="K170" s="20"/>
+      <c r="L170" s="20"/>
+      <c r="N170" s="20"/>
+      <c r="O170" s="24"/>
+      <c r="P170" s="20"/>
+    </row>
+    <row r="171" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="A171" s="22"/>
+      <c r="B171" s="23"/>
+      <c r="C171" s="21"/>
+      <c r="D171" s="21"/>
+      <c r="E171" s="21"/>
+      <c r="F171" s="21"/>
+      <c r="G171" s="21"/>
+      <c r="H171" s="20"/>
+      <c r="I171" s="21"/>
+      <c r="J171" s="21"/>
+      <c r="K171" s="21"/>
+      <c r="L171" s="21"/>
+      <c r="N171" s="25"/>
+      <c r="O171" s="25"/>
+      <c r="P171" s="20"/>
+    </row>
+    <row r="172" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="A172" s="7"/>
+      <c r="B172" s="23"/>
+      <c r="C172" s="20"/>
+      <c r="D172" s="20"/>
+      <c r="E172" s="20"/>
+      <c r="F172" s="20"/>
+      <c r="G172" s="20"/>
+      <c r="H172" s="20"/>
+      <c r="I172" s="20"/>
+      <c r="J172" s="20"/>
+      <c r="K172" s="20"/>
+      <c r="L172" s="20"/>
+      <c r="N172" s="25"/>
+      <c r="O172" s="25"/>
+      <c r="P172" s="20"/>
+    </row>
+    <row r="173" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A173" s="7"/>
-      <c r="B173" s="4"/>
-      <c r="C173" s="2"/>
-      <c r="D173" s="2"/>
-      <c r="E173" s="2"/>
-      <c r="F173" s="2"/>
-      <c r="G173" s="2"/>
-      <c r="H173" s="2"/>
-      <c r="I173" s="2"/>
-      <c r="J173" s="2"/>
-      <c r="K173" s="2"/>
-      <c r="L173" s="5"/>
-      <c r="N173" s="2"/>
-      <c r="O173" s="2"/>
-      <c r="P173" s="2"/>
-    </row>
-    <row r="174" spans="1:16">
+      <c r="B173" s="23"/>
+      <c r="C173" s="20"/>
+      <c r="D173" s="20"/>
+      <c r="E173" s="20"/>
+      <c r="F173" s="20"/>
+      <c r="G173" s="20"/>
+      <c r="H173" s="20"/>
+      <c r="I173" s="20"/>
+      <c r="J173" s="20"/>
+      <c r="K173" s="20"/>
+      <c r="L173" s="21"/>
+      <c r="N173" s="25"/>
+      <c r="O173" s="24"/>
+      <c r="P173" s="20"/>
+    </row>
+    <row r="174" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A174" s="7"/>
-      <c r="B174" s="4"/>
-      <c r="C174" s="2"/>
-      <c r="D174" s="2"/>
-      <c r="E174" s="2"/>
-      <c r="F174" s="2"/>
-      <c r="G174" s="2"/>
-      <c r="H174" s="2"/>
-      <c r="I174" s="2"/>
-      <c r="J174" s="2"/>
-      <c r="K174" s="2"/>
-      <c r="L174" s="5"/>
-      <c r="N174" s="2"/>
-      <c r="O174" s="2"/>
-      <c r="P174" s="2"/>
-    </row>
-    <row r="175" spans="1:16">
+      <c r="B174" s="23"/>
+      <c r="C174" s="20"/>
+      <c r="D174" s="20"/>
+      <c r="E174" s="20"/>
+      <c r="F174" s="20"/>
+      <c r="G174" s="20"/>
+      <c r="H174" s="20"/>
+      <c r="I174" s="20"/>
+      <c r="J174" s="20"/>
+      <c r="K174" s="20"/>
+      <c r="L174" s="21"/>
+      <c r="N174" s="25"/>
+      <c r="O174" s="24"/>
+      <c r="P174" s="20"/>
+    </row>
+    <row r="175" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A175" s="7"/>
-      <c r="B175" s="4"/>
-      <c r="C175" s="2"/>
-      <c r="D175" s="2"/>
-      <c r="E175" s="2"/>
-      <c r="F175" s="2"/>
-      <c r="G175" s="2"/>
-      <c r="H175" s="2"/>
-      <c r="I175" s="2"/>
-      <c r="J175" s="2"/>
-      <c r="K175" s="2"/>
-      <c r="L175" s="5"/>
-      <c r="N175" s="2"/>
-      <c r="O175" s="2"/>
-      <c r="P175" s="2"/>
-    </row>
-    <row r="176" spans="1:16">
-      <c r="A176" s="3"/>
-      <c r="B176" s="4"/>
-      <c r="C176" s="5"/>
-      <c r="D176" s="5"/>
-      <c r="E176" s="5"/>
-      <c r="F176" s="5"/>
-      <c r="G176" s="5"/>
-      <c r="H176" s="2"/>
-      <c r="I176" s="5"/>
-      <c r="J176" s="5"/>
-      <c r="K176" s="5"/>
-      <c r="L176" s="5"/>
-      <c r="N176" s="2"/>
-      <c r="O176" s="2"/>
-      <c r="P176" s="2"/>
-    </row>
-    <row r="177" spans="1:16">
+      <c r="B175" s="23"/>
+      <c r="C175" s="20"/>
+      <c r="D175" s="20"/>
+      <c r="E175" s="20"/>
+      <c r="F175" s="20"/>
+      <c r="G175" s="20"/>
+      <c r="H175" s="20"/>
+      <c r="I175" s="20"/>
+      <c r="J175" s="20"/>
+      <c r="K175" s="20"/>
+      <c r="L175" s="21"/>
+      <c r="N175" s="25"/>
+      <c r="O175" s="24"/>
+      <c r="P175" s="20"/>
+    </row>
+    <row r="176" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="A176" s="7"/>
+      <c r="B176" s="23"/>
+      <c r="C176" s="20"/>
+      <c r="D176" s="20"/>
+      <c r="E176" s="20"/>
+      <c r="F176" s="20"/>
+      <c r="G176" s="20"/>
+      <c r="H176" s="20"/>
+      <c r="I176" s="20"/>
+      <c r="J176" s="20"/>
+      <c r="K176" s="20"/>
+      <c r="L176" s="20"/>
+      <c r="N176" s="25"/>
+      <c r="O176" s="24"/>
+      <c r="P176" s="20"/>
+    </row>
+    <row r="177" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A177" s="7"/>
-      <c r="B177" s="4"/>
-      <c r="C177" s="2"/>
-      <c r="D177" s="2"/>
-      <c r="E177" s="2"/>
-      <c r="F177" s="2"/>
-      <c r="G177" s="2"/>
-      <c r="H177" s="2"/>
-      <c r="I177" s="2"/>
-      <c r="J177" s="2"/>
-      <c r="K177" s="2"/>
-      <c r="L177" s="2"/>
-      <c r="N177" s="2"/>
-      <c r="O177" s="2"/>
-      <c r="P177" s="2"/>
-    </row>
-    <row r="178" spans="1:16">
+      <c r="B177" s="23"/>
+      <c r="C177" s="20"/>
+      <c r="D177" s="20"/>
+      <c r="E177" s="20"/>
+      <c r="F177" s="20"/>
+      <c r="G177" s="21"/>
+      <c r="H177" s="21"/>
+      <c r="I177" s="21"/>
+      <c r="J177" s="20"/>
+      <c r="K177" s="21"/>
+      <c r="L177" s="20"/>
+      <c r="N177" s="25"/>
+      <c r="O177" s="24"/>
+      <c r="P177" s="20"/>
+    </row>
+    <row r="178" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A178" s="7"/>
-      <c r="B178" s="4"/>
-      <c r="C178" s="2"/>
-      <c r="D178" s="2"/>
-      <c r="E178" s="2"/>
-      <c r="F178" s="2"/>
-      <c r="G178" s="2"/>
-      <c r="H178" s="2"/>
-      <c r="I178" s="2"/>
-      <c r="J178" s="2"/>
-      <c r="K178" s="2"/>
-      <c r="L178" s="5"/>
-      <c r="N178" s="2"/>
-      <c r="O178" s="2"/>
-      <c r="P178" s="2"/>
-    </row>
-    <row r="179" spans="1:16">
+      <c r="B178" s="23"/>
+      <c r="C178" s="20"/>
+      <c r="D178" s="20"/>
+      <c r="E178" s="20"/>
+      <c r="F178" s="20"/>
+      <c r="G178" s="20"/>
+      <c r="H178" s="20"/>
+      <c r="I178" s="20"/>
+      <c r="J178" s="20"/>
+      <c r="K178" s="20"/>
+      <c r="L178" s="20"/>
+      <c r="N178" s="25"/>
+      <c r="O178" s="24"/>
+      <c r="P178" s="20"/>
+    </row>
+    <row r="179" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A179" s="7"/>
-      <c r="B179" s="4"/>
-      <c r="C179" s="2"/>
-      <c r="D179" s="2"/>
-      <c r="E179" s="2"/>
-      <c r="F179" s="2"/>
-      <c r="G179" s="2"/>
-      <c r="H179" s="2"/>
-      <c r="I179" s="2"/>
-      <c r="J179" s="2"/>
-      <c r="K179" s="2"/>
-      <c r="L179" s="2"/>
-      <c r="N179" s="2"/>
-      <c r="O179" s="2"/>
-      <c r="P179" s="2"/>
-    </row>
-    <row r="180" spans="1:16">
-      <c r="A180" s="7"/>
-      <c r="B180" s="4"/>
-      <c r="C180" s="5"/>
-      <c r="D180" s="2"/>
-      <c r="E180" s="2"/>
-      <c r="F180" s="2"/>
-      <c r="G180" s="2"/>
-      <c r="H180" s="2"/>
-      <c r="I180" s="2"/>
-      <c r="J180" s="2"/>
-      <c r="K180" s="2"/>
-      <c r="L180" s="2"/>
-    </row>
-    <row r="181" spans="1:16" ht="19.05" customHeight="1">
+      <c r="B179" s="23"/>
+      <c r="C179" s="20"/>
+      <c r="D179" s="20"/>
+      <c r="E179" s="20"/>
+      <c r="F179" s="20"/>
+      <c r="G179" s="20"/>
+      <c r="H179" s="20"/>
+      <c r="I179" s="20"/>
+      <c r="J179" s="20"/>
+      <c r="K179" s="20"/>
+      <c r="L179" s="20"/>
+      <c r="N179" s="20"/>
+      <c r="O179" s="24"/>
+      <c r="P179" s="20"/>
+    </row>
+    <row r="180" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="A180" s="22"/>
+      <c r="B180" s="23"/>
+      <c r="C180" s="20"/>
+      <c r="D180" s="20"/>
+      <c r="E180" s="20"/>
+      <c r="F180" s="21"/>
+      <c r="G180" s="20"/>
+      <c r="H180" s="20"/>
+      <c r="I180" s="20"/>
+      <c r="J180" s="20"/>
+      <c r="K180" s="20"/>
+      <c r="L180" s="20"/>
+      <c r="N180" s="20"/>
+      <c r="O180" s="24"/>
+      <c r="P180" s="20"/>
+    </row>
+    <row r="181" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A181" s="7"/>
-      <c r="B181" s="4"/>
-      <c r="C181" s="5"/>
-      <c r="D181" s="2"/>
-      <c r="E181" s="2"/>
-      <c r="F181" s="2"/>
-      <c r="G181" s="2"/>
-      <c r="H181" s="2"/>
-      <c r="I181" s="2"/>
-      <c r="J181" s="2"/>
-      <c r="K181" s="2"/>
-      <c r="L181" s="2"/>
-      <c r="N181" s="2"/>
-      <c r="O181" s="2"/>
-      <c r="P181" s="2"/>
-    </row>
-    <row r="182" spans="1:16">
+      <c r="B181" s="23"/>
+      <c r="C181" s="20"/>
+      <c r="D181" s="20"/>
+      <c r="E181" s="20"/>
+      <c r="F181" s="20"/>
+      <c r="G181" s="20"/>
+      <c r="H181" s="20"/>
+      <c r="I181" s="11"/>
+      <c r="J181" s="13"/>
+      <c r="K181" s="10"/>
+      <c r="L181" s="20"/>
+      <c r="N181" s="20"/>
+      <c r="O181" s="20"/>
+      <c r="P181" s="20"/>
+    </row>
+    <row r="182" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A182" s="3"/>
       <c r="B182" s="4"/>
-      <c r="C182" s="2"/>
+      <c r="C182" s="5"/>
       <c r="D182" s="5"/>
-      <c r="E182" s="2"/>
-      <c r="F182" s="2"/>
-      <c r="G182" s="2"/>
+      <c r="E182" s="5"/>
+      <c r="F182" s="5"/>
+      <c r="G182" s="5"/>
       <c r="H182" s="2"/>
-      <c r="I182" s="2"/>
-      <c r="J182" s="2"/>
-      <c r="K182" s="2"/>
-      <c r="L182" s="2"/>
+      <c r="I182" s="5"/>
+      <c r="J182" s="5"/>
+      <c r="K182" s="5"/>
+      <c r="L182" s="5"/>
       <c r="N182" s="2"/>
       <c r="O182" s="2"/>
       <c r="P182" s="2"/>
     </row>
-    <row r="183" spans="1:16">
+    <row r="183" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A183" s="7"/>
       <c r="B183" s="4"/>
-      <c r="C183" s="2"/>
-      <c r="D183" s="2"/>
-      <c r="E183" s="2"/>
+      <c r="C183" s="5"/>
+      <c r="D183" s="5"/>
+      <c r="E183" s="5"/>
       <c r="F183" s="2"/>
       <c r="G183" s="2"/>
       <c r="H183" s="2"/>
@@ -6137,7 +6334,7 @@
       <c r="O183" s="2"/>
       <c r="P183" s="2"/>
     </row>
-    <row r="184" spans="1:16">
+    <row r="184" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A184" s="3"/>
       <c r="B184" s="4"/>
       <c r="C184" s="5"/>
@@ -6145,7 +6342,7 @@
       <c r="E184" s="5"/>
       <c r="F184" s="5"/>
       <c r="G184" s="5"/>
-      <c r="H184" s="21"/>
+      <c r="H184" s="5"/>
       <c r="I184" s="5"/>
       <c r="J184" s="2"/>
       <c r="K184" s="2"/>
@@ -6154,7 +6351,7 @@
       <c r="O184" s="2"/>
       <c r="P184" s="2"/>
     </row>
-    <row r="185" spans="1:16">
+    <row r="185" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A185" s="3"/>
       <c r="B185" s="4"/>
       <c r="C185" s="5"/>
@@ -6162,7 +6359,7 @@
       <c r="E185" s="5"/>
       <c r="F185" s="5"/>
       <c r="G185" s="5"/>
-      <c r="H185" s="21"/>
+      <c r="H185" s="5"/>
       <c r="I185" s="5"/>
       <c r="J185" s="12"/>
       <c r="K185" s="2"/>
@@ -6171,7 +6368,7 @@
       <c r="O185" s="2"/>
       <c r="P185" s="2"/>
     </row>
-    <row r="186" spans="1:16">
+    <row r="186" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A186" s="7"/>
       <c r="B186" s="4"/>
       <c r="C186" s="2"/>
@@ -6179,7 +6376,7 @@
       <c r="E186" s="2"/>
       <c r="F186" s="2"/>
       <c r="G186" s="2"/>
-      <c r="H186" s="21"/>
+      <c r="H186" s="2"/>
       <c r="I186" s="2"/>
       <c r="J186" s="2"/>
       <c r="K186" s="2"/>
@@ -6188,262 +6385,259 @@
       <c r="O186" s="2"/>
       <c r="P186" s="2"/>
     </row>
-    <row r="187" spans="1:16">
-      <c r="A187" s="22"/>
-      <c r="B187" s="23"/>
-      <c r="C187" s="20"/>
-      <c r="D187" s="20"/>
-      <c r="E187" s="14"/>
-      <c r="F187" s="20"/>
-      <c r="G187" s="20"/>
-      <c r="H187" s="21"/>
-      <c r="I187" s="11"/>
-      <c r="J187" s="10"/>
-      <c r="K187" s="20"/>
-      <c r="L187" s="20"/>
-      <c r="N187" s="20"/>
-      <c r="O187" s="20"/>
-      <c r="P187" s="20"/>
-    </row>
-    <row r="188" spans="1:16">
+    <row r="187" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="A187" s="7"/>
+      <c r="B187" s="4"/>
+      <c r="C187" s="2"/>
+      <c r="D187" s="2"/>
+      <c r="E187" s="2"/>
+      <c r="F187" s="2"/>
+      <c r="G187" s="2"/>
+      <c r="H187" s="2"/>
+      <c r="I187" s="2"/>
+      <c r="J187" s="2"/>
+      <c r="K187" s="2"/>
+      <c r="L187" s="5"/>
+      <c r="N187" s="2"/>
+      <c r="O187" s="2"/>
+      <c r="P187" s="2"/>
+    </row>
+    <row r="188" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A188" s="7"/>
-      <c r="B188" s="23"/>
-      <c r="C188" s="21"/>
-      <c r="D188" s="21"/>
-      <c r="E188" s="21"/>
-      <c r="F188" s="21"/>
-      <c r="G188" s="20"/>
-      <c r="H188" s="21"/>
-      <c r="I188" s="20"/>
-      <c r="J188" s="10"/>
-      <c r="K188" s="10"/>
-      <c r="L188" s="20"/>
-      <c r="N188" s="20"/>
-      <c r="O188" s="20"/>
-      <c r="P188" s="20"/>
-    </row>
-    <row r="189" spans="1:16">
-      <c r="A189" s="7"/>
-      <c r="B189" s="23"/>
-      <c r="C189" s="20"/>
-      <c r="D189" s="20"/>
-      <c r="E189" s="20"/>
-      <c r="F189" s="20"/>
-      <c r="G189" s="20"/>
-      <c r="H189" s="21"/>
-      <c r="I189" s="20"/>
-      <c r="J189" s="20"/>
-      <c r="K189" s="20"/>
-      <c r="L189" s="20"/>
-      <c r="N189" s="20"/>
-      <c r="O189" s="20"/>
-      <c r="P189" s="20"/>
-    </row>
-    <row r="190" spans="1:16">
+      <c r="B188" s="4"/>
+      <c r="C188" s="2"/>
+      <c r="D188" s="2"/>
+      <c r="E188" s="2"/>
+      <c r="F188" s="2"/>
+      <c r="G188" s="2"/>
+      <c r="H188" s="2"/>
+      <c r="I188" s="2"/>
+      <c r="J188" s="2"/>
+      <c r="K188" s="2"/>
+      <c r="L188" s="5"/>
+      <c r="N188" s="2"/>
+      <c r="O188" s="2"/>
+      <c r="P188" s="2"/>
+    </row>
+    <row r="189" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="A189" s="3"/>
+      <c r="B189" s="4"/>
+      <c r="C189" s="5"/>
+      <c r="D189" s="5"/>
+      <c r="E189" s="5"/>
+      <c r="F189" s="5"/>
+      <c r="G189" s="5"/>
+      <c r="H189" s="2"/>
+      <c r="I189" s="5"/>
+      <c r="J189" s="5"/>
+      <c r="K189" s="5"/>
+      <c r="L189" s="5"/>
+      <c r="N189" s="2"/>
+      <c r="O189" s="2"/>
+      <c r="P189" s="2"/>
+    </row>
+    <row r="190" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A190" s="7"/>
-      <c r="B190" s="23"/>
-      <c r="C190" s="21"/>
-      <c r="D190" s="21"/>
-      <c r="E190" s="21"/>
-      <c r="F190" s="21"/>
-      <c r="G190" s="20"/>
-      <c r="H190" s="21"/>
-      <c r="I190" s="11"/>
-      <c r="J190" s="10"/>
-      <c r="K190" s="20"/>
-      <c r="L190" s="20"/>
-      <c r="N190" s="20"/>
-      <c r="O190" s="20"/>
-      <c r="P190" s="20"/>
-    </row>
-    <row r="191" spans="1:16">
+      <c r="B190" s="4"/>
+      <c r="C190" s="2"/>
+      <c r="D190" s="2"/>
+      <c r="E190" s="2"/>
+      <c r="F190" s="2"/>
+      <c r="G190" s="2"/>
+      <c r="H190" s="2"/>
+      <c r="I190" s="2"/>
+      <c r="J190" s="2"/>
+      <c r="K190" s="2"/>
+      <c r="L190" s="2"/>
+      <c r="N190" s="2"/>
+      <c r="O190" s="2"/>
+      <c r="P190" s="2"/>
+    </row>
+    <row r="191" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A191" s="7"/>
-      <c r="B191" s="23"/>
-      <c r="C191" s="21"/>
-      <c r="D191" s="21"/>
-      <c r="E191" s="21"/>
-      <c r="F191" s="21"/>
-      <c r="G191" s="20"/>
-      <c r="H191" s="20"/>
-      <c r="I191" s="20"/>
-      <c r="J191" s="10"/>
-      <c r="K191" s="20"/>
-      <c r="L191" s="20"/>
-      <c r="N191" s="20"/>
-      <c r="O191" s="20"/>
-      <c r="P191" s="20"/>
-    </row>
-    <row r="192" spans="1:16">
+      <c r="B191" s="4"/>
+      <c r="C191" s="2"/>
+      <c r="D191" s="2"/>
+      <c r="E191" s="2"/>
+      <c r="F191" s="2"/>
+      <c r="G191" s="2"/>
+      <c r="H191" s="2"/>
+      <c r="I191" s="2"/>
+      <c r="J191" s="2"/>
+      <c r="K191" s="2"/>
+      <c r="L191" s="5"/>
+      <c r="N191" s="2"/>
+      <c r="O191" s="2"/>
+      <c r="P191" s="2"/>
+    </row>
+    <row r="192" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A192" s="7"/>
-      <c r="B192" s="23"/>
-      <c r="C192" s="20"/>
-      <c r="D192" s="20"/>
-      <c r="E192" s="20"/>
-      <c r="F192" s="20"/>
-      <c r="G192" s="20"/>
-      <c r="H192" s="20"/>
-      <c r="I192" s="20"/>
-      <c r="J192" s="20"/>
-      <c r="K192" s="20"/>
-      <c r="L192" s="21"/>
-      <c r="N192" s="20"/>
-      <c r="O192" s="20"/>
-      <c r="P192" s="20"/>
-    </row>
-    <row r="193" spans="1:16">
+      <c r="B192" s="4"/>
+      <c r="C192" s="2"/>
+      <c r="D192" s="2"/>
+      <c r="E192" s="2"/>
+      <c r="F192" s="2"/>
+      <c r="G192" s="2"/>
+      <c r="H192" s="2"/>
+      <c r="I192" s="2"/>
+      <c r="J192" s="2"/>
+      <c r="K192" s="2"/>
+      <c r="L192" s="2"/>
+      <c r="N192" s="2"/>
+      <c r="O192" s="2"/>
+      <c r="P192" s="2"/>
+    </row>
+    <row r="193" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A193" s="7"/>
-      <c r="B193" s="23"/>
-      <c r="C193" s="20"/>
-      <c r="D193" s="20"/>
-      <c r="E193" s="20"/>
-      <c r="F193" s="20"/>
-      <c r="G193" s="20"/>
-      <c r="H193" s="20"/>
-      <c r="I193" s="20"/>
-      <c r="J193" s="20"/>
-      <c r="K193" s="21"/>
-      <c r="L193" s="20"/>
-      <c r="N193" s="20"/>
-      <c r="O193" s="20"/>
-      <c r="P193" s="20"/>
-    </row>
-    <row r="194" spans="1:16">
+      <c r="B193" s="4"/>
+      <c r="C193" s="5"/>
+      <c r="D193" s="2"/>
+      <c r="E193" s="2"/>
+      <c r="F193" s="2"/>
+      <c r="G193" s="2"/>
+      <c r="H193" s="2"/>
+      <c r="I193" s="2"/>
+      <c r="J193" s="2"/>
+      <c r="K193" s="2"/>
+      <c r="L193" s="2"/>
+    </row>
+    <row r="194" spans="1:16" ht="19" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A194" s="7"/>
-      <c r="B194" s="23"/>
-      <c r="C194" s="20"/>
-      <c r="D194" s="20"/>
-      <c r="E194" s="20"/>
-      <c r="F194" s="20"/>
-      <c r="G194" s="20"/>
-      <c r="H194" s="20"/>
-      <c r="I194" s="20"/>
-      <c r="J194" s="20"/>
-      <c r="K194" s="21"/>
-      <c r="L194" s="20"/>
-      <c r="N194" s="20"/>
-      <c r="O194" s="20"/>
-      <c r="P194" s="20"/>
-    </row>
-    <row r="195" spans="1:16">
-      <c r="A195" s="7"/>
-      <c r="B195" s="23"/>
-      <c r="C195" s="21"/>
-      <c r="D195" s="20"/>
-      <c r="E195" s="20"/>
-      <c r="F195" s="20"/>
-      <c r="G195" s="20"/>
-      <c r="H195" s="20"/>
-      <c r="I195" s="20"/>
-      <c r="J195" s="20"/>
-      <c r="K195" s="20"/>
-      <c r="L195" s="20"/>
-      <c r="N195" s="20"/>
-      <c r="O195" s="20"/>
-      <c r="P195" s="20"/>
-    </row>
-    <row r="196" spans="1:16">
+      <c r="B194" s="4"/>
+      <c r="C194" s="5"/>
+      <c r="D194" s="2"/>
+      <c r="E194" s="2"/>
+      <c r="F194" s="2"/>
+      <c r="G194" s="2"/>
+      <c r="H194" s="2"/>
+      <c r="I194" s="2"/>
+      <c r="J194" s="2"/>
+      <c r="K194" s="2"/>
+      <c r="L194" s="2"/>
+      <c r="N194" s="2"/>
+      <c r="O194" s="2"/>
+      <c r="P194" s="2"/>
+    </row>
+    <row r="195" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="A195" s="3"/>
+      <c r="B195" s="4"/>
+      <c r="C195" s="2"/>
+      <c r="D195" s="5"/>
+      <c r="E195" s="2"/>
+      <c r="F195" s="2"/>
+      <c r="G195" s="2"/>
+      <c r="H195" s="2"/>
+      <c r="I195" s="2"/>
+      <c r="J195" s="2"/>
+      <c r="K195" s="2"/>
+      <c r="L195" s="2"/>
+      <c r="N195" s="2"/>
+      <c r="O195" s="2"/>
+      <c r="P195" s="2"/>
+    </row>
+    <row r="196" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A196" s="7"/>
-      <c r="B196" s="23"/>
-      <c r="C196" s="21"/>
-      <c r="D196" s="20"/>
-      <c r="E196" s="20"/>
-      <c r="F196" s="20"/>
-      <c r="G196" s="20"/>
-      <c r="H196" s="20"/>
-      <c r="I196" s="20"/>
-      <c r="J196" s="20"/>
-      <c r="K196" s="20"/>
-      <c r="L196" s="20"/>
-      <c r="N196" s="20"/>
-      <c r="O196" s="20"/>
-      <c r="P196" s="20"/>
-    </row>
-    <row r="197" spans="1:16">
-      <c r="A197" s="7"/>
-      <c r="B197" s="23"/>
-      <c r="C197" s="21"/>
-      <c r="D197" s="21"/>
-      <c r="E197" s="21"/>
-      <c r="F197" s="21"/>
-      <c r="G197" s="20"/>
-      <c r="H197" s="20"/>
-      <c r="I197" s="11"/>
-      <c r="J197" s="13"/>
-      <c r="K197" s="10"/>
-      <c r="L197" s="20"/>
-      <c r="N197" s="20"/>
-      <c r="O197" s="20"/>
-      <c r="P197" s="20"/>
-    </row>
-    <row r="198" spans="1:16">
-      <c r="A198" s="7"/>
-      <c r="B198" s="23"/>
-      <c r="C198" s="21"/>
-      <c r="D198" s="21"/>
-      <c r="E198" s="21"/>
-      <c r="F198" s="21"/>
-      <c r="G198" s="20"/>
-      <c r="H198" s="20"/>
-      <c r="I198" s="11"/>
-      <c r="J198" s="20"/>
-      <c r="K198" s="20"/>
-      <c r="L198" s="20"/>
-      <c r="N198" s="20"/>
-      <c r="O198" s="20"/>
-      <c r="P198" s="20"/>
-    </row>
-    <row r="199" spans="1:16">
+      <c r="B196" s="4"/>
+      <c r="C196" s="2"/>
+      <c r="D196" s="2"/>
+      <c r="E196" s="2"/>
+      <c r="F196" s="2"/>
+      <c r="G196" s="2"/>
+      <c r="H196" s="2"/>
+      <c r="I196" s="2"/>
+      <c r="J196" s="2"/>
+      <c r="K196" s="2"/>
+      <c r="L196" s="2"/>
+      <c r="N196" s="2"/>
+      <c r="O196" s="2"/>
+      <c r="P196" s="2"/>
+    </row>
+    <row r="197" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="A197" s="3"/>
+      <c r="B197" s="4"/>
+      <c r="C197" s="5"/>
+      <c r="D197" s="5"/>
+      <c r="E197" s="5"/>
+      <c r="F197" s="5"/>
+      <c r="G197" s="5"/>
+      <c r="H197" s="21"/>
+      <c r="I197" s="5"/>
+      <c r="J197" s="2"/>
+      <c r="K197" s="2"/>
+      <c r="L197" s="2"/>
+      <c r="N197" s="2"/>
+      <c r="O197" s="2"/>
+      <c r="P197" s="2"/>
+    </row>
+    <row r="198" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="A198" s="3"/>
+      <c r="B198" s="4"/>
+      <c r="C198" s="5"/>
+      <c r="D198" s="5"/>
+      <c r="E198" s="5"/>
+      <c r="F198" s="5"/>
+      <c r="G198" s="5"/>
+      <c r="H198" s="21"/>
+      <c r="I198" s="5"/>
+      <c r="J198" s="12"/>
+      <c r="K198" s="2"/>
+      <c r="L198" s="2"/>
+      <c r="N198" s="2"/>
+      <c r="O198" s="2"/>
+      <c r="P198" s="2"/>
+    </row>
+    <row r="199" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A199" s="7"/>
-      <c r="B199" s="23"/>
-      <c r="C199" s="21"/>
-      <c r="D199" s="21"/>
-      <c r="E199" s="21"/>
-      <c r="F199" s="21"/>
-      <c r="G199" s="20"/>
-      <c r="H199" s="20"/>
-      <c r="I199" s="11"/>
-      <c r="J199" s="20"/>
-      <c r="K199" s="20"/>
-      <c r="L199" s="20"/>
-      <c r="N199" s="20"/>
-      <c r="O199" s="20"/>
-      <c r="P199" s="20"/>
-    </row>
-    <row r="200" spans="1:16">
-      <c r="A200" s="7"/>
+      <c r="B199" s="4"/>
+      <c r="C199" s="2"/>
+      <c r="D199" s="2"/>
+      <c r="E199" s="2"/>
+      <c r="F199" s="2"/>
+      <c r="G199" s="2"/>
+      <c r="H199" s="21"/>
+      <c r="I199" s="2"/>
+      <c r="J199" s="2"/>
+      <c r="K199" s="2"/>
+      <c r="L199" s="5"/>
+      <c r="N199" s="2"/>
+      <c r="O199" s="2"/>
+      <c r="P199" s="2"/>
+    </row>
+    <row r="200" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="A200" s="22"/>
       <c r="B200" s="23"/>
       <c r="C200" s="20"/>
       <c r="D200" s="20"/>
-      <c r="E200" s="20"/>
+      <c r="E200" s="14"/>
       <c r="F200" s="20"/>
       <c r="G200" s="20"/>
-      <c r="H200" s="20"/>
+      <c r="H200" s="21"/>
       <c r="I200" s="11"/>
-      <c r="J200" s="13"/>
-      <c r="K200" s="10"/>
+      <c r="J200" s="10"/>
+      <c r="K200" s="20"/>
       <c r="L200" s="20"/>
       <c r="N200" s="20"/>
       <c r="O200" s="20"/>
       <c r="P200" s="20"/>
     </row>
-    <row r="201" spans="1:16">
+    <row r="201" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A201" s="7"/>
       <c r="B201" s="23"/>
-      <c r="C201" s="20"/>
-      <c r="D201" s="20"/>
-      <c r="E201" s="20"/>
-      <c r="F201" s="20"/>
+      <c r="C201" s="21"/>
+      <c r="D201" s="21"/>
+      <c r="E201" s="21"/>
+      <c r="F201" s="21"/>
       <c r="G201" s="20"/>
-      <c r="H201" s="20"/>
+      <c r="H201" s="21"/>
       <c r="I201" s="20"/>
-      <c r="J201" s="20"/>
-      <c r="K201" s="20"/>
+      <c r="J201" s="10"/>
+      <c r="K201" s="10"/>
       <c r="L201" s="20"/>
       <c r="N201" s="20"/>
       <c r="O201" s="20"/>
       <c r="P201" s="20"/>
     </row>
-    <row r="202" spans="1:16">
+    <row r="202" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A202" s="7"/>
       <c r="B202" s="23"/>
       <c r="C202" s="20"/>
@@ -6451,72 +6645,72 @@
       <c r="E202" s="20"/>
       <c r="F202" s="20"/>
       <c r="G202" s="20"/>
-      <c r="H202" s="20"/>
-      <c r="I202" s="11"/>
-      <c r="J202" s="10"/>
+      <c r="H202" s="21"/>
+      <c r="I202" s="20"/>
+      <c r="J202" s="20"/>
       <c r="K202" s="20"/>
       <c r="L202" s="20"/>
       <c r="N202" s="20"/>
       <c r="O202" s="20"/>
       <c r="P202" s="20"/>
     </row>
-    <row r="203" spans="1:16">
+    <row r="203" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A203" s="7"/>
       <c r="B203" s="23"/>
-      <c r="C203" s="20"/>
-      <c r="D203" s="20"/>
-      <c r="E203" s="20"/>
-      <c r="F203" s="20"/>
+      <c r="C203" s="21"/>
+      <c r="D203" s="21"/>
+      <c r="E203" s="21"/>
+      <c r="F203" s="21"/>
       <c r="G203" s="20"/>
-      <c r="H203" s="20"/>
-      <c r="I203" s="20"/>
-      <c r="J203" s="20"/>
+      <c r="H203" s="21"/>
+      <c r="I203" s="11"/>
+      <c r="J203" s="10"/>
       <c r="K203" s="20"/>
-      <c r="L203" s="21"/>
+      <c r="L203" s="20"/>
       <c r="N203" s="20"/>
       <c r="O203" s="20"/>
       <c r="P203" s="20"/>
     </row>
-    <row r="204" spans="1:16">
+    <row r="204" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A204" s="7"/>
       <c r="B204" s="23"/>
-      <c r="C204" s="20"/>
-      <c r="D204" s="20"/>
-      <c r="E204" s="20"/>
-      <c r="F204" s="20"/>
+      <c r="C204" s="21"/>
+      <c r="D204" s="21"/>
+      <c r="E204" s="21"/>
+      <c r="F204" s="21"/>
       <c r="G204" s="20"/>
       <c r="H204" s="20"/>
       <c r="I204" s="20"/>
-      <c r="J204" s="20"/>
+      <c r="J204" s="10"/>
       <c r="K204" s="20"/>
       <c r="L204" s="20"/>
       <c r="N204" s="20"/>
       <c r="O204" s="20"/>
       <c r="P204" s="20"/>
     </row>
-    <row r="205" spans="1:16">
+    <row r="205" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A205" s="7"/>
       <c r="B205" s="23"/>
-      <c r="C205" s="21"/>
-      <c r="D205" s="21"/>
-      <c r="E205" s="21"/>
+      <c r="C205" s="20"/>
+      <c r="D205" s="20"/>
+      <c r="E205" s="20"/>
       <c r="F205" s="20"/>
       <c r="G205" s="20"/>
       <c r="H205" s="20"/>
       <c r="I205" s="20"/>
       <c r="J205" s="20"/>
       <c r="K205" s="20"/>
-      <c r="L205" s="20"/>
+      <c r="L205" s="21"/>
       <c r="N205" s="20"/>
       <c r="O205" s="20"/>
       <c r="P205" s="20"/>
     </row>
-    <row r="206" spans="1:16">
+    <row r="206" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A206" s="7"/>
       <c r="B206" s="23"/>
-      <c r="C206" s="21"/>
-      <c r="D206" s="21"/>
-      <c r="E206" s="21"/>
+      <c r="C206" s="20"/>
+      <c r="D206" s="20"/>
+      <c r="E206" s="20"/>
       <c r="F206" s="20"/>
       <c r="G206" s="20"/>
       <c r="H206" s="20"/>
@@ -6528,33 +6722,33 @@
       <c r="O206" s="20"/>
       <c r="P206" s="20"/>
     </row>
-    <row r="207" spans="1:16">
-      <c r="A207" s="22"/>
+    <row r="207" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="A207" s="7"/>
       <c r="B207" s="23"/>
       <c r="C207" s="20"/>
-      <c r="D207" s="9"/>
+      <c r="D207" s="20"/>
       <c r="E207" s="20"/>
-      <c r="F207" s="9"/>
+      <c r="F207" s="20"/>
       <c r="G207" s="20"/>
       <c r="H207" s="20"/>
-      <c r="I207" s="11"/>
-      <c r="J207" s="11"/>
-      <c r="K207" s="11"/>
+      <c r="I207" s="20"/>
+      <c r="J207" s="20"/>
+      <c r="K207" s="21"/>
       <c r="L207" s="20"/>
       <c r="N207" s="20"/>
       <c r="O207" s="20"/>
       <c r="P207" s="20"/>
     </row>
-    <row r="208" spans="1:16">
-      <c r="A208" s="22"/>
+    <row r="208" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="A208" s="7"/>
       <c r="B208" s="23"/>
-      <c r="C208" s="20"/>
-      <c r="D208" s="9"/>
+      <c r="C208" s="21"/>
+      <c r="D208" s="20"/>
       <c r="E208" s="20"/>
-      <c r="F208" s="9"/>
+      <c r="F208" s="20"/>
       <c r="G208" s="20"/>
       <c r="H208" s="20"/>
-      <c r="I208" s="11"/>
+      <c r="I208" s="20"/>
       <c r="J208" s="20"/>
       <c r="K208" s="20"/>
       <c r="L208" s="20"/>
@@ -6562,75 +6756,75 @@
       <c r="O208" s="20"/>
       <c r="P208" s="20"/>
     </row>
-    <row r="209" spans="1:16">
-      <c r="A209" s="22"/>
+    <row r="209" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="A209" s="7"/>
       <c r="B209" s="23"/>
       <c r="C209" s="21"/>
-      <c r="D209" s="21"/>
-      <c r="E209" s="21"/>
-      <c r="F209" s="21"/>
-      <c r="G209" s="21"/>
+      <c r="D209" s="20"/>
+      <c r="E209" s="20"/>
+      <c r="F209" s="20"/>
+      <c r="G209" s="20"/>
       <c r="H209" s="20"/>
-      <c r="I209" s="21"/>
-      <c r="J209" s="21"/>
-      <c r="K209" s="21"/>
-      <c r="L209" s="21"/>
+      <c r="I209" s="20"/>
+      <c r="J209" s="20"/>
+      <c r="K209" s="20"/>
+      <c r="L209" s="20"/>
       <c r="N209" s="20"/>
       <c r="O209" s="20"/>
       <c r="P209" s="20"/>
     </row>
-    <row r="210" spans="1:16">
+    <row r="210" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A210" s="7"/>
       <c r="B210" s="23"/>
-      <c r="C210" s="20"/>
-      <c r="D210" s="20"/>
-      <c r="E210" s="20"/>
-      <c r="F210" s="20"/>
+      <c r="C210" s="21"/>
+      <c r="D210" s="21"/>
+      <c r="E210" s="21"/>
+      <c r="F210" s="21"/>
       <c r="G210" s="20"/>
       <c r="H210" s="20"/>
-      <c r="I210" s="20"/>
-      <c r="J210" s="20"/>
-      <c r="K210" s="20"/>
+      <c r="I210" s="11"/>
+      <c r="J210" s="13"/>
+      <c r="K210" s="10"/>
       <c r="L210" s="20"/>
       <c r="N210" s="20"/>
       <c r="O210" s="20"/>
       <c r="P210" s="20"/>
     </row>
-    <row r="211" spans="1:16">
+    <row r="211" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A211" s="7"/>
       <c r="B211" s="23"/>
-      <c r="C211" s="20"/>
-      <c r="D211" s="20"/>
-      <c r="E211" s="20"/>
-      <c r="F211" s="20"/>
+      <c r="C211" s="21"/>
+      <c r="D211" s="21"/>
+      <c r="E211" s="21"/>
+      <c r="F211" s="21"/>
       <c r="G211" s="20"/>
       <c r="H211" s="20"/>
-      <c r="I211" s="20"/>
+      <c r="I211" s="11"/>
       <c r="J211" s="20"/>
       <c r="K211" s="20"/>
-      <c r="L211" s="21"/>
+      <c r="L211" s="20"/>
       <c r="N211" s="20"/>
       <c r="O211" s="20"/>
       <c r="P211" s="20"/>
     </row>
-    <row r="212" spans="1:16">
+    <row r="212" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A212" s="7"/>
       <c r="B212" s="23"/>
-      <c r="C212" s="20"/>
-      <c r="D212" s="20"/>
-      <c r="E212" s="20"/>
-      <c r="F212" s="20"/>
+      <c r="C212" s="21"/>
+      <c r="D212" s="21"/>
+      <c r="E212" s="21"/>
+      <c r="F212" s="21"/>
       <c r="G212" s="20"/>
       <c r="H212" s="20"/>
-      <c r="I212" s="20"/>
+      <c r="I212" s="11"/>
       <c r="J212" s="20"/>
       <c r="K212" s="20"/>
-      <c r="L212" s="21"/>
+      <c r="L212" s="20"/>
       <c r="N212" s="20"/>
       <c r="O212" s="20"/>
       <c r="P212" s="20"/>
     </row>
-    <row r="213" spans="1:16">
+    <row r="213" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A213" s="7"/>
       <c r="B213" s="23"/>
       <c r="C213" s="20"/>
@@ -6639,15 +6833,15 @@
       <c r="F213" s="20"/>
       <c r="G213" s="20"/>
       <c r="H213" s="20"/>
-      <c r="I213" s="20"/>
-      <c r="J213" s="20"/>
-      <c r="K213" s="20"/>
-      <c r="L213" s="21"/>
+      <c r="I213" s="11"/>
+      <c r="J213" s="13"/>
+      <c r="K213" s="10"/>
+      <c r="L213" s="20"/>
       <c r="N213" s="20"/>
       <c r="O213" s="20"/>
       <c r="P213" s="20"/>
     </row>
-    <row r="214" spans="1:16">
+    <row r="214" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A214" s="7"/>
       <c r="B214" s="23"/>
       <c r="C214" s="20"/>
@@ -6664,24 +6858,24 @@
       <c r="O214" s="20"/>
       <c r="P214" s="20"/>
     </row>
-    <row r="215" spans="1:16">
+    <row r="215" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A215" s="7"/>
       <c r="B215" s="23"/>
       <c r="C215" s="20"/>
       <c r="D215" s="20"/>
       <c r="E215" s="20"/>
       <c r="F215" s="20"/>
-      <c r="G215" s="21"/>
-      <c r="H215" s="21"/>
-      <c r="I215" s="21"/>
-      <c r="J215" s="20"/>
-      <c r="K215" s="21"/>
+      <c r="G215" s="20"/>
+      <c r="H215" s="20"/>
+      <c r="I215" s="11"/>
+      <c r="J215" s="10"/>
+      <c r="K215" s="20"/>
       <c r="L215" s="20"/>
       <c r="N215" s="20"/>
       <c r="O215" s="20"/>
       <c r="P215" s="20"/>
     </row>
-    <row r="216" spans="1:16">
+    <row r="216" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A216" s="7"/>
       <c r="B216" s="23"/>
       <c r="C216" s="20"/>
@@ -6693,336 +6887,336 @@
       <c r="I216" s="20"/>
       <c r="J216" s="20"/>
       <c r="K216" s="20"/>
-      <c r="L216" s="20"/>
+      <c r="L216" s="21"/>
       <c r="N216" s="20"/>
       <c r="O216" s="20"/>
       <c r="P216" s="20"/>
     </row>
-    <row r="217" spans="1:16">
+    <row r="217" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A217" s="7"/>
       <c r="B217" s="23"/>
       <c r="C217" s="20"/>
       <c r="D217" s="20"/>
       <c r="E217" s="20"/>
       <c r="F217" s="20"/>
-      <c r="G217" s="21"/>
-      <c r="H217" s="21"/>
-      <c r="I217" s="21"/>
+      <c r="G217" s="20"/>
+      <c r="H217" s="20"/>
+      <c r="I217" s="20"/>
       <c r="J217" s="20"/>
-      <c r="K217" s="21"/>
+      <c r="K217" s="20"/>
       <c r="L217" s="20"/>
       <c r="N217" s="20"/>
       <c r="O217" s="20"/>
       <c r="P217" s="20"/>
     </row>
-    <row r="218" spans="1:16" s="19" customFormat="1">
-      <c r="A218" s="15"/>
-      <c r="B218" s="16"/>
-      <c r="C218" s="17"/>
-      <c r="D218" s="17"/>
-      <c r="E218" s="17"/>
-      <c r="F218" s="17"/>
-      <c r="G218" s="17"/>
-      <c r="H218" s="17"/>
-      <c r="I218" s="17"/>
-      <c r="J218" s="17"/>
-      <c r="K218" s="17"/>
-      <c r="L218" s="18"/>
-      <c r="M218"/>
-      <c r="N218" s="17"/>
-      <c r="O218" s="17"/>
-      <c r="P218" s="17"/>
-    </row>
-    <row r="219" spans="1:16">
+    <row r="218" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="A218" s="7"/>
+      <c r="B218" s="23"/>
+      <c r="C218" s="21"/>
+      <c r="D218" s="21"/>
+      <c r="E218" s="21"/>
+      <c r="F218" s="20"/>
+      <c r="G218" s="20"/>
+      <c r="H218" s="20"/>
+      <c r="I218" s="20"/>
+      <c r="J218" s="20"/>
+      <c r="K218" s="20"/>
+      <c r="L218" s="20"/>
+      <c r="N218" s="20"/>
+      <c r="O218" s="20"/>
+      <c r="P218" s="20"/>
+    </row>
+    <row r="219" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A219" s="7"/>
       <c r="B219" s="23"/>
-      <c r="C219" s="20"/>
-      <c r="D219" s="20"/>
-      <c r="E219" s="20"/>
+      <c r="C219" s="21"/>
+      <c r="D219" s="21"/>
+      <c r="E219" s="21"/>
       <c r="F219" s="20"/>
       <c r="G219" s="20"/>
       <c r="H219" s="20"/>
       <c r="I219" s="20"/>
       <c r="J219" s="20"/>
-      <c r="K219" s="20"/>
+      <c r="K219" s="21"/>
       <c r="L219" s="20"/>
       <c r="N219" s="20"/>
       <c r="O219" s="20"/>
       <c r="P219" s="20"/>
     </row>
-    <row r="220" spans="1:16">
+    <row r="220" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A220" s="22"/>
       <c r="B220" s="23"/>
       <c r="C220" s="20"/>
-      <c r="D220" s="20"/>
+      <c r="D220" s="9"/>
       <c r="E220" s="20"/>
-      <c r="F220" s="21"/>
+      <c r="F220" s="9"/>
       <c r="G220" s="20"/>
       <c r="H220" s="20"/>
-      <c r="I220" s="20"/>
-      <c r="J220" s="20"/>
-      <c r="K220" s="20"/>
+      <c r="I220" s="11"/>
+      <c r="J220" s="11"/>
+      <c r="K220" s="11"/>
       <c r="L220" s="20"/>
       <c r="N220" s="20"/>
       <c r="O220" s="20"/>
       <c r="P220" s="20"/>
     </row>
-    <row r="221" spans="1:16">
-      <c r="A221" s="7"/>
+    <row r="221" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="A221" s="22"/>
       <c r="B221" s="23"/>
       <c r="C221" s="20"/>
-      <c r="D221" s="20"/>
+      <c r="D221" s="9"/>
       <c r="E221" s="20"/>
-      <c r="F221" s="20"/>
+      <c r="F221" s="9"/>
       <c r="G221" s="20"/>
       <c r="H221" s="20"/>
       <c r="I221" s="11"/>
-      <c r="J221" s="13"/>
-      <c r="K221" s="10"/>
+      <c r="J221" s="20"/>
+      <c r="K221" s="20"/>
       <c r="L221" s="20"/>
       <c r="N221" s="20"/>
       <c r="O221" s="20"/>
       <c r="P221" s="20"/>
     </row>
-    <row r="222" spans="1:16">
-      <c r="A222" s="3"/>
-      <c r="B222" s="4"/>
-      <c r="C222" s="2"/>
-      <c r="D222" s="9"/>
-      <c r="E222" s="2"/>
-      <c r="F222" s="9"/>
-      <c r="G222" s="2"/>
-      <c r="H222" s="2"/>
-      <c r="I222" s="11"/>
-      <c r="J222" s="2"/>
-      <c r="K222" s="2"/>
-      <c r="L222" s="2"/>
-      <c r="N222" s="2"/>
-      <c r="O222" s="2"/>
-      <c r="P222" s="2"/>
-    </row>
-    <row r="223" spans="1:16">
-      <c r="A223" s="3"/>
-      <c r="B223" s="4"/>
-      <c r="C223" s="5"/>
-      <c r="D223" s="5"/>
-      <c r="E223" s="5"/>
-      <c r="F223" s="5"/>
-      <c r="G223" s="5"/>
-      <c r="H223" s="2"/>
-      <c r="I223" s="5"/>
-      <c r="J223" s="5"/>
-      <c r="K223" s="5"/>
-      <c r="L223" s="5"/>
-      <c r="N223" s="2"/>
-      <c r="O223" s="2"/>
-      <c r="P223" s="2"/>
-    </row>
-    <row r="224" spans="1:16">
+    <row r="222" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="A222" s="22"/>
+      <c r="B222" s="23"/>
+      <c r="C222" s="21"/>
+      <c r="D222" s="21"/>
+      <c r="E222" s="21"/>
+      <c r="F222" s="21"/>
+      <c r="G222" s="21"/>
+      <c r="H222" s="20"/>
+      <c r="I222" s="21"/>
+      <c r="J222" s="21"/>
+      <c r="K222" s="21"/>
+      <c r="L222" s="21"/>
+      <c r="N222" s="20"/>
+      <c r="O222" s="20"/>
+      <c r="P222" s="20"/>
+    </row>
+    <row r="223" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="A223" s="7"/>
+      <c r="B223" s="23"/>
+      <c r="C223" s="20"/>
+      <c r="D223" s="20"/>
+      <c r="E223" s="20"/>
+      <c r="F223" s="20"/>
+      <c r="G223" s="20"/>
+      <c r="H223" s="20"/>
+      <c r="I223" s="20"/>
+      <c r="J223" s="20"/>
+      <c r="K223" s="20"/>
+      <c r="L223" s="20"/>
+      <c r="N223" s="20"/>
+      <c r="O223" s="20"/>
+      <c r="P223" s="20"/>
+    </row>
+    <row r="224" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A224" s="7"/>
-      <c r="B224" s="4"/>
-      <c r="C224" s="2"/>
-      <c r="D224" s="2"/>
-      <c r="E224" s="2"/>
-      <c r="F224" s="2"/>
-      <c r="G224" s="2"/>
-      <c r="H224" s="2"/>
-      <c r="I224" s="2"/>
-      <c r="J224" s="2"/>
-      <c r="K224" s="2"/>
-      <c r="L224" s="2"/>
-      <c r="N224" s="2"/>
-      <c r="O224" s="2"/>
-      <c r="P224" s="2"/>
-    </row>
-    <row r="225" spans="1:16">
+      <c r="B224" s="23"/>
+      <c r="C224" s="20"/>
+      <c r="D224" s="20"/>
+      <c r="E224" s="20"/>
+      <c r="F224" s="20"/>
+      <c r="G224" s="20"/>
+      <c r="H224" s="20"/>
+      <c r="I224" s="20"/>
+      <c r="J224" s="20"/>
+      <c r="K224" s="20"/>
+      <c r="L224" s="21"/>
+      <c r="N224" s="20"/>
+      <c r="O224" s="20"/>
+      <c r="P224" s="20"/>
+    </row>
+    <row r="225" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A225" s="7"/>
-      <c r="B225" s="4"/>
-      <c r="C225" s="2"/>
-      <c r="D225" s="2"/>
-      <c r="E225" s="2"/>
-      <c r="F225" s="2"/>
-      <c r="G225" s="2"/>
-      <c r="H225" s="2"/>
-      <c r="I225" s="2"/>
-      <c r="J225" s="2"/>
-      <c r="K225" s="2"/>
-      <c r="L225" s="5"/>
-      <c r="N225" s="2"/>
-      <c r="O225" s="2"/>
-      <c r="P225" s="2"/>
-    </row>
-    <row r="226" spans="1:16">
+      <c r="B225" s="23"/>
+      <c r="C225" s="20"/>
+      <c r="D225" s="20"/>
+      <c r="E225" s="20"/>
+      <c r="F225" s="20"/>
+      <c r="G225" s="20"/>
+      <c r="H225" s="20"/>
+      <c r="I225" s="20"/>
+      <c r="J225" s="20"/>
+      <c r="K225" s="20"/>
+      <c r="L225" s="21"/>
+      <c r="N225" s="20"/>
+      <c r="O225" s="20"/>
+      <c r="P225" s="20"/>
+    </row>
+    <row r="226" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A226" s="7"/>
-      <c r="B226" s="4"/>
-      <c r="C226" s="2"/>
-      <c r="D226" s="2"/>
-      <c r="E226" s="2"/>
-      <c r="F226" s="2"/>
-      <c r="G226" s="2"/>
-      <c r="H226" s="2"/>
-      <c r="I226" s="2"/>
-      <c r="J226" s="2"/>
-      <c r="K226" s="2"/>
-      <c r="L226" s="5"/>
-      <c r="N226" s="2"/>
-      <c r="O226" s="2"/>
-      <c r="P226" s="2"/>
-    </row>
-    <row r="227" spans="1:16">
+      <c r="B226" s="23"/>
+      <c r="C226" s="20"/>
+      <c r="D226" s="20"/>
+      <c r="E226" s="20"/>
+      <c r="F226" s="20"/>
+      <c r="G226" s="20"/>
+      <c r="H226" s="20"/>
+      <c r="I226" s="20"/>
+      <c r="J226" s="20"/>
+      <c r="K226" s="20"/>
+      <c r="L226" s="21"/>
+      <c r="N226" s="20"/>
+      <c r="O226" s="20"/>
+      <c r="P226" s="20"/>
+    </row>
+    <row r="227" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A227" s="7"/>
-      <c r="B227" s="4"/>
-      <c r="C227" s="2"/>
-      <c r="D227" s="2"/>
-      <c r="E227" s="2"/>
-      <c r="F227" s="2"/>
-      <c r="G227" s="2"/>
-      <c r="H227" s="2"/>
-      <c r="I227" s="2"/>
-      <c r="J227" s="2"/>
-      <c r="K227" s="2"/>
-      <c r="L227" s="5"/>
-      <c r="N227" s="2"/>
-      <c r="O227" s="2"/>
-      <c r="P227" s="2"/>
-    </row>
-    <row r="228" spans="1:16">
+      <c r="B227" s="23"/>
+      <c r="C227" s="20"/>
+      <c r="D227" s="20"/>
+      <c r="E227" s="20"/>
+      <c r="F227" s="20"/>
+      <c r="G227" s="20"/>
+      <c r="H227" s="20"/>
+      <c r="I227" s="20"/>
+      <c r="J227" s="20"/>
+      <c r="K227" s="20"/>
+      <c r="L227" s="20"/>
+      <c r="N227" s="20"/>
+      <c r="O227" s="20"/>
+      <c r="P227" s="20"/>
+    </row>
+    <row r="228" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A228" s="7"/>
-      <c r="B228" s="4"/>
-      <c r="C228" s="2"/>
-      <c r="D228" s="2"/>
-      <c r="E228" s="2"/>
-      <c r="F228" s="2"/>
-      <c r="G228" s="2"/>
-      <c r="H228" s="2"/>
-      <c r="I228" s="2"/>
-      <c r="J228" s="2"/>
-      <c r="K228" s="2"/>
-      <c r="L228" s="2"/>
-      <c r="N228" s="2"/>
-      <c r="O228" s="2"/>
-      <c r="P228" s="2"/>
-    </row>
-    <row r="229" spans="1:16">
+      <c r="B228" s="23"/>
+      <c r="C228" s="20"/>
+      <c r="D228" s="20"/>
+      <c r="E228" s="20"/>
+      <c r="F228" s="20"/>
+      <c r="G228" s="21"/>
+      <c r="H228" s="21"/>
+      <c r="I228" s="21"/>
+      <c r="J228" s="20"/>
+      <c r="K228" s="21"/>
+      <c r="L228" s="20"/>
+      <c r="N228" s="20"/>
+      <c r="O228" s="20"/>
+      <c r="P228" s="20"/>
+    </row>
+    <row r="229" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A229" s="7"/>
-      <c r="B229" s="4"/>
-      <c r="C229" s="2"/>
-      <c r="D229" s="2"/>
-      <c r="E229" s="2"/>
-      <c r="F229" s="2"/>
-      <c r="G229" s="5"/>
-      <c r="H229" s="5"/>
-      <c r="I229" s="5"/>
-      <c r="J229" s="2"/>
-      <c r="K229" s="5"/>
-      <c r="L229" s="2"/>
-      <c r="N229" s="2"/>
-      <c r="O229" s="2"/>
-      <c r="P229" s="2"/>
-    </row>
-    <row r="230" spans="1:16">
+      <c r="B229" s="23"/>
+      <c r="C229" s="20"/>
+      <c r="D229" s="20"/>
+      <c r="E229" s="20"/>
+      <c r="F229" s="20"/>
+      <c r="G229" s="20"/>
+      <c r="H229" s="20"/>
+      <c r="I229" s="20"/>
+      <c r="J229" s="20"/>
+      <c r="K229" s="20"/>
+      <c r="L229" s="20"/>
+      <c r="N229" s="20"/>
+      <c r="O229" s="20"/>
+      <c r="P229" s="20"/>
+    </row>
+    <row r="230" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A230" s="7"/>
-      <c r="B230" s="4"/>
-      <c r="C230" s="2"/>
-      <c r="D230" s="2"/>
-      <c r="E230" s="2"/>
-      <c r="F230" s="2"/>
-      <c r="G230" s="2"/>
-      <c r="H230" s="2"/>
-      <c r="I230" s="2"/>
-      <c r="J230" s="2"/>
-      <c r="K230" s="2"/>
-      <c r="L230" s="2"/>
-      <c r="N230" s="2"/>
-      <c r="O230" s="2"/>
-      <c r="P230" s="2"/>
-    </row>
-    <row r="231" spans="1:16">
-      <c r="A231" s="7"/>
-      <c r="B231" s="4"/>
-      <c r="C231" s="2"/>
-      <c r="D231" s="2"/>
-      <c r="E231" s="2"/>
-      <c r="F231" s="2"/>
-      <c r="G231" s="5"/>
-      <c r="H231" s="5"/>
-      <c r="I231" s="5"/>
-      <c r="J231" s="2"/>
-      <c r="K231" s="5"/>
-      <c r="L231" s="2"/>
-      <c r="N231" s="2"/>
-      <c r="O231" s="2"/>
-      <c r="P231" s="2"/>
-    </row>
-    <row r="232" spans="1:16">
+      <c r="B230" s="23"/>
+      <c r="C230" s="20"/>
+      <c r="D230" s="20"/>
+      <c r="E230" s="20"/>
+      <c r="F230" s="20"/>
+      <c r="G230" s="21"/>
+      <c r="H230" s="21"/>
+      <c r="I230" s="21"/>
+      <c r="J230" s="20"/>
+      <c r="K230" s="21"/>
+      <c r="L230" s="20"/>
+      <c r="N230" s="20"/>
+      <c r="O230" s="20"/>
+      <c r="P230" s="20"/>
+    </row>
+    <row r="231" spans="1:16" s="19" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A231" s="15"/>
+      <c r="B231" s="16"/>
+      <c r="C231" s="17"/>
+      <c r="D231" s="17"/>
+      <c r="E231" s="17"/>
+      <c r="F231" s="17"/>
+      <c r="G231" s="17"/>
+      <c r="H231" s="17"/>
+      <c r="I231" s="17"/>
+      <c r="J231" s="17"/>
+      <c r="K231" s="17"/>
+      <c r="L231" s="18"/>
+      <c r="M231"/>
+      <c r="N231" s="17"/>
+      <c r="O231" s="17"/>
+      <c r="P231" s="17"/>
+    </row>
+    <row r="232" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A232" s="7"/>
-      <c r="B232" s="4"/>
-      <c r="C232" s="5"/>
-      <c r="D232" s="5"/>
-      <c r="E232" s="5"/>
-      <c r="F232" s="2"/>
-      <c r="G232" s="2"/>
-      <c r="H232" s="2"/>
-      <c r="I232" s="2"/>
-      <c r="J232" s="2"/>
-      <c r="K232" s="2"/>
-      <c r="L232" s="1"/>
-      <c r="N232" s="2"/>
-      <c r="O232" s="2"/>
-      <c r="P232" s="2"/>
-    </row>
-    <row r="233" spans="1:16">
-      <c r="A233" s="7"/>
-      <c r="B233" s="4"/>
-      <c r="C233" s="2"/>
-      <c r="D233" s="2"/>
-      <c r="E233" s="2"/>
-      <c r="F233" s="2"/>
-      <c r="G233" s="2"/>
-      <c r="H233" s="2"/>
-      <c r="I233" s="2"/>
-      <c r="J233" s="2"/>
-      <c r="K233" s="2"/>
-      <c r="L233" s="2"/>
-      <c r="N233" s="2"/>
-      <c r="O233" s="2"/>
-      <c r="P233" s="2"/>
-    </row>
-    <row r="234" spans="1:16">
-      <c r="A234" s="3"/>
-      <c r="B234" s="4"/>
-      <c r="C234" s="2"/>
-      <c r="D234" s="2"/>
-      <c r="E234" s="2"/>
-      <c r="F234" s="5"/>
-      <c r="G234" s="2"/>
-      <c r="H234" s="2"/>
-      <c r="I234" s="2"/>
-      <c r="J234" s="2"/>
-      <c r="K234" s="2"/>
-      <c r="L234" s="2"/>
-      <c r="N234" s="2"/>
-      <c r="O234" s="2"/>
-      <c r="P234" s="2"/>
-    </row>
-    <row r="235" spans="1:16">
+      <c r="B232" s="23"/>
+      <c r="C232" s="20"/>
+      <c r="D232" s="20"/>
+      <c r="E232" s="20"/>
+      <c r="F232" s="20"/>
+      <c r="G232" s="20"/>
+      <c r="H232" s="20"/>
+      <c r="I232" s="20"/>
+      <c r="J232" s="20"/>
+      <c r="K232" s="20"/>
+      <c r="L232" s="20"/>
+      <c r="N232" s="20"/>
+      <c r="O232" s="20"/>
+      <c r="P232" s="20"/>
+    </row>
+    <row r="233" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="A233" s="22"/>
+      <c r="B233" s="23"/>
+      <c r="C233" s="20"/>
+      <c r="D233" s="20"/>
+      <c r="E233" s="20"/>
+      <c r="F233" s="21"/>
+      <c r="G233" s="20"/>
+      <c r="H233" s="20"/>
+      <c r="I233" s="20"/>
+      <c r="J233" s="20"/>
+      <c r="K233" s="20"/>
+      <c r="L233" s="20"/>
+      <c r="N233" s="20"/>
+      <c r="O233" s="20"/>
+      <c r="P233" s="20"/>
+    </row>
+    <row r="234" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="A234" s="7"/>
+      <c r="B234" s="23"/>
+      <c r="C234" s="20"/>
+      <c r="D234" s="20"/>
+      <c r="E234" s="20"/>
+      <c r="F234" s="20"/>
+      <c r="G234" s="20"/>
+      <c r="H234" s="20"/>
+      <c r="I234" s="11"/>
+      <c r="J234" s="13"/>
+      <c r="K234" s="10"/>
+      <c r="L234" s="20"/>
+      <c r="N234" s="20"/>
+      <c r="O234" s="20"/>
+      <c r="P234" s="20"/>
+    </row>
+    <row r="235" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A235" s="3"/>
       <c r="B235" s="4"/>
-      <c r="C235" s="5"/>
-      <c r="D235" s="5"/>
-      <c r="E235" s="5"/>
-      <c r="F235" s="5"/>
-      <c r="G235" s="5"/>
-      <c r="H235" s="5"/>
-      <c r="I235" s="5"/>
-      <c r="J235" s="13"/>
-      <c r="K235" s="5"/>
-      <c r="L235" s="5"/>
+      <c r="C235" s="2"/>
+      <c r="D235" s="9"/>
+      <c r="E235" s="2"/>
+      <c r="F235" s="9"/>
+      <c r="G235" s="2"/>
+      <c r="H235" s="2"/>
+      <c r="I235" s="11"/>
+      <c r="J235" s="2"/>
+      <c r="K235" s="2"/>
+      <c r="L235" s="2"/>
       <c r="N235" s="2"/>
       <c r="O235" s="2"/>
       <c r="P235" s="2"/>
     </row>
-    <row r="236" spans="1:16">
+    <row r="236" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A236" s="3"/>
       <c r="B236" s="4"/>
       <c r="C236" s="5"/>
@@ -7030,42 +7224,42 @@
       <c r="E236" s="5"/>
       <c r="F236" s="5"/>
       <c r="G236" s="5"/>
-      <c r="H236" s="5"/>
+      <c r="H236" s="2"/>
       <c r="I236" s="5"/>
-      <c r="J236" s="6"/>
+      <c r="J236" s="5"/>
       <c r="K236" s="5"/>
       <c r="L236" s="5"/>
       <c r="N236" s="2"/>
       <c r="O236" s="2"/>
       <c r="P236" s="2"/>
     </row>
-    <row r="237" spans="1:16">
-      <c r="A237" s="3"/>
+    <row r="237" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="A237" s="7"/>
       <c r="B237" s="4"/>
       <c r="C237" s="2"/>
-      <c r="D237" s="8"/>
+      <c r="D237" s="2"/>
       <c r="E237" s="2"/>
-      <c r="F237" s="9"/>
+      <c r="F237" s="2"/>
       <c r="G237" s="2"/>
       <c r="H237" s="2"/>
-      <c r="I237" s="11"/>
-      <c r="J237" s="13"/>
-      <c r="K237" s="10"/>
+      <c r="I237" s="2"/>
+      <c r="J237" s="2"/>
+      <c r="K237" s="2"/>
       <c r="L237" s="2"/>
       <c r="N237" s="2"/>
       <c r="O237" s="2"/>
       <c r="P237" s="2"/>
     </row>
-    <row r="238" spans="1:16">
-      <c r="A238" s="3"/>
+    <row r="238" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="A238" s="7"/>
       <c r="B238" s="4"/>
-      <c r="C238" s="5"/>
-      <c r="D238" s="5"/>
-      <c r="E238" s="5"/>
-      <c r="F238" s="5"/>
-      <c r="G238" s="5"/>
+      <c r="C238" s="2"/>
+      <c r="D238" s="2"/>
+      <c r="E238" s="2"/>
+      <c r="F238" s="2"/>
+      <c r="G238" s="2"/>
       <c r="H238" s="2"/>
-      <c r="I238" s="5"/>
+      <c r="I238" s="2"/>
       <c r="J238" s="2"/>
       <c r="K238" s="2"/>
       <c r="L238" s="5"/>
@@ -7073,7 +7267,7 @@
       <c r="O238" s="2"/>
       <c r="P238" s="2"/>
     </row>
-    <row r="239" spans="1:16">
+    <row r="239" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A239" s="7"/>
       <c r="B239" s="4"/>
       <c r="C239" s="2"/>
@@ -7085,12 +7279,12 @@
       <c r="I239" s="2"/>
       <c r="J239" s="2"/>
       <c r="K239" s="2"/>
-      <c r="L239" s="2"/>
+      <c r="L239" s="5"/>
       <c r="N239" s="2"/>
       <c r="O239" s="2"/>
       <c r="P239" s="2"/>
     </row>
-    <row r="240" spans="1:16">
+    <row r="240" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A240" s="7"/>
       <c r="B240" s="4"/>
       <c r="C240" s="2"/>
@@ -7102,12 +7296,12 @@
       <c r="I240" s="2"/>
       <c r="J240" s="2"/>
       <c r="K240" s="2"/>
-      <c r="L240" s="2"/>
+      <c r="L240" s="5"/>
       <c r="N240" s="2"/>
       <c r="O240" s="2"/>
       <c r="P240" s="2"/>
     </row>
-    <row r="241" spans="1:16">
+    <row r="241" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A241" s="7"/>
       <c r="B241" s="4"/>
       <c r="C241" s="2"/>
@@ -7124,16 +7318,16 @@
       <c r="O241" s="2"/>
       <c r="P241" s="2"/>
     </row>
-    <row r="242" spans="1:16">
+    <row r="242" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A242" s="7"/>
       <c r="B242" s="4"/>
       <c r="C242" s="2"/>
       <c r="D242" s="2"/>
       <c r="E242" s="2"/>
       <c r="F242" s="2"/>
-      <c r="G242" s="2"/>
-      <c r="H242" s="2"/>
-      <c r="I242" s="2"/>
+      <c r="G242" s="5"/>
+      <c r="H242" s="5"/>
+      <c r="I242" s="5"/>
       <c r="J242" s="2"/>
       <c r="K242" s="5"/>
       <c r="L242" s="2"/>
@@ -7141,7 +7335,7 @@
       <c r="O242" s="2"/>
       <c r="P242" s="2"/>
     </row>
-    <row r="243" spans="1:16">
+    <row r="243" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A243" s="7"/>
       <c r="B243" s="4"/>
       <c r="C243" s="2"/>
@@ -7152,79 +7346,301 @@
       <c r="H243" s="2"/>
       <c r="I243" s="2"/>
       <c r="J243" s="2"/>
-      <c r="K243" s="5"/>
+      <c r="K243" s="2"/>
       <c r="L243" s="2"/>
       <c r="N243" s="2"/>
       <c r="O243" s="2"/>
       <c r="P243" s="2"/>
     </row>
-    <row r="244" spans="1:16">
-      <c r="A244" s="3"/>
+    <row r="244" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="A244" s="7"/>
       <c r="B244" s="4"/>
-      <c r="C244" s="5"/>
-      <c r="D244" s="5"/>
-      <c r="E244" s="5"/>
-      <c r="F244" s="5"/>
+      <c r="C244" s="2"/>
+      <c r="D244" s="2"/>
+      <c r="E244" s="2"/>
+      <c r="F244" s="2"/>
       <c r="G244" s="5"/>
-      <c r="H244" s="2"/>
+      <c r="H244" s="5"/>
       <c r="I244" s="5"/>
-      <c r="J244" s="5"/>
+      <c r="J244" s="2"/>
       <c r="K244" s="5"/>
-      <c r="L244" s="5"/>
+      <c r="L244" s="2"/>
       <c r="N244" s="2"/>
       <c r="O244" s="2"/>
       <c r="P244" s="2"/>
     </row>
-    <row r="245" spans="1:16">
-      <c r="A245" s="3"/>
+    <row r="245" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="A245" s="7"/>
       <c r="B245" s="4"/>
       <c r="C245" s="5"/>
       <c r="D245" s="5"/>
       <c r="E245" s="5"/>
-      <c r="F245" s="5"/>
-      <c r="G245" s="5"/>
-      <c r="H245" s="5"/>
-      <c r="I245" s="5"/>
-      <c r="J245" s="5"/>
-      <c r="K245" s="5"/>
-      <c r="L245" s="5"/>
+      <c r="F245" s="2"/>
+      <c r="G245" s="2"/>
+      <c r="H245" s="2"/>
+      <c r="I245" s="2"/>
+      <c r="J245" s="2"/>
+      <c r="K245" s="2"/>
+      <c r="L245" s="1"/>
       <c r="N245" s="2"/>
       <c r="O245" s="2"/>
       <c r="P245" s="2"/>
     </row>
-    <row r="246" spans="1:16">
-      <c r="A246" s="3"/>
+    <row r="246" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="A246" s="7"/>
       <c r="B246" s="4"/>
-      <c r="C246" s="5"/>
-      <c r="D246" s="5"/>
-      <c r="E246" s="5"/>
-      <c r="F246" s="5"/>
-      <c r="G246" s="5"/>
-      <c r="H246" s="5"/>
-      <c r="I246" s="5"/>
-      <c r="J246" s="5"/>
-      <c r="K246" s="5"/>
+      <c r="C246" s="2"/>
+      <c r="D246" s="2"/>
+      <c r="E246" s="2"/>
+      <c r="F246" s="2"/>
+      <c r="G246" s="2"/>
+      <c r="H246" s="2"/>
+      <c r="I246" s="2"/>
+      <c r="J246" s="2"/>
+      <c r="K246" s="2"/>
       <c r="L246" s="2"/>
       <c r="N246" s="2"/>
       <c r="O246" s="2"/>
       <c r="P246" s="2"/>
     </row>
+    <row r="247" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="A247" s="3"/>
+      <c r="B247" s="4"/>
+      <c r="C247" s="2"/>
+      <c r="D247" s="2"/>
+      <c r="E247" s="2"/>
+      <c r="F247" s="5"/>
+      <c r="G247" s="2"/>
+      <c r="H247" s="2"/>
+      <c r="I247" s="2"/>
+      <c r="J247" s="2"/>
+      <c r="K247" s="2"/>
+      <c r="L247" s="2"/>
+      <c r="N247" s="2"/>
+      <c r="O247" s="2"/>
+      <c r="P247" s="2"/>
+    </row>
+    <row r="248" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="A248" s="3"/>
+      <c r="B248" s="4"/>
+      <c r="C248" s="5"/>
+      <c r="D248" s="5"/>
+      <c r="E248" s="5"/>
+      <c r="F248" s="5"/>
+      <c r="G248" s="5"/>
+      <c r="H248" s="5"/>
+      <c r="I248" s="5"/>
+      <c r="J248" s="13"/>
+      <c r="K248" s="5"/>
+      <c r="L248" s="5"/>
+      <c r="N248" s="2"/>
+      <c r="O248" s="2"/>
+      <c r="P248" s="2"/>
+    </row>
+    <row r="249" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="A249" s="3"/>
+      <c r="B249" s="4"/>
+      <c r="C249" s="5"/>
+      <c r="D249" s="5"/>
+      <c r="E249" s="5"/>
+      <c r="F249" s="5"/>
+      <c r="G249" s="5"/>
+      <c r="H249" s="5"/>
+      <c r="I249" s="5"/>
+      <c r="J249" s="6"/>
+      <c r="K249" s="5"/>
+      <c r="L249" s="5"/>
+      <c r="N249" s="2"/>
+      <c r="O249" s="2"/>
+      <c r="P249" s="2"/>
+    </row>
+    <row r="250" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="A250" s="3"/>
+      <c r="B250" s="4"/>
+      <c r="C250" s="2"/>
+      <c r="D250" s="8"/>
+      <c r="E250" s="2"/>
+      <c r="F250" s="9"/>
+      <c r="G250" s="2"/>
+      <c r="H250" s="2"/>
+      <c r="I250" s="11"/>
+      <c r="J250" s="13"/>
+      <c r="K250" s="10"/>
+      <c r="L250" s="2"/>
+      <c r="N250" s="2"/>
+      <c r="O250" s="2"/>
+      <c r="P250" s="2"/>
+    </row>
+    <row r="251" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="A251" s="3"/>
+      <c r="B251" s="4"/>
+      <c r="C251" s="5"/>
+      <c r="D251" s="5"/>
+      <c r="E251" s="5"/>
+      <c r="F251" s="5"/>
+      <c r="G251" s="5"/>
+      <c r="H251" s="2"/>
+      <c r="I251" s="5"/>
+      <c r="J251" s="2"/>
+      <c r="K251" s="2"/>
+      <c r="L251" s="5"/>
+      <c r="N251" s="2"/>
+      <c r="O251" s="2"/>
+      <c r="P251" s="2"/>
+    </row>
+    <row r="252" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="A252" s="7"/>
+      <c r="B252" s="4"/>
+      <c r="C252" s="2"/>
+      <c r="D252" s="2"/>
+      <c r="E252" s="2"/>
+      <c r="F252" s="2"/>
+      <c r="G252" s="2"/>
+      <c r="H252" s="2"/>
+      <c r="I252" s="2"/>
+      <c r="J252" s="2"/>
+      <c r="K252" s="2"/>
+      <c r="L252" s="2"/>
+      <c r="N252" s="2"/>
+      <c r="O252" s="2"/>
+      <c r="P252" s="2"/>
+    </row>
+    <row r="253" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="A253" s="7"/>
+      <c r="B253" s="4"/>
+      <c r="C253" s="2"/>
+      <c r="D253" s="2"/>
+      <c r="E253" s="2"/>
+      <c r="F253" s="2"/>
+      <c r="G253" s="2"/>
+      <c r="H253" s="2"/>
+      <c r="I253" s="2"/>
+      <c r="J253" s="2"/>
+      <c r="K253" s="2"/>
+      <c r="L253" s="2"/>
+      <c r="N253" s="2"/>
+      <c r="O253" s="2"/>
+      <c r="P253" s="2"/>
+    </row>
+    <row r="254" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="A254" s="7"/>
+      <c r="B254" s="4"/>
+      <c r="C254" s="2"/>
+      <c r="D254" s="2"/>
+      <c r="E254" s="2"/>
+      <c r="F254" s="2"/>
+      <c r="G254" s="2"/>
+      <c r="H254" s="2"/>
+      <c r="I254" s="2"/>
+      <c r="J254" s="2"/>
+      <c r="K254" s="2"/>
+      <c r="L254" s="2"/>
+      <c r="N254" s="2"/>
+      <c r="O254" s="2"/>
+      <c r="P254" s="2"/>
+    </row>
+    <row r="255" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="A255" s="7"/>
+      <c r="B255" s="4"/>
+      <c r="C255" s="2"/>
+      <c r="D255" s="2"/>
+      <c r="E255" s="2"/>
+      <c r="F255" s="2"/>
+      <c r="G255" s="2"/>
+      <c r="H255" s="2"/>
+      <c r="I255" s="2"/>
+      <c r="J255" s="2"/>
+      <c r="K255" s="5"/>
+      <c r="L255" s="2"/>
+      <c r="N255" s="2"/>
+      <c r="O255" s="2"/>
+      <c r="P255" s="2"/>
+    </row>
+    <row r="256" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="A256" s="7"/>
+      <c r="B256" s="4"/>
+      <c r="C256" s="2"/>
+      <c r="D256" s="2"/>
+      <c r="E256" s="2"/>
+      <c r="F256" s="2"/>
+      <c r="G256" s="2"/>
+      <c r="H256" s="2"/>
+      <c r="I256" s="2"/>
+      <c r="J256" s="2"/>
+      <c r="K256" s="5"/>
+      <c r="L256" s="2"/>
+      <c r="N256" s="2"/>
+      <c r="O256" s="2"/>
+      <c r="P256" s="2"/>
+    </row>
+    <row r="257" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="A257" s="3"/>
+      <c r="B257" s="4"/>
+      <c r="C257" s="5"/>
+      <c r="D257" s="5"/>
+      <c r="E257" s="5"/>
+      <c r="F257" s="5"/>
+      <c r="G257" s="5"/>
+      <c r="H257" s="2"/>
+      <c r="I257" s="5"/>
+      <c r="J257" s="5"/>
+      <c r="K257" s="5"/>
+      <c r="L257" s="5"/>
+      <c r="N257" s="2"/>
+      <c r="O257" s="2"/>
+      <c r="P257" s="2"/>
+    </row>
+    <row r="258" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="A258" s="3"/>
+      <c r="B258" s="4"/>
+      <c r="C258" s="5"/>
+      <c r="D258" s="5"/>
+      <c r="E258" s="5"/>
+      <c r="F258" s="5"/>
+      <c r="G258" s="5"/>
+      <c r="H258" s="5"/>
+      <c r="I258" s="5"/>
+      <c r="J258" s="5"/>
+      <c r="K258" s="5"/>
+      <c r="L258" s="5"/>
+      <c r="N258" s="2"/>
+      <c r="O258" s="2"/>
+      <c r="P258" s="2"/>
+    </row>
+    <row r="259" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="A259" s="3"/>
+      <c r="B259" s="4"/>
+      <c r="C259" s="5"/>
+      <c r="D259" s="5"/>
+      <c r="E259" s="5"/>
+      <c r="F259" s="5"/>
+      <c r="G259" s="5"/>
+      <c r="H259" s="5"/>
+      <c r="I259" s="5"/>
+      <c r="J259" s="5"/>
+      <c r="K259" s="5"/>
+      <c r="L259" s="2"/>
+      <c r="N259" s="2"/>
+      <c r="O259" s="2"/>
+      <c r="P259" s="2"/>
+    </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="B100" r:id="rId1" display="https://www.hlidacstatu.cz/Detail/11925676" xr:uid="{00000000-0004-0000-0000-000000000000}"/>
-    <hyperlink ref="B101" r:id="rId2" display="https://www.hlidacstatu.cz/Detail/12148204" xr:uid="{00000000-0004-0000-0000-000001000000}"/>
-    <hyperlink ref="B102" r:id="rId3" display="https://www.hlidacstatu.cz/Detail/12148476" xr:uid="{00000000-0004-0000-0000-000002000000}"/>
-    <hyperlink ref="B116" r:id="rId4" display="https://www.hlidacstatu.cz/Detail/12036848" xr:uid="{00000000-0004-0000-0000-000003000000}"/>
-    <hyperlink ref="B117" r:id="rId5" display="https://www.hlidacstatu.cz/Detail/12103908" xr:uid="{00000000-0004-0000-0000-000004000000}"/>
-    <hyperlink ref="B119" r:id="rId6" display="https://www.hlidacstatu.cz/Detail/12008760" xr:uid="{00000000-0004-0000-0000-000005000000}"/>
-    <hyperlink ref="B120" r:id="rId7" display="https://www.hlidacstatu.cz/Detail/12030004" xr:uid="{00000000-0004-0000-0000-000006000000}"/>
-    <hyperlink ref="B121" r:id="rId8" display="https://www.hlidacstatu.cz/Detail/12085708" xr:uid="{00000000-0004-0000-0000-000007000000}"/>
-    <hyperlink ref="B122" r:id="rId9" display="https://www.hlidacstatu.cz/Detail/12115600" xr:uid="{00000000-0004-0000-0000-000008000000}"/>
-    <hyperlink ref="B123" r:id="rId10" display="https://www.hlidacstatu.cz/Detail/12122340" xr:uid="{00000000-0004-0000-0000-000009000000}"/>
-    <hyperlink ref="B124" r:id="rId11" display="https://www.hlidacstatu.cz/Detail/12155452" xr:uid="{00000000-0004-0000-0000-00000A000000}"/>
-    <hyperlink ref="B125" r:id="rId12" display="https://www.hlidacstatu.cz/Detail/12157540" xr:uid="{00000000-0004-0000-0000-00000B000000}"/>
+    <hyperlink ref="B110" r:id="rId1" display="https://www.hlidacstatu.cz/Detail/11925676" xr:uid="{00000000-0004-0000-0000-000000000000}"/>
+    <hyperlink ref="B111" r:id="rId2" display="https://www.hlidacstatu.cz/Detail/12148204" xr:uid="{00000000-0004-0000-0000-000001000000}"/>
+    <hyperlink ref="B112" r:id="rId3" display="https://www.hlidacstatu.cz/Detail/12148476" xr:uid="{00000000-0004-0000-0000-000002000000}"/>
+    <hyperlink ref="B128" r:id="rId4" display="https://www.hlidacstatu.cz/Detail/12036848" xr:uid="{00000000-0004-0000-0000-000003000000}"/>
+    <hyperlink ref="B129" r:id="rId5" display="https://www.hlidacstatu.cz/Detail/12103908" xr:uid="{00000000-0004-0000-0000-000004000000}"/>
+    <hyperlink ref="B131" r:id="rId6" display="https://www.hlidacstatu.cz/Detail/12008760" xr:uid="{00000000-0004-0000-0000-000005000000}"/>
+    <hyperlink ref="B132" r:id="rId7" display="https://www.hlidacstatu.cz/Detail/12030004" xr:uid="{00000000-0004-0000-0000-000006000000}"/>
+    <hyperlink ref="B133" r:id="rId8" display="https://www.hlidacstatu.cz/Detail/12085708" xr:uid="{00000000-0004-0000-0000-000007000000}"/>
+    <hyperlink ref="B134" r:id="rId9" display="https://www.hlidacstatu.cz/Detail/12115600" xr:uid="{00000000-0004-0000-0000-000008000000}"/>
+    <hyperlink ref="B135" r:id="rId10" display="https://www.hlidacstatu.cz/Detail/12122340" xr:uid="{00000000-0004-0000-0000-000009000000}"/>
+    <hyperlink ref="B136" r:id="rId11" display="https://www.hlidacstatu.cz/Detail/12155452" xr:uid="{00000000-0004-0000-0000-00000A000000}"/>
+    <hyperlink ref="B137" r:id="rId12" display="https://www.hlidacstatu.cz/Detail/12157540" xr:uid="{00000000-0004-0000-0000-00000B000000}"/>
+    <hyperlink ref="B125" r:id="rId13" display="https://www.hlidacstatu.cz/Detail/12679912?qs=00007064" xr:uid="{70C84FAB-F91B-C64A-86E5-2A31848C7362}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId13"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId14"/>
 </worksheet>
 </file>